--- a/Shablon/34470A.xlsx
+++ b/Shablon/34470A.xlsx
@@ -14,27 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$349</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="387">
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="383">
   <si>
     <t>Условия проведения калибровки:</t>
   </si>
@@ -1243,11 +1228,14 @@
   <si>
     <t>Предел, В</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1771,6 +1759,12 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1789,74 +1783,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1871,57 +1857,59 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2230,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,48 +2232,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="A1" s="110"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="A3" s="110" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="106"/>
       <c r="B4" s="106"/>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
@@ -2296,9 +2278,7 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="106"/>
       <c r="B5" s="106"/>
       <c r="C5" s="106"/>
       <c r="D5" s="106"/>
@@ -2321,7 +2301,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="108" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B7" s="108"/>
       <c r="C7" s="108"/>
@@ -2345,16 +2325,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="109" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B9" s="109"/>
       <c r="C9" s="109"/>
       <c r="D9" s="48" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="50" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="51"/>
@@ -2362,12 +2342,12 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="109" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10" s="109"/>
       <c r="C10" s="109"/>
       <c r="D10" s="52" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -2377,7 +2357,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="109" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B11" s="109"/>
       <c r="C11" s="109"/>
@@ -2390,7 +2370,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="109" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="109"/>
       <c r="C12" s="109"/>
@@ -2402,12 +2382,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="109" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="109"/>
       <c r="C13" s="109"/>
       <c r="D13" s="52" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -2417,12 +2397,12 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="109" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" s="109"/>
       <c r="C14" s="109"/>
       <c r="D14" s="54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
@@ -2432,12 +2412,12 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="109" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15" s="109"/>
       <c r="C15" s="109"/>
       <c r="D15" s="48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -2450,99 +2430,99 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="111"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="112"/>
+      <c r="F19" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="117"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="93" t="s">
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="112"/>
+      <c r="F20" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93" t="s">
+      <c r="G20" s="117"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="97" t="s">
+      <c r="G21" s="117"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="97" t="s">
+      <c r="G22" s="117"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="99"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="100" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="99"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="99"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="99"/>
+      <c r="G23" s="117"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2557,7 +2537,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -2579,17 +2559,17 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2602,7 +2582,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2614,52 +2594,52 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="91" t="s">
+        <v>331</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>332</v>
+      </c>
+      <c r="C31" s="86"/>
+      <c r="D31" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="E31" s="86"/>
+      <c r="F31" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="G31" s="90"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="91"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="G32" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="91" t="s">
         <v>337</v>
-      </c>
-      <c r="C31" s="111"/>
-      <c r="D31" s="110" t="s">
-        <v>338</v>
-      </c>
-      <c r="E31" s="111"/>
-      <c r="F31" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="G31" s="115"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="90" t="s">
-        <v>342</v>
       </c>
       <c r="B33" s="63">
         <v>10</v>
       </c>
-      <c r="C33" s="116" t="s">
-        <v>343</v>
+      <c r="C33" s="101" t="s">
+        <v>338</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="116" t="s">
-        <v>343</v>
+        <v>54</v>
+      </c>
+      <c r="E33" s="101" t="s">
+        <v>338</v>
       </c>
       <c r="F33" s="75">
         <f>B33-0.0039</f>
@@ -2672,15 +2652,15 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="63">
         <v>30</v>
       </c>
-      <c r="C34" s="117"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="117"/>
+        <v>55</v>
+      </c>
+      <c r="E34" s="102"/>
       <c r="F34" s="75">
         <f>B34-0.0047</f>
         <v>29.9953</v>
@@ -2692,15 +2672,15 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="63">
         <v>50</v>
       </c>
-      <c r="C35" s="117"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="117"/>
+        <v>56</v>
+      </c>
+      <c r="E35" s="102"/>
       <c r="F35" s="18">
         <f>B35-0.0055</f>
         <v>49.994500000000002</v>
@@ -2712,15 +2692,15 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
+      <c r="A36" s="91"/>
       <c r="B36" s="63">
         <v>70</v>
       </c>
-      <c r="C36" s="117"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="117"/>
+        <v>57</v>
+      </c>
+      <c r="E36" s="102"/>
       <c r="F36" s="75">
         <f>B36-0.0063</f>
         <v>69.993700000000004</v>
@@ -2732,15 +2712,15 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
+      <c r="A37" s="91"/>
       <c r="B37" s="63">
         <v>100</v>
       </c>
-      <c r="C37" s="118"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="118"/>
+        <v>58</v>
+      </c>
+      <c r="E37" s="103"/>
       <c r="F37" s="75">
         <f>B37-0.0075</f>
         <v>99.992500000000007</v>
@@ -2752,20 +2732,20 @@
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="90" t="s">
-        <v>344</v>
+      <c r="A38" s="91" t="s">
+        <v>339</v>
       </c>
       <c r="B38" s="19">
         <v>0.1</v>
       </c>
-      <c r="C38" s="116" t="s">
-        <v>345</v>
+      <c r="C38" s="101" t="s">
+        <v>340</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="116" t="s">
-        <v>345</v>
+        <v>59</v>
+      </c>
+      <c r="E38" s="101" t="s">
+        <v>340</v>
       </c>
       <c r="F38" s="64">
         <f>B38-0.000006</f>
@@ -2778,15 +2758,15 @@
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
+      <c r="A39" s="91"/>
       <c r="B39" s="19">
         <v>0.3</v>
       </c>
-      <c r="C39" s="117"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="117"/>
+        <v>60</v>
+      </c>
+      <c r="E39" s="102"/>
       <c r="F39" s="65">
         <f>B39-0.00001</f>
         <v>0.29998999999999998</v>
@@ -2798,15 +2778,15 @@
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="19">
         <v>0.5</v>
       </c>
-      <c r="C40" s="117"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="117"/>
+        <v>61</v>
+      </c>
+      <c r="E40" s="102"/>
       <c r="F40" s="64">
         <f>B40-0.000014</f>
         <v>0.49998599999999999</v>
@@ -2818,15 +2798,15 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="19">
         <v>0.7</v>
       </c>
-      <c r="C41" s="117"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="117"/>
+        <v>62</v>
+      </c>
+      <c r="E41" s="102"/>
       <c r="F41" s="64">
         <f>B41-0.000018</f>
         <v>0.69998199999999999</v>
@@ -2838,15 +2818,15 @@
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="63">
         <v>1</v>
       </c>
-      <c r="C42" s="118"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="118"/>
+        <v>63</v>
+      </c>
+      <c r="E42" s="103"/>
       <c r="F42" s="64">
         <f>B42-0.000024</f>
         <v>0.99997599999999998</v>
@@ -2858,20 +2838,20 @@
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="90" t="s">
-        <v>346</v>
+      <c r="A43" s="91" t="s">
+        <v>341</v>
       </c>
       <c r="B43" s="63">
         <v>1</v>
       </c>
-      <c r="C43" s="116" t="s">
-        <v>345</v>
+      <c r="C43" s="101" t="s">
+        <v>340</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="116" t="s">
-        <v>345</v>
+        <v>64</v>
+      </c>
+      <c r="E43" s="101" t="s">
+        <v>340</v>
       </c>
       <c r="F43" s="65">
         <f>B43-0.000036</f>
@@ -2884,15 +2864,15 @@
       <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="63">
         <v>3</v>
       </c>
-      <c r="C44" s="117"/>
+      <c r="C44" s="102"/>
       <c r="D44" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="117"/>
+        <v>65</v>
+      </c>
+      <c r="E44" s="102"/>
       <c r="F44" s="65">
         <f>B44-0.000068</f>
         <v>2.9999319999999998</v>
@@ -2904,15 +2884,15 @@
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
+      <c r="A45" s="91"/>
       <c r="B45" s="63">
         <v>5</v>
       </c>
-      <c r="C45" s="117"/>
+      <c r="C45" s="102"/>
       <c r="D45" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="117"/>
+        <v>66</v>
+      </c>
+      <c r="E45" s="102"/>
       <c r="F45" s="16">
         <f>B45-0.0001</f>
         <v>4.9999000000000002</v>
@@ -2924,15 +2904,15 @@
       <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
+      <c r="A46" s="91"/>
       <c r="B46" s="63">
         <v>7</v>
       </c>
-      <c r="C46" s="117"/>
+      <c r="C46" s="102"/>
       <c r="D46" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="117"/>
+        <v>67</v>
+      </c>
+      <c r="E46" s="102"/>
       <c r="F46" s="65">
         <f>B46-0.000132</f>
         <v>6.9998680000000002</v>
@@ -2944,15 +2924,15 @@
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
+      <c r="A47" s="91"/>
       <c r="B47" s="63">
         <v>10</v>
       </c>
-      <c r="C47" s="118"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="118"/>
+        <v>68</v>
+      </c>
+      <c r="E47" s="103"/>
       <c r="F47" s="65">
         <f>B47-0.00018</f>
         <v>9.9998199999999997</v>
@@ -2964,20 +2944,20 @@
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="90" t="s">
-        <v>347</v>
+      <c r="A48" s="91" t="s">
+        <v>342</v>
       </c>
       <c r="B48" s="63">
         <v>10</v>
       </c>
-      <c r="C48" s="116" t="s">
-        <v>345</v>
+      <c r="C48" s="101" t="s">
+        <v>340</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" s="116" t="s">
-        <v>345</v>
+        <v>69</v>
+      </c>
+      <c r="E48" s="101" t="s">
+        <v>340</v>
       </c>
       <c r="F48" s="18">
         <f>B48-0.00098</f>
@@ -2990,15 +2970,15 @@
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
+      <c r="A49" s="91"/>
       <c r="B49" s="63">
         <v>30</v>
       </c>
-      <c r="C49" s="117"/>
+      <c r="C49" s="102"/>
       <c r="D49" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="117"/>
+        <v>70</v>
+      </c>
+      <c r="E49" s="102"/>
       <c r="F49" s="16">
         <f>B49-0.00174</f>
         <v>29.998259999999998</v>
@@ -3010,15 +2990,15 @@
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="63">
         <v>50</v>
       </c>
-      <c r="C50" s="117"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="117"/>
+        <v>71</v>
+      </c>
+      <c r="E50" s="102"/>
       <c r="F50" s="16">
         <f>B50-0.0025</f>
         <v>49.997500000000002</v>
@@ -3030,15 +3010,15 @@
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="90"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="63">
         <v>70</v>
       </c>
-      <c r="C51" s="117"/>
+      <c r="C51" s="102"/>
       <c r="D51" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="117"/>
+        <v>72</v>
+      </c>
+      <c r="E51" s="102"/>
       <c r="F51" s="16">
         <f>B51-0.00326</f>
         <v>69.996740000000003</v>
@@ -3050,15 +3030,15 @@
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
+      <c r="A52" s="91"/>
       <c r="B52" s="63">
         <v>100</v>
       </c>
-      <c r="C52" s="118"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="118"/>
+        <v>73</v>
+      </c>
+      <c r="E52" s="103"/>
       <c r="F52" s="16">
         <f>B52-0.0044</f>
         <v>99.995599999999996</v>
@@ -3071,19 +3051,19 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B53" s="63">
         <v>100</v>
       </c>
-      <c r="C53" s="116" t="s">
-        <v>345</v>
+      <c r="C53" s="101" t="s">
+        <v>340</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" s="116" t="s">
-        <v>345</v>
+        <v>74</v>
+      </c>
+      <c r="E53" s="101" t="s">
+        <v>340</v>
       </c>
       <c r="F53" s="15">
         <f>B53-0.0098</f>
@@ -3100,11 +3080,11 @@
       <c r="B54" s="63">
         <v>300</v>
       </c>
-      <c r="C54" s="117"/>
+      <c r="C54" s="102"/>
       <c r="D54" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="117"/>
+        <v>75</v>
+      </c>
+      <c r="E54" s="102"/>
       <c r="F54" s="18">
         <f>B54-0.0174</f>
         <v>299.98259999999999</v>
@@ -3120,11 +3100,11 @@
       <c r="B55" s="63">
         <v>500</v>
       </c>
-      <c r="C55" s="117"/>
+      <c r="C55" s="102"/>
       <c r="D55" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="117"/>
+        <v>76</v>
+      </c>
+      <c r="E55" s="102"/>
       <c r="F55" s="18">
         <f>B55-0.025</f>
         <v>499.97500000000002</v>
@@ -3140,11 +3120,11 @@
       <c r="B56" s="63">
         <v>700</v>
       </c>
-      <c r="C56" s="117"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="117"/>
+        <v>77</v>
+      </c>
+      <c r="E56" s="102"/>
       <c r="F56" s="18">
         <f>B56-0.0366</f>
         <v>699.96339999999998</v>
@@ -3160,11 +3140,11 @@
       <c r="B57" s="63">
         <v>1000</v>
       </c>
-      <c r="C57" s="118"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="118"/>
+        <v>78</v>
+      </c>
+      <c r="E57" s="103"/>
       <c r="F57" s="18">
         <f>B57-0.054</f>
         <v>999.94600000000003</v>
@@ -3177,7 +3157,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -3188,57 +3168,57 @@
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="104" t="s">
+        <v>331</v>
+      </c>
+      <c r="B60" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="F60" s="91"/>
+      <c r="G60" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="H60" s="90"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="105"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="H61" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="B60" s="90" t="s">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="90" t="s">
+      <c r="B62" s="79">
+        <v>10</v>
+      </c>
+      <c r="C62" s="82" t="s">
         <v>338</v>
       </c>
-      <c r="F60" s="90"/>
-      <c r="G60" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="H60" s="115"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="88"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="H61" s="62" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="77" t="s">
-        <v>342</v>
-      </c>
-      <c r="B62" s="77">
-        <v>10</v>
-      </c>
-      <c r="C62" s="80" t="s">
-        <v>343</v>
-      </c>
       <c r="D62" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="80" t="s">
-        <v>343</v>
+        <v>79</v>
+      </c>
+      <c r="F62" s="82" t="s">
+        <v>338</v>
       </c>
       <c r="G62" s="69">
         <f>$B$62-0.025</f>
@@ -3250,16 +3230,16 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="81"/>
+      <c r="A63" s="80"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="83"/>
       <c r="D63" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="81"/>
+        <v>80</v>
+      </c>
+      <c r="F63" s="83"/>
       <c r="G63" s="69">
         <f>$B$62-0.025</f>
         <v>9.9749999999999996</v>
@@ -3270,16 +3250,16 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="81"/>
+      <c r="A64" s="80"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="83"/>
       <c r="D64" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="F64" s="81"/>
+        <v>81</v>
+      </c>
+      <c r="F64" s="83"/>
       <c r="G64" s="69">
         <f>$B$62-0.037</f>
         <v>9.9629999999999992</v>
@@ -3290,16 +3270,16 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="81"/>
+      <c r="A65" s="80"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="83"/>
       <c r="D65" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" s="81"/>
+        <v>82</v>
+      </c>
+      <c r="F65" s="83"/>
       <c r="G65" s="69">
         <f>$B$62-0.065</f>
         <v>9.9350000000000005</v>
@@ -3310,16 +3290,16 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="79"/>
-      <c r="C66" s="82"/>
+      <c r="A66" s="80"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="84"/>
       <c r="D66" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" s="82"/>
+        <v>83</v>
+      </c>
+      <c r="F66" s="84"/>
       <c r="G66" s="69">
         <f>$B$62-0.2</f>
         <v>9.8000000000000007</v>
@@ -3330,21 +3310,21 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="77">
+      <c r="A67" s="80"/>
+      <c r="B67" s="79">
         <v>30</v>
       </c>
-      <c r="C67" s="80" t="s">
-        <v>343</v>
+      <c r="C67" s="82" t="s">
+        <v>338</v>
       </c>
       <c r="D67" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="F67" s="80" t="s">
-        <v>343</v>
+        <v>84</v>
+      </c>
+      <c r="F67" s="82" t="s">
+        <v>338</v>
       </c>
       <c r="G67" s="69">
         <f>$B$67-0.035</f>
@@ -3356,16 +3336,16 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="81"/>
+      <c r="A68" s="80"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="83"/>
       <c r="D68" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F68" s="81"/>
+        <v>85</v>
+      </c>
+      <c r="F68" s="83"/>
       <c r="G68" s="69">
         <f>$B$67-0.035</f>
         <v>29.965</v>
@@ -3376,16 +3356,16 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="81"/>
+      <c r="A69" s="80"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="83"/>
       <c r="D69" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="F69" s="81"/>
+        <v>86</v>
+      </c>
+      <c r="F69" s="83"/>
       <c r="G69" s="69">
         <f>$B$67-0.051</f>
         <v>29.949000000000002</v>
@@ -3396,16 +3376,16 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="81"/>
+      <c r="A70" s="80"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="83"/>
       <c r="D70" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="81"/>
+        <v>87</v>
+      </c>
+      <c r="F70" s="83"/>
       <c r="G70" s="69">
         <f>$B$67-0.095</f>
         <v>29.905000000000001</v>
@@ -3416,16 +3396,16 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="78"/>
-      <c r="B71" s="79"/>
-      <c r="C71" s="82"/>
+      <c r="A71" s="80"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="84"/>
       <c r="D71" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F71" s="82"/>
+        <v>88</v>
+      </c>
+      <c r="F71" s="84"/>
       <c r="G71" s="69">
         <f>$B$67-0.4</f>
         <v>29.6</v>
@@ -3436,21 +3416,21 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
-      <c r="B72" s="77">
+      <c r="A72" s="80"/>
+      <c r="B72" s="79">
         <v>50</v>
       </c>
-      <c r="C72" s="80" t="s">
-        <v>343</v>
+      <c r="C72" s="82" t="s">
+        <v>338</v>
       </c>
       <c r="D72" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="F72" s="80" t="s">
-        <v>343</v>
+        <v>89</v>
+      </c>
+      <c r="F72" s="82" t="s">
+        <v>338</v>
       </c>
       <c r="G72" s="69">
         <f>$B$72-0.045</f>
@@ -3462,16 +3442,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="81"/>
+      <c r="A73" s="80"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="83"/>
       <c r="D73" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="F73" s="81"/>
+        <v>90</v>
+      </c>
+      <c r="F73" s="83"/>
       <c r="G73" s="69">
         <f>$B$72-0.045</f>
         <v>49.954999999999998</v>
@@ -3482,16 +3462,16 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="81"/>
+      <c r="A74" s="80"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="83"/>
       <c r="D74" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="F74" s="81"/>
+        <v>91</v>
+      </c>
+      <c r="F74" s="83"/>
       <c r="G74" s="69">
         <f>$B$72-0.065</f>
         <v>49.935000000000002</v>
@@ -3502,16 +3482,16 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="81"/>
+      <c r="A75" s="80"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="83"/>
       <c r="D75" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="F75" s="81"/>
+        <v>92</v>
+      </c>
+      <c r="F75" s="83"/>
       <c r="G75" s="69">
         <f>$B$72-0.125</f>
         <v>49.875</v>
@@ -3522,16 +3502,16 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="82"/>
+      <c r="A76" s="80"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="84"/>
       <c r="D76" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E76" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="F76" s="82"/>
+        <v>93</v>
+      </c>
+      <c r="F76" s="84"/>
       <c r="G76" s="69">
         <f>$B$72-0.6</f>
         <v>49.4</v>
@@ -3542,21 +3522,21 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="78"/>
-      <c r="B77" s="86">
+      <c r="A77" s="80"/>
+      <c r="B77" s="100">
         <v>70</v>
       </c>
-      <c r="C77" s="91" t="s">
-        <v>343</v>
+      <c r="C77" s="99" t="s">
+        <v>338</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F77" s="91" t="s">
-        <v>343</v>
+        <v>94</v>
+      </c>
+      <c r="F77" s="99" t="s">
+        <v>338</v>
       </c>
       <c r="G77" s="69">
         <f>$B$77-0.055</f>
@@ -3568,16 +3548,16 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="91"/>
+      <c r="A78" s="80"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="99"/>
       <c r="D78" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="F78" s="91"/>
+        <v>95</v>
+      </c>
+      <c r="F78" s="99"/>
       <c r="G78" s="69">
         <f>$B$77-0.055</f>
         <v>69.944999999999993</v>
@@ -3588,16 +3568,16 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="78"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="91"/>
+      <c r="A79" s="80"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="99"/>
       <c r="D79" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="F79" s="91"/>
+        <v>96</v>
+      </c>
+      <c r="F79" s="99"/>
       <c r="G79" s="69">
         <f>$B$77-0.079</f>
         <v>69.921000000000006</v>
@@ -3608,16 +3588,16 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="78"/>
-      <c r="B80" s="86"/>
-      <c r="C80" s="91"/>
+      <c r="A80" s="80"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="99"/>
       <c r="D80" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="F80" s="91"/>
+        <v>97</v>
+      </c>
+      <c r="F80" s="99"/>
       <c r="G80" s="69">
         <f>$B$77-0.155</f>
         <v>69.844999999999999</v>
@@ -3628,16 +3608,16 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="78"/>
-      <c r="B81" s="86"/>
-      <c r="C81" s="91"/>
+      <c r="A81" s="80"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="99"/>
       <c r="D81" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="F81" s="91"/>
+        <v>98</v>
+      </c>
+      <c r="F81" s="99"/>
       <c r="G81" s="69">
         <f>$B$77-0.8</f>
         <v>69.2</v>
@@ -3648,21 +3628,21 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="78"/>
-      <c r="B82" s="86">
+      <c r="A82" s="80"/>
+      <c r="B82" s="100">
         <v>0.1</v>
       </c>
-      <c r="C82" s="91" t="s">
-        <v>345</v>
+      <c r="C82" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D82" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="F82" s="91" t="s">
-        <v>345</v>
+        <v>99</v>
+      </c>
+      <c r="F82" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G82" s="69">
         <f>$B$82-0.00007</f>
@@ -3674,16 +3654,16 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="78"/>
-      <c r="B83" s="86"/>
-      <c r="C83" s="91"/>
+      <c r="A83" s="80"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="99"/>
       <c r="D83" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="F83" s="91"/>
+        <v>100</v>
+      </c>
+      <c r="F83" s="99"/>
       <c r="G83" s="69">
         <f>$B$82-0.00007</f>
         <v>9.9930000000000005E-2</v>
@@ -3694,16 +3674,16 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
-      <c r="B84" s="86"/>
-      <c r="C84" s="91"/>
+      <c r="A84" s="80"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="99"/>
       <c r="D84" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="F84" s="91"/>
+        <v>101</v>
+      </c>
+      <c r="F84" s="99"/>
       <c r="G84" s="69">
         <f>$B$82-0.0001</f>
         <v>9.9900000000000003E-2</v>
@@ -3714,16 +3694,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="78"/>
-      <c r="B85" s="86"/>
-      <c r="C85" s="91"/>
+      <c r="A85" s="80"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="99"/>
       <c r="D85" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E85" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="91"/>
+        <v>102</v>
+      </c>
+      <c r="F85" s="99"/>
       <c r="G85" s="69">
         <f>$B$82-0.0002</f>
         <v>9.98E-2</v>
@@ -3734,16 +3714,16 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="79"/>
-      <c r="B86" s="86"/>
-      <c r="C86" s="91"/>
+      <c r="A86" s="81"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="99"/>
       <c r="D86" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="F86" s="91"/>
+        <v>103</v>
+      </c>
+      <c r="F86" s="99"/>
       <c r="G86" s="69">
         <f>$B$82-0.0011</f>
         <v>9.8900000000000002E-2</v>
@@ -3754,104 +3734,104 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="77" t="s">
-        <v>344</v>
-      </c>
-      <c r="B87" s="77">
+      <c r="A87" s="79" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" s="79">
         <v>0.1</v>
       </c>
-      <c r="C87" s="91" t="s">
-        <v>345</v>
+      <c r="C87" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D87" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="F87" s="91" t="s">
-        <v>345</v>
-      </c>
-      <c r="G87" s="126">
+        <v>104</v>
+      </c>
+      <c r="F87" s="99" t="s">
+        <v>340</v>
+      </c>
+      <c r="G87" s="77">
         <f>$B$87-0.00025</f>
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="H87" s="126">
+      <c r="H87" s="77">
         <f>$B$87+0.00025</f>
         <v>0.10025000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="78"/>
-      <c r="B88" s="78"/>
-      <c r="C88" s="91"/>
+      <c r="A88" s="80"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="99"/>
       <c r="D88" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="F88" s="91"/>
-      <c r="G88" s="126">
+        <v>105</v>
+      </c>
+      <c r="F88" s="99"/>
+      <c r="G88" s="77">
         <f>$B$87-0.00025</f>
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="H88" s="126">
+      <c r="H88" s="77">
         <f>$B$87+0.00025</f>
         <v>0.10025000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="78"/>
-      <c r="B89" s="78"/>
-      <c r="C89" s="91"/>
+      <c r="A89" s="80"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="99"/>
       <c r="D89" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F89" s="91"/>
-      <c r="G89" s="126">
+        <v>106</v>
+      </c>
+      <c r="F89" s="99"/>
+      <c r="G89" s="77">
         <f>$B$87-0.00037</f>
         <v>9.963000000000001E-2</v>
       </c>
-      <c r="H89" s="126">
+      <c r="H89" s="77">
         <f>$B$87+0.00037</f>
         <v>0.10037</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="78"/>
-      <c r="B90" s="78"/>
-      <c r="C90" s="91"/>
+      <c r="A90" s="80"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="99"/>
       <c r="D90" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F90" s="91"/>
-      <c r="G90" s="126">
+        <v>107</v>
+      </c>
+      <c r="F90" s="99"/>
+      <c r="G90" s="77">
         <f>$B$87-0.00065</f>
         <v>9.9350000000000008E-2</v>
       </c>
-      <c r="H90" s="126">
+      <c r="H90" s="77">
         <f>$B$87+0.00065</f>
         <v>0.10065</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="78"/>
-      <c r="B91" s="79"/>
-      <c r="C91" s="91"/>
+      <c r="A91" s="80"/>
+      <c r="B91" s="81"/>
+      <c r="C91" s="99"/>
       <c r="D91" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="F91" s="91"/>
+        <v>108</v>
+      </c>
+      <c r="F91" s="99"/>
       <c r="G91" s="72">
         <f>$B$87-0.002</f>
         <v>9.8000000000000004E-2</v>
@@ -3862,21 +3842,21 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="78"/>
-      <c r="B92" s="77">
+      <c r="A92" s="80"/>
+      <c r="B92" s="79">
         <v>0.3</v>
       </c>
-      <c r="C92" s="91" t="s">
-        <v>345</v>
+      <c r="C92" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D92" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E92" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="F92" s="91" t="s">
-        <v>345</v>
+        <v>109</v>
+      </c>
+      <c r="F92" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G92" s="69">
         <f>$B$92-0.00035</f>
@@ -3888,16 +3868,16 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="78"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="91"/>
+      <c r="A93" s="80"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="99"/>
       <c r="D93" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="F93" s="91"/>
+        <v>110</v>
+      </c>
+      <c r="F93" s="99"/>
       <c r="G93" s="69">
         <f>$B$92-0.00035</f>
         <v>0.29964999999999997</v>
@@ -3908,16 +3888,16 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="78"/>
-      <c r="B94" s="78"/>
-      <c r="C94" s="91"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="99"/>
       <c r="D94" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F94" s="91"/>
+        <v>111</v>
+      </c>
+      <c r="F94" s="99"/>
       <c r="G94" s="69">
         <f>$B$92-0.00051</f>
         <v>0.29948999999999998</v>
@@ -3928,16 +3908,16 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="78"/>
-      <c r="B95" s="78"/>
-      <c r="C95" s="91"/>
+      <c r="A95" s="80"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="99"/>
       <c r="D95" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="F95" s="91"/>
+        <v>112</v>
+      </c>
+      <c r="F95" s="99"/>
       <c r="G95" s="69">
         <f>$B$92-0.00095</f>
         <v>0.29904999999999998</v>
@@ -3948,16 +3928,16 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="78"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="91"/>
+      <c r="A96" s="80"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="99"/>
       <c r="D96" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="F96" s="91"/>
+        <v>113</v>
+      </c>
+      <c r="F96" s="99"/>
       <c r="G96" s="69">
         <f>$B$92-0.004</f>
         <v>0.29599999999999999</v>
@@ -3968,21 +3948,21 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="78"/>
-      <c r="B97" s="77">
+      <c r="A97" s="80"/>
+      <c r="B97" s="79">
         <v>0.5</v>
       </c>
-      <c r="C97" s="91" t="s">
-        <v>345</v>
+      <c r="C97" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D97" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="F97" s="91" t="s">
-        <v>345</v>
+        <v>114</v>
+      </c>
+      <c r="F97" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G97" s="69">
         <f>$B$97-0.00045</f>
@@ -3994,16 +3974,16 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="78"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="91"/>
+      <c r="A98" s="80"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="99"/>
       <c r="D98" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E98" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="F98" s="91"/>
+        <v>115</v>
+      </c>
+      <c r="F98" s="99"/>
       <c r="G98" s="69">
         <f>$B$97-0.00045</f>
         <v>0.49954999999999999</v>
@@ -4014,16 +3994,16 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="78"/>
-      <c r="B99" s="78"/>
-      <c r="C99" s="91"/>
+      <c r="A99" s="80"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="99"/>
       <c r="D99" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E99" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="F99" s="91"/>
+        <v>116</v>
+      </c>
+      <c r="F99" s="99"/>
       <c r="G99" s="69">
         <f>$B$97-0.00065</f>
         <v>0.49935000000000002</v>
@@ -4034,16 +4014,16 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="78"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="91"/>
+      <c r="A100" s="80"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="99"/>
       <c r="D100" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="F100" s="91"/>
+        <v>117</v>
+      </c>
+      <c r="F100" s="99"/>
       <c r="G100" s="69">
         <f>$B$97-0.00125</f>
         <v>0.49875000000000003</v>
@@ -4054,16 +4034,16 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="78"/>
-      <c r="B101" s="79"/>
-      <c r="C101" s="91"/>
+      <c r="A101" s="80"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="99"/>
       <c r="D101" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="F101" s="91"/>
+        <v>118</v>
+      </c>
+      <c r="F101" s="99"/>
       <c r="G101" s="69">
         <f>$B$97-0.006</f>
         <v>0.49399999999999999</v>
@@ -4074,21 +4054,21 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="78"/>
-      <c r="B102" s="77">
+      <c r="A102" s="80"/>
+      <c r="B102" s="79">
         <v>0.7</v>
       </c>
-      <c r="C102" s="91" t="s">
-        <v>345</v>
+      <c r="C102" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D102" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="F102" s="91" t="s">
-        <v>345</v>
+        <v>119</v>
+      </c>
+      <c r="F102" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G102" s="69">
         <f>$B$102-0.00055</f>
@@ -4100,16 +4080,16 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="78"/>
-      <c r="B103" s="78"/>
-      <c r="C103" s="91"/>
+      <c r="A103" s="80"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="99"/>
       <c r="D103" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="F103" s="91"/>
+        <v>120</v>
+      </c>
+      <c r="F103" s="99"/>
       <c r="G103" s="69">
         <f>$B$102-0.00055</f>
         <v>0.69944999999999991</v>
@@ -4120,16 +4100,16 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="78"/>
-      <c r="B104" s="78"/>
-      <c r="C104" s="91"/>
+      <c r="A104" s="80"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="99"/>
       <c r="D104" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="F104" s="91"/>
+        <v>121</v>
+      </c>
+      <c r="F104" s="99"/>
       <c r="G104" s="69">
         <f>$B$102-0.00079</f>
         <v>0.69921</v>
@@ -4140,16 +4120,16 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="78"/>
-      <c r="B105" s="78"/>
-      <c r="C105" s="91"/>
+      <c r="A105" s="80"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="99"/>
       <c r="D105" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="F105" s="91"/>
+        <v>122</v>
+      </c>
+      <c r="F105" s="99"/>
       <c r="G105" s="69">
         <f>$B$102-0.00155</f>
         <v>0.6984499999999999</v>
@@ -4160,16 +4140,16 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="78"/>
-      <c r="B106" s="79"/>
-      <c r="C106" s="91"/>
+      <c r="A106" s="80"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="99"/>
       <c r="D106" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F106" s="91"/>
+        <v>123</v>
+      </c>
+      <c r="F106" s="99"/>
       <c r="G106" s="69">
         <f>$B$102-0.008</f>
         <v>0.69199999999999995</v>
@@ -4180,21 +4160,21 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="78"/>
-      <c r="B107" s="77">
+      <c r="A107" s="80"/>
+      <c r="B107" s="79">
         <v>1</v>
       </c>
-      <c r="C107" s="91" t="s">
-        <v>345</v>
+      <c r="C107" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D107" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="F107" s="91" t="s">
-        <v>345</v>
+        <v>124</v>
+      </c>
+      <c r="F107" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G107" s="69">
         <f>$B$107-0.0007</f>
@@ -4206,16 +4186,16 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="78"/>
-      <c r="B108" s="78"/>
-      <c r="C108" s="91"/>
+      <c r="A108" s="80"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="99"/>
       <c r="D108" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="F108" s="91"/>
+        <v>125</v>
+      </c>
+      <c r="F108" s="99"/>
       <c r="G108" s="69">
         <f>$B$107-0.0007</f>
         <v>0.99929999999999997</v>
@@ -4226,16 +4206,16 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="78"/>
-      <c r="B109" s="78"/>
-      <c r="C109" s="91"/>
+      <c r="A109" s="80"/>
+      <c r="B109" s="80"/>
+      <c r="C109" s="99"/>
       <c r="D109" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="F109" s="91"/>
+        <v>126</v>
+      </c>
+      <c r="F109" s="99"/>
       <c r="G109" s="69">
         <f>$B$107-0.001</f>
         <v>0.999</v>
@@ -4246,16 +4226,16 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="78"/>
-      <c r="B110" s="78"/>
-      <c r="C110" s="91"/>
+      <c r="A110" s="80"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="99"/>
       <c r="D110" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="F110" s="91"/>
+        <v>127</v>
+      </c>
+      <c r="F110" s="99"/>
       <c r="G110" s="69">
         <f>$B$107-0.002</f>
         <v>0.998</v>
@@ -4266,16 +4246,16 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="79"/>
-      <c r="B111" s="79"/>
-      <c r="C111" s="91"/>
+      <c r="A111" s="81"/>
+      <c r="B111" s="81"/>
+      <c r="C111" s="99"/>
       <c r="D111" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="F111" s="91"/>
+        <v>128</v>
+      </c>
+      <c r="F111" s="99"/>
       <c r="G111" s="69">
         <f>$B$107-0.011</f>
         <v>0.98899999999999999</v>
@@ -4286,104 +4266,104 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="77" t="s">
-        <v>346</v>
-      </c>
-      <c r="B112" s="77">
+      <c r="A112" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="B112" s="79">
         <v>1</v>
       </c>
-      <c r="C112" s="91" t="s">
-        <v>345</v>
+      <c r="C112" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D112" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="F112" s="91" t="s">
-        <v>345</v>
-      </c>
-      <c r="G112" s="127">
+        <v>129</v>
+      </c>
+      <c r="F112" s="99" t="s">
+        <v>340</v>
+      </c>
+      <c r="G112" s="78">
         <f>$B$112-0.0025</f>
         <v>0.99750000000000005</v>
       </c>
-      <c r="H112" s="127">
+      <c r="H112" s="78">
         <f>$B$112+0.0025</f>
         <v>1.0024999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="78"/>
-      <c r="B113" s="78"/>
-      <c r="C113" s="91"/>
+      <c r="A113" s="80"/>
+      <c r="B113" s="80"/>
+      <c r="C113" s="99"/>
       <c r="D113" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F113" s="91"/>
-      <c r="G113" s="127">
+        <v>130</v>
+      </c>
+      <c r="F113" s="99"/>
+      <c r="G113" s="78">
         <f>$B$112-0.0025</f>
         <v>0.99750000000000005</v>
       </c>
-      <c r="H113" s="127">
+      <c r="H113" s="78">
         <f>$B$112+0.0025</f>
         <v>1.0024999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="78"/>
-      <c r="B114" s="78"/>
-      <c r="C114" s="91"/>
+      <c r="A114" s="80"/>
+      <c r="B114" s="80"/>
+      <c r="C114" s="99"/>
       <c r="D114" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="F114" s="91"/>
-      <c r="G114" s="127">
+        <v>131</v>
+      </c>
+      <c r="F114" s="99"/>
+      <c r="G114" s="78">
         <f>$B$112-0.0037</f>
         <v>0.99629999999999996</v>
       </c>
-      <c r="H114" s="127">
+      <c r="H114" s="78">
         <f>$B$112+0.0037</f>
         <v>1.0037</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="78"/>
-      <c r="B115" s="78"/>
-      <c r="C115" s="91"/>
+      <c r="A115" s="80"/>
+      <c r="B115" s="80"/>
+      <c r="C115" s="99"/>
       <c r="D115" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="F115" s="91"/>
-      <c r="G115" s="127">
+        <v>132</v>
+      </c>
+      <c r="F115" s="99"/>
+      <c r="G115" s="78">
         <f>$B$112-0.0065</f>
         <v>0.99350000000000005</v>
       </c>
-      <c r="H115" s="127">
+      <c r="H115" s="78">
         <f>$B$112+0.0065</f>
         <v>1.0065</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="78"/>
-      <c r="B116" s="79"/>
-      <c r="C116" s="91"/>
+      <c r="A116" s="80"/>
+      <c r="B116" s="81"/>
+      <c r="C116" s="99"/>
       <c r="D116" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E116" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="F116" s="91"/>
+        <v>133</v>
+      </c>
+      <c r="F116" s="99"/>
       <c r="G116" s="74">
         <f>$B$112-0.02</f>
         <v>0.98</v>
@@ -4394,21 +4374,21 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="78"/>
-      <c r="B117" s="77">
+      <c r="A117" s="80"/>
+      <c r="B117" s="79">
         <v>3</v>
       </c>
-      <c r="C117" s="91" t="s">
-        <v>345</v>
+      <c r="C117" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D117" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E117" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F117" s="91" t="s">
-        <v>345</v>
+        <v>134</v>
+      </c>
+      <c r="F117" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G117" s="69">
         <f>$B$117-0.0035</f>
@@ -4420,16 +4400,16 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="78"/>
-      <c r="B118" s="78"/>
-      <c r="C118" s="91"/>
+      <c r="A118" s="80"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="99"/>
       <c r="D118" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E118" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="F118" s="91"/>
+        <v>135</v>
+      </c>
+      <c r="F118" s="99"/>
       <c r="G118" s="69">
         <f>$B$117-0.0035</f>
         <v>2.9965000000000002</v>
@@ -4440,16 +4420,16 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="78"/>
-      <c r="B119" s="78"/>
-      <c r="C119" s="91"/>
+      <c r="A119" s="80"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="99"/>
       <c r="D119" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E119" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="F119" s="91"/>
+        <v>136</v>
+      </c>
+      <c r="F119" s="99"/>
       <c r="G119" s="69">
         <f>$B$117-0.0051</f>
         <v>2.9948999999999999</v>
@@ -4460,16 +4440,16 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="78"/>
-      <c r="B120" s="78"/>
-      <c r="C120" s="91"/>
+      <c r="A120" s="80"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="99"/>
       <c r="D120" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E120" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="F120" s="91"/>
+        <v>137</v>
+      </c>
+      <c r="F120" s="99"/>
       <c r="G120" s="69">
         <f>$B$117-0.0095</f>
         <v>2.9904999999999999</v>
@@ -4480,16 +4460,16 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="78"/>
-      <c r="B121" s="79"/>
-      <c r="C121" s="91"/>
+      <c r="A121" s="80"/>
+      <c r="B121" s="81"/>
+      <c r="C121" s="99"/>
       <c r="D121" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E121" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="F121" s="91"/>
+        <v>138</v>
+      </c>
+      <c r="F121" s="99"/>
       <c r="G121" s="69">
         <f>$B$117-0.04</f>
         <v>2.96</v>
@@ -4500,21 +4480,21 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="78"/>
-      <c r="B122" s="77">
+      <c r="A122" s="80"/>
+      <c r="B122" s="79">
         <v>5</v>
       </c>
-      <c r="C122" s="91" t="s">
-        <v>345</v>
+      <c r="C122" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D122" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E122" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="F122" s="91" t="s">
-        <v>345</v>
+        <v>139</v>
+      </c>
+      <c r="F122" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G122" s="69">
         <f>$B$122-0.0045</f>
@@ -4526,16 +4506,16 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="78"/>
-      <c r="B123" s="78"/>
-      <c r="C123" s="91"/>
+      <c r="A123" s="80"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="99"/>
       <c r="D123" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E123" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="F123" s="91"/>
+        <v>140</v>
+      </c>
+      <c r="F123" s="99"/>
       <c r="G123" s="69">
         <f>$B$122-0.0045</f>
         <v>4.9954999999999998</v>
@@ -4546,16 +4526,16 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="78"/>
-      <c r="B124" s="78"/>
-      <c r="C124" s="91"/>
+      <c r="A124" s="80"/>
+      <c r="B124" s="80"/>
+      <c r="C124" s="99"/>
       <c r="D124" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E124" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="F124" s="91"/>
+        <v>141</v>
+      </c>
+      <c r="F124" s="99"/>
       <c r="G124" s="69">
         <f>$B$122-0.0065</f>
         <v>4.9935</v>
@@ -4566,16 +4546,16 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="78"/>
-      <c r="B125" s="78"/>
-      <c r="C125" s="91"/>
+      <c r="A125" s="80"/>
+      <c r="B125" s="80"/>
+      <c r="C125" s="99"/>
       <c r="D125" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E125" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="F125" s="91"/>
+        <v>142</v>
+      </c>
+      <c r="F125" s="99"/>
       <c r="G125" s="69">
         <f>$B$122-0.0125</f>
         <v>4.9874999999999998</v>
@@ -4586,16 +4566,16 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="78"/>
-      <c r="B126" s="79"/>
-      <c r="C126" s="91"/>
+      <c r="A126" s="80"/>
+      <c r="B126" s="81"/>
+      <c r="C126" s="99"/>
       <c r="D126" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E126" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="F126" s="91"/>
+        <v>143</v>
+      </c>
+      <c r="F126" s="99"/>
       <c r="G126" s="69">
         <f>$B$122-0.06</f>
         <v>4.9400000000000004</v>
@@ -4606,21 +4586,21 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="78"/>
-      <c r="B127" s="77">
+      <c r="A127" s="80"/>
+      <c r="B127" s="79">
         <v>7</v>
       </c>
-      <c r="C127" s="91" t="s">
-        <v>345</v>
+      <c r="C127" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D127" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E127" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="F127" s="91" t="s">
-        <v>345</v>
+        <v>144</v>
+      </c>
+      <c r="F127" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G127" s="69">
         <f>$B$127-0.0055</f>
@@ -4632,16 +4612,16 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="78"/>
-      <c r="B128" s="78"/>
-      <c r="C128" s="91"/>
+      <c r="A128" s="80"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="99"/>
       <c r="D128" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E128" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="F128" s="91"/>
+        <v>145</v>
+      </c>
+      <c r="F128" s="99"/>
       <c r="G128" s="69">
         <f>$B$127-0.0055</f>
         <v>6.9945000000000004</v>
@@ -4652,16 +4632,16 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="78"/>
-      <c r="B129" s="78"/>
-      <c r="C129" s="91"/>
+      <c r="A129" s="80"/>
+      <c r="B129" s="80"/>
+      <c r="C129" s="99"/>
       <c r="D129" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E129" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="F129" s="91"/>
+        <v>146</v>
+      </c>
+      <c r="F129" s="99"/>
       <c r="G129" s="69">
         <f>$B$127-0.0079</f>
         <v>6.9920999999999998</v>
@@ -4672,16 +4652,16 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="78"/>
-      <c r="B130" s="78"/>
-      <c r="C130" s="91"/>
+      <c r="A130" s="80"/>
+      <c r="B130" s="80"/>
+      <c r="C130" s="99"/>
       <c r="D130" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E130" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="F130" s="91"/>
+        <v>147</v>
+      </c>
+      <c r="F130" s="99"/>
       <c r="G130" s="69">
         <f>$B$127-0.0155</f>
         <v>6.9844999999999997</v>
@@ -4692,16 +4672,16 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="78"/>
-      <c r="B131" s="79"/>
-      <c r="C131" s="91"/>
+      <c r="A131" s="80"/>
+      <c r="B131" s="81"/>
+      <c r="C131" s="99"/>
       <c r="D131" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E131" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F131" s="91"/>
+        <v>148</v>
+      </c>
+      <c r="F131" s="99"/>
       <c r="G131" s="69">
         <f>$B$127-0.08</f>
         <v>6.92</v>
@@ -4712,21 +4692,21 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="78"/>
-      <c r="B132" s="77">
+      <c r="A132" s="80"/>
+      <c r="B132" s="79">
         <v>10</v>
       </c>
-      <c r="C132" s="91" t="s">
-        <v>345</v>
+      <c r="C132" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D132" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E132" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="F132" s="91" t="s">
-        <v>345</v>
+        <v>149</v>
+      </c>
+      <c r="F132" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G132" s="69">
         <f>$B$132-0.007</f>
@@ -4738,16 +4718,16 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="78"/>
-      <c r="B133" s="78"/>
-      <c r="C133" s="91"/>
+      <c r="A133" s="80"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="99"/>
       <c r="D133" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E133" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="F133" s="91"/>
+        <v>150</v>
+      </c>
+      <c r="F133" s="99"/>
       <c r="G133" s="69">
         <f>$B$132-0.007</f>
         <v>9.9930000000000003</v>
@@ -4758,16 +4738,16 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="78"/>
-      <c r="B134" s="78"/>
-      <c r="C134" s="91"/>
+      <c r="A134" s="80"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="99"/>
       <c r="D134" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E134" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F134" s="91"/>
+        <v>151</v>
+      </c>
+      <c r="F134" s="99"/>
       <c r="G134" s="69">
         <f>$B$132-0.01</f>
         <v>9.99</v>
@@ -4778,16 +4758,16 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="78"/>
-      <c r="B135" s="78"/>
-      <c r="C135" s="91"/>
+      <c r="A135" s="80"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="99"/>
       <c r="D135" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E135" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="F135" s="91"/>
+        <v>152</v>
+      </c>
+      <c r="F135" s="99"/>
       <c r="G135" s="69">
         <f>$B$132-0.02</f>
         <v>9.98</v>
@@ -4798,16 +4778,16 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="79"/>
-      <c r="B136" s="79"/>
-      <c r="C136" s="91"/>
+      <c r="A136" s="81"/>
+      <c r="B136" s="81"/>
+      <c r="C136" s="99"/>
       <c r="D136" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E136" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="F136" s="91"/>
+        <v>153</v>
+      </c>
+      <c r="F136" s="99"/>
       <c r="G136" s="69">
         <f>$B$132-0.11</f>
         <v>9.89</v>
@@ -4818,23 +4798,23 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="77" t="s">
-        <v>347</v>
-      </c>
-      <c r="B137" s="77">
+      <c r="A137" s="79" t="s">
+        <v>342</v>
+      </c>
+      <c r="B137" s="79">
         <v>10</v>
       </c>
-      <c r="C137" s="91" t="s">
-        <v>345</v>
+      <c r="C137" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D137" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E137" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="F137" s="91" t="s">
-        <v>345</v>
+        <v>154</v>
+      </c>
+      <c r="F137" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G137" s="72">
         <f>$B$137-0.025</f>
@@ -4846,16 +4826,16 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="78"/>
-      <c r="B138" s="78"/>
-      <c r="C138" s="91"/>
+      <c r="A138" s="80"/>
+      <c r="B138" s="80"/>
+      <c r="C138" s="99"/>
       <c r="D138" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E138" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="F138" s="91"/>
+        <v>155</v>
+      </c>
+      <c r="F138" s="99"/>
       <c r="G138" s="72">
         <f>$B$137-0.025</f>
         <v>9.9749999999999996</v>
@@ -4866,16 +4846,16 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="78"/>
-      <c r="B139" s="78"/>
-      <c r="C139" s="91"/>
+      <c r="A139" s="80"/>
+      <c r="B139" s="80"/>
+      <c r="C139" s="99"/>
       <c r="D139" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E139" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="F139" s="91"/>
+        <v>156</v>
+      </c>
+      <c r="F139" s="99"/>
       <c r="G139" s="72">
         <f>$B$137-0.037</f>
         <v>9.9629999999999992</v>
@@ -4886,16 +4866,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="78"/>
-      <c r="B140" s="78"/>
-      <c r="C140" s="91"/>
+      <c r="A140" s="80"/>
+      <c r="B140" s="80"/>
+      <c r="C140" s="99"/>
       <c r="D140" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E140" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="F140" s="91"/>
+        <v>157</v>
+      </c>
+      <c r="F140" s="99"/>
       <c r="G140" s="72">
         <f>$B$137-0.065</f>
         <v>9.9350000000000005</v>
@@ -4906,16 +4886,16 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="78"/>
-      <c r="B141" s="79"/>
-      <c r="C141" s="91"/>
+      <c r="A141" s="80"/>
+      <c r="B141" s="81"/>
+      <c r="C141" s="99"/>
       <c r="D141" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E141" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="F141" s="91"/>
+        <v>158</v>
+      </c>
+      <c r="F141" s="99"/>
       <c r="G141" s="73">
         <f>$B$137-0.2</f>
         <v>9.8000000000000007</v>
@@ -4926,21 +4906,21 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="78"/>
-      <c r="B142" s="77">
+      <c r="A142" s="80"/>
+      <c r="B142" s="79">
         <v>30</v>
       </c>
-      <c r="C142" s="91" t="s">
-        <v>345</v>
+      <c r="C142" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D142" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E142" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="F142" s="91" t="s">
-        <v>345</v>
+        <v>159</v>
+      </c>
+      <c r="F142" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G142" s="69">
         <f>$B$142-0.035</f>
@@ -4952,16 +4932,16 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="78"/>
-      <c r="B143" s="78"/>
-      <c r="C143" s="91"/>
+      <c r="A143" s="80"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="99"/>
       <c r="D143" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E143" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="F143" s="91"/>
+        <v>160</v>
+      </c>
+      <c r="F143" s="99"/>
       <c r="G143" s="69">
         <f>$B$142-0.035</f>
         <v>29.965</v>
@@ -4972,16 +4952,16 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="78"/>
-      <c r="B144" s="78"/>
-      <c r="C144" s="91"/>
+      <c r="A144" s="80"/>
+      <c r="B144" s="80"/>
+      <c r="C144" s="99"/>
       <c r="D144" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E144" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="F144" s="91"/>
+        <v>161</v>
+      </c>
+      <c r="F144" s="99"/>
       <c r="G144" s="69">
         <f>$B$142-0.051</f>
         <v>29.949000000000002</v>
@@ -4992,16 +4972,16 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="78"/>
-      <c r="B145" s="78"/>
-      <c r="C145" s="91"/>
+      <c r="A145" s="80"/>
+      <c r="B145" s="80"/>
+      <c r="C145" s="99"/>
       <c r="D145" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E145" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="F145" s="91"/>
+        <v>162</v>
+      </c>
+      <c r="F145" s="99"/>
       <c r="G145" s="69">
         <f>$B$142-0.095</f>
         <v>29.905000000000001</v>
@@ -5012,16 +4992,16 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="78"/>
-      <c r="B146" s="79"/>
-      <c r="C146" s="91"/>
+      <c r="A146" s="80"/>
+      <c r="B146" s="81"/>
+      <c r="C146" s="99"/>
       <c r="D146" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E146" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="F146" s="91"/>
+        <v>163</v>
+      </c>
+      <c r="F146" s="99"/>
       <c r="G146" s="69">
         <f>$B$142-0.4</f>
         <v>29.6</v>
@@ -5032,21 +5012,21 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="78"/>
-      <c r="B147" s="77">
+      <c r="A147" s="80"/>
+      <c r="B147" s="79">
         <v>50</v>
       </c>
-      <c r="C147" s="91" t="s">
-        <v>345</v>
+      <c r="C147" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D147" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E147" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="F147" s="91" t="s">
-        <v>345</v>
+        <v>164</v>
+      </c>
+      <c r="F147" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G147" s="69">
         <f>$B$147-0.045</f>
@@ -5058,16 +5038,16 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="78"/>
-      <c r="B148" s="78"/>
-      <c r="C148" s="91"/>
+      <c r="A148" s="80"/>
+      <c r="B148" s="80"/>
+      <c r="C148" s="99"/>
       <c r="D148" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E148" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="F148" s="91"/>
+        <v>165</v>
+      </c>
+      <c r="F148" s="99"/>
       <c r="G148" s="69">
         <f>$B$147-0.045</f>
         <v>49.954999999999998</v>
@@ -5078,16 +5058,16 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="78"/>
-      <c r="B149" s="78"/>
-      <c r="C149" s="91"/>
+      <c r="A149" s="80"/>
+      <c r="B149" s="80"/>
+      <c r="C149" s="99"/>
       <c r="D149" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E149" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F149" s="91"/>
+        <v>166</v>
+      </c>
+      <c r="F149" s="99"/>
       <c r="G149" s="69">
         <f>$B$147-0.065</f>
         <v>49.935000000000002</v>
@@ -5098,16 +5078,16 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="78"/>
-      <c r="B150" s="78"/>
-      <c r="C150" s="91"/>
+      <c r="A150" s="80"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="99"/>
       <c r="D150" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E150" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="F150" s="91"/>
+        <v>167</v>
+      </c>
+      <c r="F150" s="99"/>
       <c r="G150" s="69">
         <f>$B$147-0.125</f>
         <v>49.875</v>
@@ -5118,16 +5098,16 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="78"/>
-      <c r="B151" s="79"/>
-      <c r="C151" s="91"/>
+      <c r="A151" s="80"/>
+      <c r="B151" s="81"/>
+      <c r="C151" s="99"/>
       <c r="D151" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E151" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F151" s="91"/>
+        <v>168</v>
+      </c>
+      <c r="F151" s="99"/>
       <c r="G151" s="69">
         <f>$B$147-0.6</f>
         <v>49.4</v>
@@ -5138,21 +5118,21 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="78"/>
-      <c r="B152" s="77">
+      <c r="A152" s="80"/>
+      <c r="B152" s="79">
         <v>70</v>
       </c>
-      <c r="C152" s="91" t="s">
-        <v>345</v>
+      <c r="C152" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D152" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E152" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="F152" s="91" t="s">
-        <v>345</v>
+        <v>169</v>
+      </c>
+      <c r="F152" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G152" s="69">
         <f>$B$152-0.055</f>
@@ -5164,16 +5144,16 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="78"/>
-      <c r="B153" s="78"/>
-      <c r="C153" s="91"/>
+      <c r="A153" s="80"/>
+      <c r="B153" s="80"/>
+      <c r="C153" s="99"/>
       <c r="D153" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E153" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="F153" s="91"/>
+        <v>170</v>
+      </c>
+      <c r="F153" s="99"/>
       <c r="G153" s="69">
         <f>$B$152-0.055</f>
         <v>69.944999999999993</v>
@@ -5184,16 +5164,16 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="78"/>
-      <c r="B154" s="78"/>
-      <c r="C154" s="91"/>
+      <c r="A154" s="80"/>
+      <c r="B154" s="80"/>
+      <c r="C154" s="99"/>
       <c r="D154" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E154" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="F154" s="91"/>
+        <v>171</v>
+      </c>
+      <c r="F154" s="99"/>
       <c r="G154" s="69">
         <f>$B$152-0.079</f>
         <v>69.921000000000006</v>
@@ -5204,16 +5184,16 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="78"/>
-      <c r="B155" s="78"/>
-      <c r="C155" s="91"/>
+      <c r="A155" s="80"/>
+      <c r="B155" s="80"/>
+      <c r="C155" s="99"/>
       <c r="D155" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E155" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="F155" s="91"/>
+        <v>172</v>
+      </c>
+      <c r="F155" s="99"/>
       <c r="G155" s="69">
         <f>$B$152-0.155</f>
         <v>69.844999999999999</v>
@@ -5224,16 +5204,16 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="78"/>
-      <c r="B156" s="79"/>
-      <c r="C156" s="91"/>
+      <c r="A156" s="80"/>
+      <c r="B156" s="81"/>
+      <c r="C156" s="99"/>
       <c r="D156" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E156" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="F156" s="91"/>
+        <v>173</v>
+      </c>
+      <c r="F156" s="99"/>
       <c r="G156" s="69">
         <f>$B$152-0.8</f>
         <v>69.2</v>
@@ -5244,21 +5224,21 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="78"/>
-      <c r="B157" s="77">
+      <c r="A157" s="80"/>
+      <c r="B157" s="79">
         <v>100</v>
       </c>
-      <c r="C157" s="91" t="s">
-        <v>345</v>
+      <c r="C157" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D157" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E157" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="F157" s="91" t="s">
-        <v>345</v>
+        <v>174</v>
+      </c>
+      <c r="F157" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G157" s="69">
         <f>$B$157-0.07</f>
@@ -5270,16 +5250,16 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="78"/>
-      <c r="B158" s="78"/>
-      <c r="C158" s="91"/>
+      <c r="A158" s="80"/>
+      <c r="B158" s="80"/>
+      <c r="C158" s="99"/>
       <c r="D158" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E158" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="F158" s="91"/>
+        <v>175</v>
+      </c>
+      <c r="F158" s="99"/>
       <c r="G158" s="69">
         <f>$B$157-0.07</f>
         <v>99.93</v>
@@ -5290,16 +5270,16 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="78"/>
-      <c r="B159" s="78"/>
-      <c r="C159" s="91"/>
+      <c r="A159" s="80"/>
+      <c r="B159" s="80"/>
+      <c r="C159" s="99"/>
       <c r="D159" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E159" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="F159" s="91"/>
+        <v>176</v>
+      </c>
+      <c r="F159" s="99"/>
       <c r="G159" s="69">
         <f>$B$157-0.1</f>
         <v>99.9</v>
@@ -5310,16 +5290,16 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="78"/>
-      <c r="B160" s="78"/>
-      <c r="C160" s="91"/>
+      <c r="A160" s="80"/>
+      <c r="B160" s="80"/>
+      <c r="C160" s="99"/>
       <c r="D160" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E160" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F160" s="91"/>
+        <v>177</v>
+      </c>
+      <c r="F160" s="99"/>
       <c r="G160" s="69">
         <f>$B$157-0.2</f>
         <v>99.8</v>
@@ -5330,16 +5310,16 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="79"/>
-      <c r="B161" s="79"/>
-      <c r="C161" s="91"/>
+      <c r="A161" s="81"/>
+      <c r="B161" s="81"/>
+      <c r="C161" s="99"/>
       <c r="D161" s="69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E161" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="F161" s="91"/>
+        <v>178</v>
+      </c>
+      <c r="F161" s="99"/>
       <c r="G161" s="69">
         <f>$B$157-1.1</f>
         <v>98.9</v>
@@ -5350,23 +5330,23 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="77" t="s">
-        <v>349</v>
-      </c>
-      <c r="B162" s="86">
+      <c r="A162" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="B162" s="100">
         <v>75</v>
       </c>
-      <c r="C162" s="91" t="s">
-        <v>345</v>
+      <c r="C162" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D162" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E162" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="F162" s="91" t="s">
-        <v>345</v>
+        <v>179</v>
+      </c>
+      <c r="F162" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G162" s="72">
         <f>$B$162-0.1875</f>
@@ -5378,16 +5358,16 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="78"/>
-      <c r="B163" s="86"/>
-      <c r="C163" s="91"/>
+      <c r="A163" s="80"/>
+      <c r="B163" s="100"/>
+      <c r="C163" s="99"/>
       <c r="D163" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E163" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="F163" s="91"/>
+        <v>180</v>
+      </c>
+      <c r="F163" s="99"/>
       <c r="G163" s="72">
         <f>$B$162-0.2775</f>
         <v>74.722499999999997</v>
@@ -5398,16 +5378,16 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="78"/>
-      <c r="B164" s="86"/>
-      <c r="C164" s="91"/>
+      <c r="A164" s="80"/>
+      <c r="B164" s="100"/>
+      <c r="C164" s="99"/>
       <c r="D164" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E164" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="F164" s="91"/>
+        <v>181</v>
+      </c>
+      <c r="F164" s="99"/>
       <c r="G164" s="72">
         <f>$B$162-0.4875</f>
         <v>74.512500000000003</v>
@@ -5418,21 +5398,21 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="78"/>
-      <c r="B165" s="86">
+      <c r="A165" s="80"/>
+      <c r="B165" s="100">
         <v>225</v>
       </c>
-      <c r="C165" s="91" t="s">
-        <v>345</v>
+      <c r="C165" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D165" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E165" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="F165" s="91" t="s">
-        <v>345</v>
+        <v>182</v>
+      </c>
+      <c r="F165" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G165" s="72">
         <f>$B$165-0.2625</f>
@@ -5444,16 +5424,16 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="78"/>
-      <c r="B166" s="86"/>
-      <c r="C166" s="91"/>
+      <c r="A166" s="80"/>
+      <c r="B166" s="100"/>
+      <c r="C166" s="99"/>
       <c r="D166" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E166" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="F166" s="91"/>
+        <v>183</v>
+      </c>
+      <c r="F166" s="99"/>
       <c r="G166" s="72">
         <f>$B$165-0.3825</f>
         <v>224.61750000000001</v>
@@ -5464,16 +5444,16 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="78"/>
-      <c r="B167" s="86"/>
-      <c r="C167" s="91"/>
+      <c r="A167" s="80"/>
+      <c r="B167" s="100"/>
+      <c r="C167" s="99"/>
       <c r="D167" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E167" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="F167" s="91"/>
+        <v>184</v>
+      </c>
+      <c r="F167" s="99"/>
       <c r="G167" s="72">
         <f>$B$165-0.7125</f>
         <v>224.28749999999999</v>
@@ -5484,21 +5464,21 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="78"/>
-      <c r="B168" s="86">
+      <c r="A168" s="80"/>
+      <c r="B168" s="100">
         <v>375</v>
       </c>
-      <c r="C168" s="91" t="s">
-        <v>345</v>
+      <c r="C168" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D168" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E168" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="F168" s="91" t="s">
-        <v>345</v>
+        <v>185</v>
+      </c>
+      <c r="F168" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G168" s="72">
         <f>$B$168-0.3375</f>
@@ -5510,16 +5490,16 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="78"/>
-      <c r="B169" s="86"/>
-      <c r="C169" s="91"/>
+      <c r="A169" s="80"/>
+      <c r="B169" s="100"/>
+      <c r="C169" s="99"/>
       <c r="D169" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E169" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="F169" s="91"/>
+        <v>186</v>
+      </c>
+      <c r="F169" s="99"/>
       <c r="G169" s="72">
         <f>$B$168-0.4875</f>
         <v>374.51249999999999</v>
@@ -5530,16 +5510,16 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="78"/>
-      <c r="B170" s="86"/>
-      <c r="C170" s="91"/>
+      <c r="A170" s="80"/>
+      <c r="B170" s="100"/>
+      <c r="C170" s="99"/>
       <c r="D170" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E170" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="F170" s="91"/>
+        <v>187</v>
+      </c>
+      <c r="F170" s="99"/>
       <c r="G170" s="72">
         <f>$B$168-0.9375</f>
         <v>374.0625</v>
@@ -5550,21 +5530,21 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="78"/>
-      <c r="B171" s="86">
+      <c r="A171" s="80"/>
+      <c r="B171" s="100">
         <v>525</v>
       </c>
-      <c r="C171" s="91" t="s">
-        <v>345</v>
+      <c r="C171" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D171" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E171" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="F171" s="91" t="s">
-        <v>345</v>
+        <v>188</v>
+      </c>
+      <c r="F171" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G171" s="72">
         <f>$B$171-0.6375</f>
@@ -5576,16 +5556,16 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="78"/>
-      <c r="B172" s="86"/>
-      <c r="C172" s="91"/>
+      <c r="A172" s="80"/>
+      <c r="B172" s="100"/>
+      <c r="C172" s="99"/>
       <c r="D172" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E172" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="F172" s="91"/>
+        <v>189</v>
+      </c>
+      <c r="F172" s="99"/>
       <c r="G172" s="72">
         <f>$B$171-0.8175</f>
         <v>524.1825</v>
@@ -5596,16 +5576,16 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="78"/>
-      <c r="B173" s="86"/>
-      <c r="C173" s="91"/>
+      <c r="A173" s="80"/>
+      <c r="B173" s="100"/>
+      <c r="C173" s="99"/>
       <c r="D173" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E173" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F173" s="91"/>
+        <v>190</v>
+      </c>
+      <c r="F173" s="99"/>
       <c r="G173" s="72">
         <f>$B$171-1.3875</f>
         <v>523.61249999999995</v>
@@ -5616,21 +5596,21 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="78"/>
-      <c r="B174" s="86">
+      <c r="A174" s="80"/>
+      <c r="B174" s="100">
         <v>750</v>
       </c>
-      <c r="C174" s="91" t="s">
-        <v>345</v>
+      <c r="C174" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="D174" s="69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E174" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="F174" s="91" t="s">
-        <v>345</v>
+        <v>191</v>
+      </c>
+      <c r="F174" s="99" t="s">
+        <v>340</v>
       </c>
       <c r="G174" s="72">
         <f>$B$174-0.975</f>
@@ -5642,16 +5622,16 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="78"/>
-      <c r="B175" s="86"/>
-      <c r="C175" s="91"/>
+      <c r="A175" s="80"/>
+      <c r="B175" s="100"/>
+      <c r="C175" s="99"/>
       <c r="D175" s="69" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E175" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="F175" s="91"/>
+        <v>192</v>
+      </c>
+      <c r="F175" s="99"/>
       <c r="G175" s="73">
         <f>$B$174-1.2</f>
         <v>748.8</v>
@@ -5662,16 +5642,16 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="79"/>
-      <c r="B176" s="86"/>
-      <c r="C176" s="91"/>
+      <c r="A176" s="81"/>
+      <c r="B176" s="100"/>
+      <c r="C176" s="99"/>
       <c r="D176" s="69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E176" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="F176" s="91"/>
+        <v>193</v>
+      </c>
+      <c r="F176" s="99"/>
       <c r="G176" s="74">
         <f>$B$174-1.95</f>
         <v>748.05</v>
@@ -5691,7 +5671,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B178" s="21"/>
       <c r="C178" s="22"/>
@@ -5700,50 +5680,50 @@
       <c r="F178" s="25"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="90" t="s">
+      <c r="A179" s="91" t="s">
+        <v>331</v>
+      </c>
+      <c r="B179" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="C179" s="91"/>
+      <c r="D179" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="91"/>
+      <c r="F179" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="G179" s="90"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="91"/>
+      <c r="B180" s="91"/>
+      <c r="C180" s="91"/>
+      <c r="D180" s="91"/>
+      <c r="E180" s="91"/>
+      <c r="F180" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="G180" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="B179" s="90" t="s">
-        <v>337</v>
-      </c>
-      <c r="C179" s="90"/>
-      <c r="D179" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="90"/>
-      <c r="F179" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="G179" s="115"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="90"/>
-      <c r="B180" s="90"/>
-      <c r="C180" s="90"/>
-      <c r="D180" s="90"/>
-      <c r="E180" s="90"/>
-      <c r="F180" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="G180" s="58" t="s">
-        <v>341</v>
-      </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="86" t="s">
-        <v>350</v>
+      <c r="A181" s="100" t="s">
+        <v>345</v>
       </c>
       <c r="B181" s="60">
         <v>100</v>
       </c>
-      <c r="C181" s="86" t="s">
-        <v>351</v>
+      <c r="C181" s="100" t="s">
+        <v>346</v>
       </c>
       <c r="D181" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="E181" s="86" t="s">
-        <v>351</v>
+        <v>194</v>
+      </c>
+      <c r="E181" s="100" t="s">
+        <v>346</v>
       </c>
       <c r="F181" s="15">
         <f>B181-0.1</f>
@@ -5755,15 +5735,15 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="86"/>
+      <c r="A182" s="100"/>
       <c r="B182" s="60">
         <v>300</v>
       </c>
-      <c r="C182" s="86"/>
+      <c r="C182" s="100"/>
       <c r="D182" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="E182" s="86"/>
+        <v>195</v>
+      </c>
+      <c r="E182" s="100"/>
       <c r="F182" s="15">
         <f>B182-0.2</f>
         <v>299.8</v>
@@ -5774,15 +5754,15 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="86"/>
+      <c r="A183" s="100"/>
       <c r="B183" s="60">
         <v>500</v>
       </c>
-      <c r="C183" s="86"/>
+      <c r="C183" s="100"/>
       <c r="D183" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="E183" s="86"/>
+        <v>196</v>
+      </c>
+      <c r="E183" s="100"/>
       <c r="F183" s="15">
         <f>B183-0.3</f>
         <v>499.7</v>
@@ -5793,15 +5773,15 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="86"/>
+      <c r="A184" s="100"/>
       <c r="B184" s="60">
         <v>700</v>
       </c>
-      <c r="C184" s="86"/>
+      <c r="C184" s="100"/>
       <c r="D184" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="E184" s="86"/>
+        <v>197</v>
+      </c>
+      <c r="E184" s="100"/>
       <c r="F184" s="15">
         <f>B184-0.4</f>
         <v>699.6</v>
@@ -5812,18 +5792,18 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="86"/>
+      <c r="A185" s="100"/>
       <c r="B185" s="60">
         <v>1</v>
       </c>
       <c r="C185" s="60" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E185" s="60" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F185" s="65">
         <f>B185-0.00055</f>
@@ -5835,20 +5815,20 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="86" t="s">
-        <v>353</v>
+      <c r="A186" s="100" t="s">
+        <v>348</v>
       </c>
       <c r="B186" s="60">
         <v>1</v>
       </c>
-      <c r="C186" s="77" t="s">
-        <v>352</v>
+      <c r="C186" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="D186" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="E186" s="77" t="s">
-        <v>352</v>
+        <v>199</v>
+      </c>
+      <c r="E186" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="F186" s="76">
         <f>B186-0.0025</f>
@@ -5860,15 +5840,15 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="86"/>
+      <c r="A187" s="100"/>
       <c r="B187" s="60">
         <v>3</v>
       </c>
-      <c r="C187" s="78"/>
+      <c r="C187" s="80"/>
       <c r="D187" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="E187" s="78"/>
+        <v>200</v>
+      </c>
+      <c r="E187" s="80"/>
       <c r="F187" s="76">
         <f>B187-0.0035</f>
         <v>2.9965000000000002</v>
@@ -5879,15 +5859,15 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="86"/>
+      <c r="A188" s="100"/>
       <c r="B188" s="60">
         <v>5</v>
       </c>
-      <c r="C188" s="78"/>
+      <c r="C188" s="80"/>
       <c r="D188" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="E188" s="78"/>
+        <v>201</v>
+      </c>
+      <c r="E188" s="80"/>
       <c r="F188" s="76">
         <f>B188-0.0045</f>
         <v>4.9954999999999998</v>
@@ -5898,15 +5878,15 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="86"/>
+      <c r="A189" s="100"/>
       <c r="B189" s="60">
         <v>7</v>
       </c>
-      <c r="C189" s="78"/>
+      <c r="C189" s="80"/>
       <c r="D189" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="E189" s="78"/>
+        <v>202</v>
+      </c>
+      <c r="E189" s="80"/>
       <c r="F189" s="76">
         <f>B189-0.0055</f>
         <v>6.9945000000000004</v>
@@ -5917,15 +5897,15 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="86"/>
+      <c r="A190" s="100"/>
       <c r="B190" s="60">
         <v>10</v>
       </c>
-      <c r="C190" s="79"/>
+      <c r="C190" s="81"/>
       <c r="D190" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="E190" s="79"/>
+        <v>203</v>
+      </c>
+      <c r="E190" s="81"/>
       <c r="F190" s="18">
         <f>B190-0.007</f>
         <v>9.9930000000000003</v>
@@ -5936,20 +5916,20 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="86" t="s">
-        <v>354</v>
+      <c r="A191" s="100" t="s">
+        <v>349</v>
       </c>
       <c r="B191" s="60">
         <v>10</v>
       </c>
-      <c r="C191" s="77" t="s">
-        <v>352</v>
+      <c r="C191" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="D191" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="E191" s="77" t="s">
-        <v>352</v>
+        <v>204</v>
+      </c>
+      <c r="E191" s="79" t="s">
+        <v>347</v>
       </c>
       <c r="F191" s="15">
         <f>B191-0.01</f>
@@ -5961,15 +5941,15 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="86"/>
+      <c r="A192" s="100"/>
       <c r="B192" s="60">
         <v>30</v>
       </c>
-      <c r="C192" s="78"/>
+      <c r="C192" s="80"/>
       <c r="D192" s="55" t="s">
-        <v>210</v>
-      </c>
-      <c r="E192" s="78"/>
+        <v>205</v>
+      </c>
+      <c r="E192" s="80"/>
       <c r="F192" s="15">
         <f>B192-0.02</f>
         <v>29.98</v>
@@ -5980,15 +5960,15 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="86"/>
+      <c r="A193" s="100"/>
       <c r="B193" s="60">
         <v>50</v>
       </c>
-      <c r="C193" s="78"/>
+      <c r="C193" s="80"/>
       <c r="D193" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="E193" s="78"/>
+        <v>206</v>
+      </c>
+      <c r="E193" s="80"/>
       <c r="F193" s="15">
         <f>B193-0.03</f>
         <v>49.97</v>
@@ -5999,15 +5979,15 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="86"/>
+      <c r="A194" s="100"/>
       <c r="B194" s="60">
         <v>70</v>
       </c>
-      <c r="C194" s="78"/>
+      <c r="C194" s="80"/>
       <c r="D194" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="E194" s="78"/>
+        <v>207</v>
+      </c>
+      <c r="E194" s="80"/>
       <c r="F194" s="15">
         <f>B194-0.04</f>
         <v>69.959999999999994</v>
@@ -6018,15 +5998,15 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="86"/>
+      <c r="A195" s="100"/>
       <c r="B195" s="60">
         <v>100</v>
       </c>
-      <c r="C195" s="79"/>
+      <c r="C195" s="81"/>
       <c r="D195" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="E195" s="79"/>
+        <v>208</v>
+      </c>
+      <c r="E195" s="81"/>
       <c r="F195" s="18">
         <f>B195-0.055</f>
         <v>99.944999999999993</v>
@@ -6037,20 +6017,20 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="86" t="s">
-        <v>355</v>
+      <c r="A196" s="100" t="s">
+        <v>350</v>
       </c>
       <c r="B196" s="60">
         <v>0.1</v>
       </c>
-      <c r="C196" s="77" t="s">
-        <v>356</v>
+      <c r="C196" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="D196" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="E196" s="77" t="s">
-        <v>356</v>
+        <v>209</v>
+      </c>
+      <c r="E196" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="F196" s="65">
         <f>B196-0.00018</f>
@@ -6062,15 +6042,15 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="86"/>
+      <c r="A197" s="100"/>
       <c r="B197" s="60">
         <v>0.3</v>
       </c>
-      <c r="C197" s="78"/>
+      <c r="C197" s="80"/>
       <c r="D197" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="E197" s="78"/>
+        <v>210</v>
+      </c>
+      <c r="E197" s="80"/>
       <c r="F197" s="65">
         <f>B197-0.00034</f>
         <v>0.29965999999999998</v>
@@ -6081,15 +6061,15 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="86"/>
+      <c r="A198" s="100"/>
       <c r="B198" s="60">
         <v>0.5</v>
       </c>
-      <c r="C198" s="78"/>
+      <c r="C198" s="80"/>
       <c r="D198" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="E198" s="78"/>
+        <v>211</v>
+      </c>
+      <c r="E198" s="80"/>
       <c r="F198" s="65">
         <f>B198-0.0005</f>
         <v>0.4995</v>
@@ -6100,15 +6080,15 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="86"/>
+      <c r="A199" s="100"/>
       <c r="B199" s="60">
         <v>0.7</v>
       </c>
-      <c r="C199" s="78"/>
+      <c r="C199" s="80"/>
       <c r="D199" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="E199" s="78"/>
+        <v>212</v>
+      </c>
+      <c r="E199" s="80"/>
       <c r="F199" s="65">
         <f>B199-0.00066</f>
         <v>0.69933999999999996</v>
@@ -6119,15 +6099,15 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="86"/>
+      <c r="A200" s="100"/>
       <c r="B200" s="60">
         <v>1</v>
       </c>
-      <c r="C200" s="79"/>
+      <c r="C200" s="81"/>
       <c r="D200" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="E200" s="79"/>
+        <v>213</v>
+      </c>
+      <c r="E200" s="81"/>
       <c r="F200" s="76">
         <f>B200-0.0009</f>
         <v>0.99909999999999999</v>
@@ -6138,20 +6118,20 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="86" t="s">
-        <v>357</v>
+      <c r="A201" s="100" t="s">
+        <v>352</v>
       </c>
       <c r="B201" s="60">
         <v>0.3</v>
       </c>
-      <c r="C201" s="77" t="s">
-        <v>356</v>
+      <c r="C201" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="D201" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="E201" s="77" t="s">
-        <v>356</v>
+        <v>214</v>
+      </c>
+      <c r="E201" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="F201" s="76">
         <f>B201-0.0012</f>
@@ -6163,15 +6143,15 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="86"/>
+      <c r="A202" s="100"/>
       <c r="B202" s="60">
         <v>0.9</v>
       </c>
-      <c r="C202" s="78"/>
+      <c r="C202" s="80"/>
       <c r="D202" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E202" s="78"/>
+        <v>215</v>
+      </c>
+      <c r="E202" s="80"/>
       <c r="F202" s="76">
         <f>B202-0.0024</f>
         <v>0.89760000000000006</v>
@@ -6182,15 +6162,15 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="86"/>
+      <c r="A203" s="100"/>
       <c r="B203" s="60">
         <v>1.5</v>
       </c>
-      <c r="C203" s="78"/>
+      <c r="C203" s="80"/>
       <c r="D203" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="E203" s="78"/>
+        <v>216</v>
+      </c>
+      <c r="E203" s="80"/>
       <c r="F203" s="76">
         <f>B203-0.0036</f>
         <v>1.4964</v>
@@ -6201,15 +6181,15 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="86"/>
+      <c r="A204" s="100"/>
       <c r="B204" s="60">
         <v>2.1</v>
       </c>
-      <c r="C204" s="78"/>
+      <c r="C204" s="80"/>
       <c r="D204" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="E204" s="78"/>
+        <v>217</v>
+      </c>
+      <c r="E204" s="80"/>
       <c r="F204" s="76">
         <f>B204-0.0048</f>
         <v>2.0952000000000002</v>
@@ -6220,15 +6200,15 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="86"/>
+      <c r="A205" s="100"/>
       <c r="B205" s="60">
         <v>3</v>
       </c>
-      <c r="C205" s="79"/>
+      <c r="C205" s="81"/>
       <c r="D205" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="E205" s="79"/>
+        <v>218</v>
+      </c>
+      <c r="E205" s="81"/>
       <c r="F205" s="76">
         <f>B205-0.0066</f>
         <v>2.9933999999999998</v>
@@ -6239,20 +6219,20 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="86" t="s">
-        <v>358</v>
+      <c r="A206" s="100" t="s">
+        <v>353</v>
       </c>
       <c r="B206" s="60">
         <v>1</v>
       </c>
-      <c r="C206" s="77" t="s">
-        <v>356</v>
+      <c r="C206" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="D206" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="E206" s="77" t="s">
-        <v>356</v>
+        <v>219</v>
+      </c>
+      <c r="E206" s="79" t="s">
+        <v>351</v>
       </c>
       <c r="F206" s="76">
         <f>B206-0.0022</f>
@@ -6264,15 +6244,15 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="86"/>
+      <c r="A207" s="100"/>
       <c r="B207" s="60">
         <v>3</v>
       </c>
-      <c r="C207" s="78"/>
+      <c r="C207" s="80"/>
       <c r="D207" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="E207" s="78"/>
+        <v>220</v>
+      </c>
+      <c r="E207" s="80"/>
       <c r="F207" s="76">
         <f>B207-0.0046</f>
         <v>2.9954000000000001</v>
@@ -6283,15 +6263,15 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="86"/>
+      <c r="A208" s="100"/>
       <c r="B208" s="60">
         <v>5</v>
       </c>
-      <c r="C208" s="78"/>
+      <c r="C208" s="80"/>
       <c r="D208" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="E208" s="78"/>
+        <v>221</v>
+      </c>
+      <c r="E208" s="80"/>
       <c r="F208" s="18">
         <f>B208-0.007</f>
         <v>4.9930000000000003</v>
@@ -6302,15 +6282,15 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="86"/>
+      <c r="A209" s="100"/>
       <c r="B209" s="60">
         <v>7</v>
       </c>
-      <c r="C209" s="78"/>
+      <c r="C209" s="80"/>
       <c r="D209" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="E209" s="78"/>
+        <v>222</v>
+      </c>
+      <c r="E209" s="80"/>
       <c r="F209" s="76">
         <f>B209-0.0134</f>
         <v>6.9866000000000001</v>
@@ -6321,15 +6301,15 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="86"/>
+      <c r="A210" s="100"/>
       <c r="B210" s="60">
         <v>10</v>
       </c>
-      <c r="C210" s="79"/>
+      <c r="C210" s="81"/>
       <c r="D210" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="E210" s="79"/>
+        <v>223</v>
+      </c>
+      <c r="E210" s="81"/>
       <c r="F210" s="18">
         <f>B210-0.023</f>
         <v>9.9770000000000003</v>
@@ -6349,7 +6329,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="22"/>
@@ -6358,1586 +6338,1586 @@
       <c r="F212" s="25"/>
     </row>
     <row r="213" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="87" t="s">
+      <c r="A213" s="104" t="s">
+        <v>331</v>
+      </c>
+      <c r="B213" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="C213" s="91"/>
+      <c r="D213" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E213" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="F213" s="91"/>
+      <c r="G213" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="H213" s="90"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="105"/>
+      <c r="B214" s="91"/>
+      <c r="C214" s="91"/>
+      <c r="D214" s="91"/>
+      <c r="E214" s="91"/>
+      <c r="F214" s="91"/>
+      <c r="G214" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="H214" s="62" t="s">
         <v>336</v>
       </c>
-      <c r="B213" s="90" t="s">
-        <v>337</v>
-      </c>
-      <c r="C213" s="90"/>
-      <c r="D213" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="E213" s="90" t="s">
-        <v>338</v>
-      </c>
-      <c r="F213" s="90"/>
-      <c r="G213" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="H213" s="115"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="88"/>
-      <c r="B214" s="90"/>
-      <c r="C214" s="90"/>
-      <c r="D214" s="90"/>
-      <c r="E214" s="90"/>
-      <c r="F214" s="90"/>
-      <c r="G214" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="H214" s="62" t="s">
-        <v>341</v>
-      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="77" t="s">
-        <v>359</v>
-      </c>
-      <c r="B215" s="80">
+      <c r="A215" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="B215" s="82">
         <v>100</v>
       </c>
-      <c r="C215" s="80" t="s">
-        <v>351</v>
+      <c r="C215" s="82" t="s">
+        <v>346</v>
       </c>
       <c r="D215" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E215" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="F215" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="G215" s="80">
+        <v>224</v>
+      </c>
+      <c r="F215" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="G215" s="82">
         <f>$B$215-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H215" s="80">
+      <c r="H215" s="82">
         <f>$B$215+0.14</f>
         <v>100.14</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="78"/>
-      <c r="B216" s="81"/>
-      <c r="C216" s="81"/>
+      <c r="A216" s="80"/>
+      <c r="B216" s="83"/>
+      <c r="C216" s="83"/>
       <c r="D216" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E216" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="F216" s="81"/>
-      <c r="G216" s="81"/>
-      <c r="H216" s="81"/>
+        <v>225</v>
+      </c>
+      <c r="F216" s="83"/>
+      <c r="G216" s="83"/>
+      <c r="H216" s="83"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="79"/>
-      <c r="B217" s="82"/>
-      <c r="C217" s="82"/>
+      <c r="A217" s="81"/>
+      <c r="B217" s="84"/>
+      <c r="C217" s="84"/>
       <c r="D217" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E217" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="F217" s="82"/>
-      <c r="G217" s="82"/>
-      <c r="H217" s="82"/>
+        <v>226</v>
+      </c>
+      <c r="F217" s="84"/>
+      <c r="G217" s="84"/>
+      <c r="H217" s="84"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="77" t="s">
-        <v>360</v>
-      </c>
-      <c r="B218" s="80">
+      <c r="A218" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="B218" s="82">
         <v>100</v>
       </c>
-      <c r="C218" s="80" t="s">
-        <v>351</v>
+      <c r="C218" s="82" t="s">
+        <v>346</v>
       </c>
       <c r="D218" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E218" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="F218" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="G218" s="80">
+        <v>227</v>
+      </c>
+      <c r="F218" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="G218" s="82">
         <f>B218-0.5</f>
         <v>99.5</v>
       </c>
-      <c r="H218" s="80">
+      <c r="H218" s="82">
         <f>B218+0.5</f>
         <v>100.5</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="78"/>
-      <c r="B219" s="81"/>
-      <c r="C219" s="81"/>
+      <c r="A219" s="80"/>
+      <c r="B219" s="83"/>
+      <c r="C219" s="83"/>
       <c r="D219" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E219" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="F219" s="81"/>
-      <c r="G219" s="81"/>
-      <c r="H219" s="81"/>
+        <v>228</v>
+      </c>
+      <c r="F219" s="83"/>
+      <c r="G219" s="83"/>
+      <c r="H219" s="83"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="78"/>
-      <c r="B220" s="82"/>
-      <c r="C220" s="82"/>
+      <c r="A220" s="80"/>
+      <c r="B220" s="84"/>
+      <c r="C220" s="84"/>
       <c r="D220" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E220" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="F220" s="82"/>
-      <c r="G220" s="82"/>
-      <c r="H220" s="82"/>
+        <v>229</v>
+      </c>
+      <c r="F220" s="84"/>
+      <c r="G220" s="84"/>
+      <c r="H220" s="84"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="78"/>
-      <c r="B221" s="80">
+      <c r="A221" s="80"/>
+      <c r="B221" s="82">
         <v>300</v>
       </c>
-      <c r="C221" s="80" t="s">
-        <v>351</v>
+      <c r="C221" s="82" t="s">
+        <v>346</v>
       </c>
       <c r="D221" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E221" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="F221" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="G221" s="80">
+        <v>230</v>
+      </c>
+      <c r="F221" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="G221" s="82">
         <f>B221-0.7</f>
         <v>299.3</v>
       </c>
-      <c r="H221" s="80">
+      <c r="H221" s="82">
         <f>B221+0.7</f>
         <v>300.7</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="78"/>
-      <c r="B222" s="81"/>
-      <c r="C222" s="81"/>
+      <c r="A222" s="80"/>
+      <c r="B222" s="83"/>
+      <c r="C222" s="83"/>
       <c r="D222" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E222" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="F222" s="81"/>
-      <c r="G222" s="81"/>
-      <c r="H222" s="81"/>
+        <v>231</v>
+      </c>
+      <c r="F222" s="83"/>
+      <c r="G222" s="83"/>
+      <c r="H222" s="83"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="78"/>
-      <c r="B223" s="82"/>
-      <c r="C223" s="82"/>
+      <c r="A223" s="80"/>
+      <c r="B223" s="84"/>
+      <c r="C223" s="84"/>
       <c r="D223" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E223" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="F223" s="82"/>
-      <c r="G223" s="82"/>
-      <c r="H223" s="82"/>
+        <v>232</v>
+      </c>
+      <c r="F223" s="84"/>
+      <c r="G223" s="84"/>
+      <c r="H223" s="84"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="78"/>
-      <c r="B224" s="80">
+      <c r="A224" s="80"/>
+      <c r="B224" s="82">
         <v>500</v>
       </c>
-      <c r="C224" s="80" t="s">
-        <v>351</v>
+      <c r="C224" s="82" t="s">
+        <v>346</v>
       </c>
       <c r="D224" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E224" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="F224" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="G224" s="80">
+        <v>233</v>
+      </c>
+      <c r="F224" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="G224" s="82">
         <f>B224-0.9</f>
         <v>499.1</v>
       </c>
-      <c r="H224" s="80">
+      <c r="H224" s="82">
         <f>B224+0.9</f>
         <v>500.9</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="78"/>
-      <c r="B225" s="81"/>
-      <c r="C225" s="81"/>
+      <c r="A225" s="80"/>
+      <c r="B225" s="83"/>
+      <c r="C225" s="83"/>
       <c r="D225" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E225" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="F225" s="81"/>
-      <c r="G225" s="81"/>
-      <c r="H225" s="81"/>
+        <v>234</v>
+      </c>
+      <c r="F225" s="83"/>
+      <c r="G225" s="83"/>
+      <c r="H225" s="83"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="78"/>
-      <c r="B226" s="82"/>
-      <c r="C226" s="82"/>
+      <c r="A226" s="80"/>
+      <c r="B226" s="84"/>
+      <c r="C226" s="84"/>
       <c r="D226" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E226" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="F226" s="82"/>
-      <c r="G226" s="82"/>
-      <c r="H226" s="82"/>
+        <v>235</v>
+      </c>
+      <c r="F226" s="84"/>
+      <c r="G226" s="84"/>
+      <c r="H226" s="84"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="78"/>
-      <c r="B227" s="80">
+      <c r="A227" s="80"/>
+      <c r="B227" s="82">
         <v>700</v>
       </c>
-      <c r="C227" s="80" t="s">
-        <v>351</v>
+      <c r="C227" s="82" t="s">
+        <v>346</v>
       </c>
       <c r="D227" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E227" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="F227" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="G227" s="80">
+        <v>236</v>
+      </c>
+      <c r="F227" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="G227" s="82">
         <f>B227-1.1</f>
         <v>698.9</v>
       </c>
-      <c r="H227" s="80">
+      <c r="H227" s="82">
         <f>B227+1.1</f>
         <v>701.1</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="78"/>
-      <c r="B228" s="81"/>
-      <c r="C228" s="81"/>
+      <c r="A228" s="80"/>
+      <c r="B228" s="83"/>
+      <c r="C228" s="83"/>
       <c r="D228" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E228" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="F228" s="81"/>
-      <c r="G228" s="81"/>
-      <c r="H228" s="81"/>
+        <v>237</v>
+      </c>
+      <c r="F228" s="83"/>
+      <c r="G228" s="83"/>
+      <c r="H228" s="83"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="78"/>
-      <c r="B229" s="82"/>
-      <c r="C229" s="82"/>
+      <c r="A229" s="80"/>
+      <c r="B229" s="84"/>
+      <c r="C229" s="84"/>
       <c r="D229" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E229" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="F229" s="82"/>
-      <c r="G229" s="82"/>
-      <c r="H229" s="82"/>
+        <v>238</v>
+      </c>
+      <c r="F229" s="84"/>
+      <c r="G229" s="84"/>
+      <c r="H229" s="84"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="78"/>
-      <c r="B230" s="80">
+      <c r="A230" s="80"/>
+      <c r="B230" s="82">
         <v>1</v>
       </c>
-      <c r="C230" s="80" t="s">
-        <v>352</v>
+      <c r="C230" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D230" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E230" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="F230" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G230" s="80">
+        <v>239</v>
+      </c>
+      <c r="F230" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G230" s="82">
         <f>B230-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H230" s="80">
+      <c r="H230" s="82">
         <f>B230+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="78"/>
-      <c r="B231" s="81"/>
-      <c r="C231" s="81"/>
+      <c r="A231" s="80"/>
+      <c r="B231" s="83"/>
+      <c r="C231" s="83"/>
       <c r="D231" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E231" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="F231" s="81"/>
-      <c r="G231" s="81"/>
-      <c r="H231" s="81"/>
+        <v>240</v>
+      </c>
+      <c r="F231" s="83"/>
+      <c r="G231" s="83"/>
+      <c r="H231" s="83"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="79"/>
-      <c r="B232" s="82"/>
-      <c r="C232" s="82"/>
+      <c r="A232" s="81"/>
+      <c r="B232" s="84"/>
+      <c r="C232" s="84"/>
       <c r="D232" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E232" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="F232" s="82"/>
-      <c r="G232" s="82"/>
-      <c r="H232" s="82"/>
+        <v>241</v>
+      </c>
+      <c r="F232" s="84"/>
+      <c r="G232" s="84"/>
+      <c r="H232" s="84"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="77" t="s">
-        <v>353</v>
-      </c>
-      <c r="B233" s="80">
+      <c r="A233" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="B233" s="82">
         <v>1</v>
       </c>
-      <c r="C233" s="80" t="s">
-        <v>352</v>
+      <c r="C233" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D233" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E233" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="F233" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G233" s="80">
+        <v>242</v>
+      </c>
+      <c r="F233" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G233" s="82">
         <f>B233-0.005</f>
         <v>0.995</v>
       </c>
-      <c r="H233" s="80">
+      <c r="H233" s="82">
         <f>B233+0.005</f>
         <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="78"/>
-      <c r="B234" s="81"/>
-      <c r="C234" s="81"/>
+      <c r="A234" s="80"/>
+      <c r="B234" s="83"/>
+      <c r="C234" s="83"/>
       <c r="D234" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E234" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="F234" s="81"/>
-      <c r="G234" s="81"/>
-      <c r="H234" s="81"/>
+        <v>243</v>
+      </c>
+      <c r="F234" s="83"/>
+      <c r="G234" s="83"/>
+      <c r="H234" s="83"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="78"/>
-      <c r="B235" s="82"/>
-      <c r="C235" s="82"/>
+      <c r="A235" s="80"/>
+      <c r="B235" s="84"/>
+      <c r="C235" s="84"/>
       <c r="D235" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E235" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="F235" s="82"/>
-      <c r="G235" s="82"/>
-      <c r="H235" s="82"/>
+        <v>244</v>
+      </c>
+      <c r="F235" s="84"/>
+      <c r="G235" s="84"/>
+      <c r="H235" s="84"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="78"/>
-      <c r="B236" s="80">
+      <c r="A236" s="80"/>
+      <c r="B236" s="82">
         <v>3</v>
       </c>
-      <c r="C236" s="80" t="s">
-        <v>352</v>
+      <c r="C236" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D236" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E236" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="F236" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G236" s="80">
+        <v>245</v>
+      </c>
+      <c r="F236" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G236" s="82">
         <f>B236-0.007</f>
         <v>2.9929999999999999</v>
       </c>
-      <c r="H236" s="80">
+      <c r="H236" s="82">
         <f>B236+0.007</f>
         <v>3.0070000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="78"/>
-      <c r="B237" s="81"/>
-      <c r="C237" s="81"/>
+      <c r="A237" s="80"/>
+      <c r="B237" s="83"/>
+      <c r="C237" s="83"/>
       <c r="D237" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E237" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="F237" s="81"/>
-      <c r="G237" s="81"/>
-      <c r="H237" s="81"/>
+        <v>246</v>
+      </c>
+      <c r="F237" s="83"/>
+      <c r="G237" s="83"/>
+      <c r="H237" s="83"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="78"/>
-      <c r="B238" s="82"/>
-      <c r="C238" s="82"/>
+      <c r="A238" s="80"/>
+      <c r="B238" s="84"/>
+      <c r="C238" s="84"/>
       <c r="D238" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E238" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="F238" s="82"/>
-      <c r="G238" s="82"/>
-      <c r="H238" s="82"/>
+        <v>247</v>
+      </c>
+      <c r="F238" s="84"/>
+      <c r="G238" s="84"/>
+      <c r="H238" s="84"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="78"/>
-      <c r="B239" s="80">
+      <c r="A239" s="80"/>
+      <c r="B239" s="82">
         <v>5</v>
       </c>
-      <c r="C239" s="80" t="s">
-        <v>352</v>
+      <c r="C239" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D239" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E239" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="F239" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G239" s="80">
+        <v>248</v>
+      </c>
+      <c r="F239" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G239" s="82">
         <f>B239-0.009</f>
         <v>4.9909999999999997</v>
       </c>
-      <c r="H239" s="80">
+      <c r="H239" s="82">
         <f>B239+0.009</f>
         <v>5.0090000000000003</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="78"/>
-      <c r="B240" s="81"/>
-      <c r="C240" s="81"/>
+      <c r="A240" s="80"/>
+      <c r="B240" s="83"/>
+      <c r="C240" s="83"/>
       <c r="D240" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E240" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="F240" s="81"/>
-      <c r="G240" s="81"/>
-      <c r="H240" s="81"/>
+        <v>249</v>
+      </c>
+      <c r="F240" s="83"/>
+      <c r="G240" s="83"/>
+      <c r="H240" s="83"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="78"/>
-      <c r="B241" s="82"/>
-      <c r="C241" s="82"/>
+      <c r="A241" s="80"/>
+      <c r="B241" s="84"/>
+      <c r="C241" s="84"/>
       <c r="D241" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E241" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="F241" s="84"/>
+      <c r="G241" s="84"/>
+      <c r="H241" s="84"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="80"/>
+      <c r="B242" s="82">
         <v>7</v>
       </c>
-      <c r="E241" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="F241" s="82"/>
-      <c r="G241" s="82"/>
-      <c r="H241" s="82"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="78"/>
-      <c r="B242" s="80">
-        <v>7</v>
-      </c>
-      <c r="C242" s="80" t="s">
-        <v>352</v>
+      <c r="C242" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D242" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E242" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="F242" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G242" s="80">
+        <v>251</v>
+      </c>
+      <c r="F242" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G242" s="82">
         <f>B242-0.011</f>
         <v>6.9889999999999999</v>
       </c>
-      <c r="H242" s="80">
+      <c r="H242" s="82">
         <f>B242+0.011</f>
         <v>7.0110000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="78"/>
-      <c r="B243" s="81"/>
-      <c r="C243" s="81"/>
+      <c r="A243" s="80"/>
+      <c r="B243" s="83"/>
+      <c r="C243" s="83"/>
       <c r="D243" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E243" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="F243" s="81"/>
-      <c r="G243" s="81"/>
-      <c r="H243" s="81"/>
+        <v>252</v>
+      </c>
+      <c r="F243" s="83"/>
+      <c r="G243" s="83"/>
+      <c r="H243" s="83"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="78"/>
-      <c r="B244" s="82"/>
-      <c r="C244" s="82"/>
+      <c r="A244" s="80"/>
+      <c r="B244" s="84"/>
+      <c r="C244" s="84"/>
       <c r="D244" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E244" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="F244" s="82"/>
-      <c r="G244" s="82"/>
-      <c r="H244" s="82"/>
+        <v>253</v>
+      </c>
+      <c r="F244" s="84"/>
+      <c r="G244" s="84"/>
+      <c r="H244" s="84"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="78"/>
-      <c r="B245" s="80">
+      <c r="A245" s="80"/>
+      <c r="B245" s="82">
         <v>10</v>
       </c>
-      <c r="C245" s="80" t="s">
-        <v>352</v>
+      <c r="C245" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D245" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E245" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="F245" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G245" s="80">
+        <v>254</v>
+      </c>
+      <c r="F245" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G245" s="82">
         <f>B245-0.014</f>
         <v>9.9860000000000007</v>
       </c>
-      <c r="H245" s="80">
+      <c r="H245" s="82">
         <f>B245+0.014</f>
         <v>10.013999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="78"/>
-      <c r="B246" s="81"/>
-      <c r="C246" s="81"/>
+      <c r="A246" s="80"/>
+      <c r="B246" s="83"/>
+      <c r="C246" s="83"/>
       <c r="D246" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E246" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="F246" s="81"/>
-      <c r="G246" s="81"/>
-      <c r="H246" s="81"/>
+        <v>255</v>
+      </c>
+      <c r="F246" s="83"/>
+      <c r="G246" s="83"/>
+      <c r="H246" s="83"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="79"/>
-      <c r="B247" s="82"/>
-      <c r="C247" s="82"/>
+      <c r="A247" s="81"/>
+      <c r="B247" s="84"/>
+      <c r="C247" s="84"/>
       <c r="D247" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E247" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="F247" s="82"/>
-      <c r="G247" s="82"/>
-      <c r="H247" s="82"/>
+        <v>256</v>
+      </c>
+      <c r="F247" s="84"/>
+      <c r="G247" s="84"/>
+      <c r="H247" s="84"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="77" t="s">
-        <v>354</v>
-      </c>
-      <c r="B248" s="80">
+      <c r="A248" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="B248" s="82">
         <v>10</v>
       </c>
-      <c r="C248" s="80" t="s">
-        <v>352</v>
+      <c r="C248" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D248" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E248" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="F248" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G248" s="80">
+        <v>257</v>
+      </c>
+      <c r="F248" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G248" s="82">
         <f>B248-0.05</f>
         <v>9.9499999999999993</v>
       </c>
-      <c r="H248" s="80">
+      <c r="H248" s="82">
         <f>B248+0.05</f>
         <v>10.050000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="78"/>
-      <c r="B249" s="81"/>
-      <c r="C249" s="81"/>
+      <c r="A249" s="80"/>
+      <c r="B249" s="83"/>
+      <c r="C249" s="83"/>
       <c r="D249" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E249" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="F249" s="81"/>
-      <c r="G249" s="81"/>
-      <c r="H249" s="81"/>
+        <v>258</v>
+      </c>
+      <c r="F249" s="83"/>
+      <c r="G249" s="83"/>
+      <c r="H249" s="83"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="78"/>
-      <c r="B250" s="82"/>
-      <c r="C250" s="82"/>
+      <c r="A250" s="80"/>
+      <c r="B250" s="84"/>
+      <c r="C250" s="84"/>
       <c r="D250" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E250" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="F250" s="82"/>
-      <c r="G250" s="82"/>
-      <c r="H250" s="82"/>
+        <v>259</v>
+      </c>
+      <c r="F250" s="84"/>
+      <c r="G250" s="84"/>
+      <c r="H250" s="84"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="78"/>
-      <c r="B251" s="80">
+      <c r="A251" s="80"/>
+      <c r="B251" s="82">
         <v>30</v>
       </c>
-      <c r="C251" s="80" t="s">
-        <v>352</v>
+      <c r="C251" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D251" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E251" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="F251" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G251" s="80">
+        <v>260</v>
+      </c>
+      <c r="F251" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G251" s="82">
         <f>B251-0.07</f>
         <v>29.93</v>
       </c>
-      <c r="H251" s="80">
+      <c r="H251" s="82">
         <f>B251+0.07</f>
         <v>30.07</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="78"/>
-      <c r="B252" s="81"/>
-      <c r="C252" s="81"/>
+      <c r="A252" s="80"/>
+      <c r="B252" s="83"/>
+      <c r="C252" s="83"/>
       <c r="D252" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E252" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="F252" s="81"/>
-      <c r="G252" s="81"/>
-      <c r="H252" s="81"/>
+        <v>261</v>
+      </c>
+      <c r="F252" s="83"/>
+      <c r="G252" s="83"/>
+      <c r="H252" s="83"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="78"/>
-      <c r="B253" s="82"/>
-      <c r="C253" s="82"/>
+      <c r="A253" s="80"/>
+      <c r="B253" s="84"/>
+      <c r="C253" s="84"/>
       <c r="D253" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E253" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="F253" s="82"/>
-      <c r="G253" s="82"/>
-      <c r="H253" s="82"/>
+        <v>262</v>
+      </c>
+      <c r="F253" s="84"/>
+      <c r="G253" s="84"/>
+      <c r="H253" s="84"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="78"/>
-      <c r="B254" s="80">
+      <c r="A254" s="80"/>
+      <c r="B254" s="82">
         <v>50</v>
       </c>
-      <c r="C254" s="80" t="s">
-        <v>352</v>
+      <c r="C254" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D254" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E254" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="F254" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G254" s="80">
+        <v>263</v>
+      </c>
+      <c r="F254" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G254" s="82">
         <f>B254-0.09</f>
         <v>49.91</v>
       </c>
-      <c r="H254" s="80">
+      <c r="H254" s="82">
         <f>B254+0.09</f>
         <v>50.09</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="78"/>
-      <c r="B255" s="81"/>
-      <c r="C255" s="81"/>
+      <c r="A255" s="80"/>
+      <c r="B255" s="83"/>
+      <c r="C255" s="83"/>
       <c r="D255" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E255" s="55" t="s">
-        <v>269</v>
-      </c>
-      <c r="F255" s="81"/>
-      <c r="G255" s="81"/>
-      <c r="H255" s="81"/>
+        <v>264</v>
+      </c>
+      <c r="F255" s="83"/>
+      <c r="G255" s="83"/>
+      <c r="H255" s="83"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="78"/>
-      <c r="B256" s="82"/>
-      <c r="C256" s="82"/>
+      <c r="A256" s="80"/>
+      <c r="B256" s="84"/>
+      <c r="C256" s="84"/>
       <c r="D256" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E256" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="F256" s="82"/>
-      <c r="G256" s="82"/>
-      <c r="H256" s="82"/>
+        <v>265</v>
+      </c>
+      <c r="F256" s="84"/>
+      <c r="G256" s="84"/>
+      <c r="H256" s="84"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="78"/>
-      <c r="B257" s="80">
+      <c r="A257" s="80"/>
+      <c r="B257" s="82">
         <v>70</v>
       </c>
-      <c r="C257" s="80" t="s">
-        <v>352</v>
+      <c r="C257" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D257" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E257" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="F257" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G257" s="80">
+        <v>266</v>
+      </c>
+      <c r="F257" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G257" s="82">
         <f>B257-0.11</f>
         <v>69.89</v>
       </c>
-      <c r="H257" s="80">
+      <c r="H257" s="82">
         <f>B257+0.11</f>
         <v>70.11</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="78"/>
-      <c r="B258" s="81"/>
-      <c r="C258" s="81"/>
+      <c r="A258" s="80"/>
+      <c r="B258" s="83"/>
+      <c r="C258" s="83"/>
       <c r="D258" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E258" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="F258" s="81"/>
-      <c r="G258" s="81"/>
-      <c r="H258" s="81"/>
+        <v>267</v>
+      </c>
+      <c r="F258" s="83"/>
+      <c r="G258" s="83"/>
+      <c r="H258" s="83"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="78"/>
-      <c r="B259" s="82"/>
-      <c r="C259" s="82"/>
+      <c r="A259" s="80"/>
+      <c r="B259" s="84"/>
+      <c r="C259" s="84"/>
       <c r="D259" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E259" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="F259" s="82"/>
-      <c r="G259" s="82"/>
-      <c r="H259" s="82"/>
+        <v>268</v>
+      </c>
+      <c r="F259" s="84"/>
+      <c r="G259" s="84"/>
+      <c r="H259" s="84"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="78"/>
-      <c r="B260" s="80">
+      <c r="A260" s="80"/>
+      <c r="B260" s="82">
         <v>100</v>
       </c>
-      <c r="C260" s="80" t="s">
-        <v>352</v>
+      <c r="C260" s="82" t="s">
+        <v>347</v>
       </c>
       <c r="D260" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E260" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="F260" s="80" t="s">
-        <v>352</v>
-      </c>
-      <c r="G260" s="80">
+        <v>269</v>
+      </c>
+      <c r="F260" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="G260" s="82">
         <f>B260-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H260" s="80">
+      <c r="H260" s="82">
         <f>B260+0.14</f>
         <v>100.14</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="78"/>
-      <c r="B261" s="81"/>
-      <c r="C261" s="81"/>
+      <c r="A261" s="80"/>
+      <c r="B261" s="83"/>
+      <c r="C261" s="83"/>
       <c r="D261" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E261" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="F261" s="81"/>
-      <c r="G261" s="81"/>
-      <c r="H261" s="81"/>
+        <v>270</v>
+      </c>
+      <c r="F261" s="83"/>
+      <c r="G261" s="83"/>
+      <c r="H261" s="83"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="79"/>
-      <c r="B262" s="82"/>
-      <c r="C262" s="82"/>
+      <c r="A262" s="81"/>
+      <c r="B262" s="84"/>
+      <c r="C262" s="84"/>
       <c r="D262" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E262" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="F262" s="82"/>
-      <c r="G262" s="82"/>
-      <c r="H262" s="82"/>
+        <v>271</v>
+      </c>
+      <c r="F262" s="84"/>
+      <c r="G262" s="84"/>
+      <c r="H262" s="84"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="77" t="s">
-        <v>355</v>
-      </c>
-      <c r="B263" s="80">
+      <c r="A263" s="79" t="s">
+        <v>350</v>
+      </c>
+      <c r="B263" s="82">
         <v>0.1</v>
       </c>
-      <c r="C263" s="80" t="s">
-        <v>356</v>
+      <c r="C263" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D263" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E263" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="F263" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G263" s="80">
+        <v>272</v>
+      </c>
+      <c r="F263" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G263" s="82">
         <f>B263-0.0005</f>
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="H263" s="80">
+      <c r="H263" s="82">
         <f>B263+0.0005</f>
         <v>0.10050000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="78"/>
-      <c r="B264" s="81"/>
-      <c r="C264" s="81"/>
+      <c r="A264" s="80"/>
+      <c r="B264" s="83"/>
+      <c r="C264" s="83"/>
       <c r="D264" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E264" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="F264" s="81"/>
-      <c r="G264" s="81"/>
-      <c r="H264" s="81"/>
+        <v>273</v>
+      </c>
+      <c r="F264" s="83"/>
+      <c r="G264" s="83"/>
+      <c r="H264" s="83"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="78"/>
-      <c r="B265" s="82"/>
-      <c r="C265" s="82"/>
+      <c r="A265" s="80"/>
+      <c r="B265" s="84"/>
+      <c r="C265" s="84"/>
       <c r="D265" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E265" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="F265" s="82"/>
-      <c r="G265" s="82"/>
-      <c r="H265" s="82"/>
+        <v>274</v>
+      </c>
+      <c r="F265" s="84"/>
+      <c r="G265" s="84"/>
+      <c r="H265" s="84"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="78"/>
-      <c r="B266" s="80">
+      <c r="A266" s="80"/>
+      <c r="B266" s="82">
         <v>0.3</v>
       </c>
-      <c r="C266" s="80" t="s">
-        <v>356</v>
+      <c r="C266" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D266" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E266" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="F266" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G266" s="80">
+        <v>275</v>
+      </c>
+      <c r="F266" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G266" s="82">
         <f>B266-0.0007</f>
         <v>0.29930000000000001</v>
       </c>
-      <c r="H266" s="80">
+      <c r="H266" s="82">
         <f>B266+0.0007</f>
         <v>0.30069999999999997</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="78"/>
-      <c r="B267" s="81"/>
-      <c r="C267" s="81"/>
+      <c r="A267" s="80"/>
+      <c r="B267" s="83"/>
+      <c r="C267" s="83"/>
       <c r="D267" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E267" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="F267" s="81"/>
-      <c r="G267" s="81"/>
-      <c r="H267" s="81"/>
+        <v>276</v>
+      </c>
+      <c r="F267" s="83"/>
+      <c r="G267" s="83"/>
+      <c r="H267" s="83"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="78"/>
-      <c r="B268" s="82"/>
-      <c r="C268" s="82"/>
+      <c r="A268" s="80"/>
+      <c r="B268" s="84"/>
+      <c r="C268" s="84"/>
       <c r="D268" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E268" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="F268" s="82"/>
-      <c r="G268" s="82"/>
-      <c r="H268" s="82"/>
+        <v>277</v>
+      </c>
+      <c r="F268" s="84"/>
+      <c r="G268" s="84"/>
+      <c r="H268" s="84"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="78"/>
-      <c r="B269" s="80">
+      <c r="A269" s="80"/>
+      <c r="B269" s="82">
         <v>0.5</v>
       </c>
-      <c r="C269" s="80" t="s">
-        <v>356</v>
+      <c r="C269" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D269" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E269" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="F269" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G269" s="80">
+        <v>278</v>
+      </c>
+      <c r="F269" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G269" s="82">
         <f>B269-0.0009</f>
         <v>0.49909999999999999</v>
       </c>
-      <c r="H269" s="80">
+      <c r="H269" s="82">
         <f>B269+0.0009</f>
         <v>0.50090000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="78"/>
-      <c r="B270" s="81"/>
-      <c r="C270" s="81"/>
+      <c r="A270" s="80"/>
+      <c r="B270" s="83"/>
+      <c r="C270" s="83"/>
       <c r="D270" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E270" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="F270" s="81"/>
-      <c r="G270" s="81"/>
-      <c r="H270" s="81"/>
+        <v>279</v>
+      </c>
+      <c r="F270" s="83"/>
+      <c r="G270" s="83"/>
+      <c r="H270" s="83"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="78"/>
-      <c r="B271" s="82"/>
-      <c r="C271" s="82"/>
+      <c r="A271" s="80"/>
+      <c r="B271" s="84"/>
+      <c r="C271" s="84"/>
       <c r="D271" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E271" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="F271" s="82"/>
-      <c r="G271" s="82"/>
-      <c r="H271" s="82"/>
+        <v>280</v>
+      </c>
+      <c r="F271" s="84"/>
+      <c r="G271" s="84"/>
+      <c r="H271" s="84"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="78"/>
-      <c r="B272" s="80">
+      <c r="A272" s="80"/>
+      <c r="B272" s="82">
         <v>0.7</v>
       </c>
-      <c r="C272" s="80" t="s">
-        <v>356</v>
+      <c r="C272" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D272" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E272" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="F272" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G272" s="80">
+        <v>281</v>
+      </c>
+      <c r="F272" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G272" s="82">
         <f>B272-0.0011</f>
         <v>0.69889999999999997</v>
       </c>
-      <c r="H272" s="80">
+      <c r="H272" s="82">
         <f>B272+0.0011</f>
         <v>0.70109999999999995</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="78"/>
-      <c r="B273" s="81"/>
-      <c r="C273" s="81"/>
+      <c r="A273" s="80"/>
+      <c r="B273" s="83"/>
+      <c r="C273" s="83"/>
       <c r="D273" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E273" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="F273" s="81"/>
-      <c r="G273" s="81"/>
-      <c r="H273" s="81"/>
+        <v>282</v>
+      </c>
+      <c r="F273" s="83"/>
+      <c r="G273" s="83"/>
+      <c r="H273" s="83"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="78"/>
-      <c r="B274" s="82"/>
-      <c r="C274" s="82"/>
+      <c r="A274" s="80"/>
+      <c r="B274" s="84"/>
+      <c r="C274" s="84"/>
       <c r="D274" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E274" s="55" t="s">
-        <v>288</v>
-      </c>
-      <c r="F274" s="82"/>
-      <c r="G274" s="82"/>
-      <c r="H274" s="82"/>
+        <v>283</v>
+      </c>
+      <c r="F274" s="84"/>
+      <c r="G274" s="84"/>
+      <c r="H274" s="84"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="78"/>
-      <c r="B275" s="80">
+      <c r="A275" s="80"/>
+      <c r="B275" s="82">
         <v>1</v>
       </c>
-      <c r="C275" s="80" t="s">
-        <v>356</v>
+      <c r="C275" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D275" s="69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E275" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="F275" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G275" s="80">
+        <v>284</v>
+      </c>
+      <c r="F275" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G275" s="82">
         <f>B275-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H275" s="80">
+      <c r="H275" s="82">
         <f>B275+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="78"/>
-      <c r="B276" s="81"/>
-      <c r="C276" s="81"/>
+      <c r="A276" s="80"/>
+      <c r="B276" s="83"/>
+      <c r="C276" s="83"/>
       <c r="D276" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E276" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="F276" s="81"/>
-      <c r="G276" s="81"/>
-      <c r="H276" s="81"/>
+        <v>285</v>
+      </c>
+      <c r="F276" s="83"/>
+      <c r="G276" s="83"/>
+      <c r="H276" s="83"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="79"/>
-      <c r="B277" s="82"/>
-      <c r="C277" s="82"/>
+      <c r="A277" s="81"/>
+      <c r="B277" s="84"/>
+      <c r="C277" s="84"/>
       <c r="D277" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E277" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="F277" s="82"/>
-      <c r="G277" s="82"/>
-      <c r="H277" s="82"/>
+        <v>286</v>
+      </c>
+      <c r="F277" s="84"/>
+      <c r="G277" s="84"/>
+      <c r="H277" s="84"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="77" t="s">
-        <v>357</v>
-      </c>
-      <c r="B278" s="80">
+      <c r="A278" s="79" t="s">
+        <v>352</v>
+      </c>
+      <c r="B278" s="82">
         <v>0.3</v>
       </c>
-      <c r="C278" s="80" t="s">
-        <v>356</v>
+      <c r="C278" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D278" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E278" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="F278" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G278" s="80">
+        <v>287</v>
+      </c>
+      <c r="F278" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G278" s="82">
         <f>B278-0.00189</f>
         <v>0.29810999999999999</v>
       </c>
-      <c r="H278" s="80">
+      <c r="H278" s="82">
         <f>B278+0.00189</f>
         <v>0.30188999999999999</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="78"/>
-      <c r="B279" s="82"/>
-      <c r="C279" s="82"/>
+      <c r="A279" s="80"/>
+      <c r="B279" s="84"/>
+      <c r="C279" s="84"/>
       <c r="D279" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E279" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="F279" s="82"/>
-      <c r="G279" s="82"/>
-      <c r="H279" s="82"/>
+        <v>288</v>
+      </c>
+      <c r="F279" s="84"/>
+      <c r="G279" s="84"/>
+      <c r="H279" s="84"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="78"/>
-      <c r="B280" s="80">
+      <c r="A280" s="80"/>
+      <c r="B280" s="82">
         <v>0.9</v>
       </c>
-      <c r="C280" s="80" t="s">
-        <v>356</v>
+      <c r="C280" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D280" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E280" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="F280" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G280" s="80">
+        <v>289</v>
+      </c>
+      <c r="F280" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G280" s="82">
         <f>B280-0.00327</f>
         <v>0.89673000000000003</v>
       </c>
-      <c r="H280" s="80">
+      <c r="H280" s="82">
         <f>B280+0.00327</f>
         <v>0.90327000000000002</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="78"/>
-      <c r="B281" s="82"/>
-      <c r="C281" s="82"/>
+      <c r="A281" s="80"/>
+      <c r="B281" s="84"/>
+      <c r="C281" s="84"/>
       <c r="D281" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E281" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="F281" s="82"/>
-      <c r="G281" s="82"/>
-      <c r="H281" s="82"/>
+        <v>290</v>
+      </c>
+      <c r="F281" s="84"/>
+      <c r="G281" s="84"/>
+      <c r="H281" s="84"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="78"/>
-      <c r="B282" s="80">
+      <c r="A282" s="80"/>
+      <c r="B282" s="82">
         <v>1.5</v>
       </c>
-      <c r="C282" s="80" t="s">
-        <v>356</v>
+      <c r="C282" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D282" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E282" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="F282" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G282" s="80">
+        <v>291</v>
+      </c>
+      <c r="F282" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G282" s="82">
         <f>B282-0.00465</f>
         <v>1.49535</v>
       </c>
-      <c r="H282" s="80">
+      <c r="H282" s="82">
         <f>B282+0.00465</f>
         <v>1.50465</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="78"/>
-      <c r="B283" s="82"/>
-      <c r="C283" s="82"/>
+      <c r="A283" s="80"/>
+      <c r="B283" s="84"/>
+      <c r="C283" s="84"/>
       <c r="D283" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E283" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="F283" s="82"/>
-      <c r="G283" s="82"/>
-      <c r="H283" s="82"/>
+        <v>292</v>
+      </c>
+      <c r="F283" s="84"/>
+      <c r="G283" s="84"/>
+      <c r="H283" s="84"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="78"/>
-      <c r="B284" s="80">
+      <c r="A284" s="80"/>
+      <c r="B284" s="82">
         <v>2.1</v>
       </c>
-      <c r="C284" s="80" t="s">
-        <v>356</v>
+      <c r="C284" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D284" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E284" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="F284" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G284" s="80">
+        <v>293</v>
+      </c>
+      <c r="F284" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G284" s="82">
         <f>B284-0.00603</f>
         <v>2.0939700000000001</v>
       </c>
-      <c r="H284" s="80">
+      <c r="H284" s="82">
         <f>B284+0.00603</f>
         <v>2.1060300000000001</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="78"/>
-      <c r="B285" s="82"/>
-      <c r="C285" s="82"/>
+      <c r="A285" s="80"/>
+      <c r="B285" s="84"/>
+      <c r="C285" s="84"/>
       <c r="D285" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E285" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="F285" s="82"/>
-      <c r="G285" s="82"/>
-      <c r="H285" s="82"/>
+        <v>294</v>
+      </c>
+      <c r="F285" s="84"/>
+      <c r="G285" s="84"/>
+      <c r="H285" s="84"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="78"/>
-      <c r="B286" s="80">
+      <c r="A286" s="80"/>
+      <c r="B286" s="82">
         <v>3</v>
       </c>
-      <c r="C286" s="80" t="s">
-        <v>356</v>
+      <c r="C286" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D286" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E286" s="55" t="s">
-        <v>300</v>
-      </c>
-      <c r="F286" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G286" s="80">
+        <v>295</v>
+      </c>
+      <c r="F286" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G286" s="82">
         <f>B286-0.00801</f>
         <v>2.9919899999999999</v>
       </c>
-      <c r="H286" s="80">
+      <c r="H286" s="82">
         <f>B286+0.00801</f>
         <v>3.0080100000000001</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="79"/>
-      <c r="B287" s="82"/>
-      <c r="C287" s="82"/>
+      <c r="A287" s="81"/>
+      <c r="B287" s="84"/>
+      <c r="C287" s="84"/>
       <c r="D287" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E287" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="F287" s="82"/>
-      <c r="G287" s="82"/>
-      <c r="H287" s="82"/>
+        <v>296</v>
+      </c>
+      <c r="F287" s="84"/>
+      <c r="G287" s="84"/>
+      <c r="H287" s="84"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="77" t="s">
-        <v>358</v>
-      </c>
-      <c r="B288" s="80">
+      <c r="A288" s="79" t="s">
+        <v>353</v>
+      </c>
+      <c r="B288" s="82">
         <v>1</v>
       </c>
-      <c r="C288" s="80" t="s">
-        <v>356</v>
+      <c r="C288" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D288" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E288" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="F288" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G288" s="80">
+        <v>297</v>
+      </c>
+      <c r="F288" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G288" s="82">
         <f>B288-0.005</f>
         <v>0.995</v>
       </c>
-      <c r="H288" s="80">
+      <c r="H288" s="82">
         <f>B288+0.005</f>
         <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="78"/>
-      <c r="B289" s="82"/>
-      <c r="C289" s="82"/>
+      <c r="A289" s="80"/>
+      <c r="B289" s="84"/>
+      <c r="C289" s="84"/>
       <c r="D289" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E289" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="F289" s="82"/>
-      <c r="G289" s="82"/>
-      <c r="H289" s="82"/>
+        <v>298</v>
+      </c>
+      <c r="F289" s="84"/>
+      <c r="G289" s="84"/>
+      <c r="H289" s="84"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="78"/>
-      <c r="B290" s="80">
+      <c r="A290" s="80"/>
+      <c r="B290" s="82">
         <v>3</v>
       </c>
-      <c r="C290" s="80" t="s">
-        <v>356</v>
+      <c r="C290" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D290" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E290" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F290" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G290" s="80">
+        <v>299</v>
+      </c>
+      <c r="F290" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G290" s="82">
         <f>B290-0.007</f>
         <v>2.9929999999999999</v>
       </c>
-      <c r="H290" s="80">
+      <c r="H290" s="82">
         <f>B290+0.007</f>
         <v>3.0070000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="78"/>
-      <c r="B291" s="82"/>
-      <c r="C291" s="82"/>
+      <c r="A291" s="80"/>
+      <c r="B291" s="84"/>
+      <c r="C291" s="84"/>
       <c r="D291" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E291" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="F291" s="82"/>
-      <c r="G291" s="82"/>
-      <c r="H291" s="82"/>
+        <v>300</v>
+      </c>
+      <c r="F291" s="84"/>
+      <c r="G291" s="84"/>
+      <c r="H291" s="84"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="78"/>
-      <c r="B292" s="80">
+      <c r="A292" s="80"/>
+      <c r="B292" s="82">
         <v>5</v>
       </c>
-      <c r="C292" s="80" t="s">
-        <v>356</v>
+      <c r="C292" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D292" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E292" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="F292" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G292" s="80">
+        <v>301</v>
+      </c>
+      <c r="F292" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G292" s="82">
         <f>B292-0.009</f>
         <v>4.9909999999999997</v>
       </c>
-      <c r="H292" s="80">
+      <c r="H292" s="82">
         <f>B292+0.009</f>
         <v>5.0090000000000003</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="78"/>
-      <c r="B293" s="82"/>
-      <c r="C293" s="82"/>
+      <c r="A293" s="80"/>
+      <c r="B293" s="84"/>
+      <c r="C293" s="84"/>
       <c r="D293" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E293" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="F293" s="84"/>
+      <c r="G293" s="84"/>
+      <c r="H293" s="84"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="80"/>
+      <c r="B294" s="82">
         <v>7</v>
       </c>
-      <c r="E293" s="55" t="s">
-        <v>307</v>
-      </c>
-      <c r="F293" s="82"/>
-      <c r="G293" s="82"/>
-      <c r="H293" s="82"/>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="78"/>
-      <c r="B294" s="80">
-        <v>7</v>
-      </c>
-      <c r="C294" s="80" t="s">
-        <v>356</v>
+      <c r="C294" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D294" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E294" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="F294" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G294" s="80">
+        <v>303</v>
+      </c>
+      <c r="F294" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G294" s="82">
         <f>B294-0.015</f>
         <v>6.9850000000000003</v>
       </c>
-      <c r="H294" s="80">
+      <c r="H294" s="82">
         <f>B294+0.015</f>
         <v>7.0149999999999997</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="78"/>
-      <c r="B295" s="82"/>
-      <c r="C295" s="82"/>
+      <c r="A295" s="80"/>
+      <c r="B295" s="84"/>
+      <c r="C295" s="84"/>
       <c r="D295" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E295" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="F295" s="82"/>
-      <c r="G295" s="82"/>
-      <c r="H295" s="82"/>
+        <v>304</v>
+      </c>
+      <c r="F295" s="84"/>
+      <c r="G295" s="84"/>
+      <c r="H295" s="84"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="78"/>
-      <c r="B296" s="80">
+      <c r="A296" s="80"/>
+      <c r="B296" s="82">
         <v>10</v>
       </c>
-      <c r="C296" s="80" t="s">
-        <v>356</v>
+      <c r="C296" s="82" t="s">
+        <v>351</v>
       </c>
       <c r="D296" s="69" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E296" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="F296" s="80" t="s">
-        <v>356</v>
-      </c>
-      <c r="G296" s="80">
+        <v>305</v>
+      </c>
+      <c r="F296" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="G296" s="82">
         <f>B296-0.024</f>
         <v>9.9760000000000009</v>
       </c>
-      <c r="H296" s="80">
+      <c r="H296" s="82">
         <f>B296+0.024</f>
         <v>10.023999999999999</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="79"/>
-      <c r="B297" s="82"/>
-      <c r="C297" s="82"/>
+      <c r="A297" s="81"/>
+      <c r="B297" s="84"/>
+      <c r="C297" s="84"/>
       <c r="D297" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E297" s="55" t="s">
-        <v>311</v>
-      </c>
-      <c r="F297" s="82"/>
-      <c r="G297" s="82"/>
-      <c r="H297" s="82"/>
+        <v>306</v>
+      </c>
+      <c r="F297" s="84"/>
+      <c r="G297" s="84"/>
+      <c r="H297" s="84"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="20"/>
@@ -7949,7 +7929,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20"/>
@@ -7958,57 +7938,57 @@
       <c r="F299" s="25"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="90" t="s">
-        <v>386</v>
-      </c>
-      <c r="B300" s="119" t="s">
-        <v>362</v>
-      </c>
-      <c r="C300" s="90" t="s">
-        <v>337</v>
-      </c>
-      <c r="D300" s="90"/>
-      <c r="E300" s="90" t="s">
-        <v>338</v>
-      </c>
-      <c r="F300" s="90"/>
-      <c r="G300" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="H300" s="115"/>
+      <c r="A300" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="B300" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="C300" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="D300" s="91"/>
+      <c r="E300" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="F300" s="91"/>
+      <c r="G300" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="H300" s="90"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="90"/>
-      <c r="B301" s="119"/>
-      <c r="C301" s="90"/>
-      <c r="D301" s="90"/>
-      <c r="E301" s="90"/>
-      <c r="F301" s="90"/>
+      <c r="A301" s="91"/>
+      <c r="B301" s="98"/>
+      <c r="C301" s="91"/>
+      <c r="D301" s="91"/>
+      <c r="E301" s="91"/>
+      <c r="F301" s="91"/>
       <c r="G301" s="59" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H301" s="59" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="77">
+      <c r="A302" s="79">
         <v>0.1</v>
       </c>
-      <c r="B302" s="80">
+      <c r="B302" s="82">
         <v>0.1</v>
       </c>
       <c r="C302" s="69">
         <v>5</v>
       </c>
-      <c r="D302" s="80" t="s">
-        <v>363</v>
+      <c r="D302" s="82" t="s">
+        <v>358</v>
       </c>
       <c r="E302" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="F302" s="80" t="s">
-        <v>363</v>
+        <v>307</v>
+      </c>
+      <c r="F302" s="82" t="s">
+        <v>358</v>
       </c>
       <c r="G302" s="69">
         <f>C302-0.0035</f>
@@ -8020,16 +8000,16 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="78"/>
-      <c r="B303" s="81"/>
+      <c r="A303" s="80"/>
+      <c r="B303" s="83"/>
       <c r="C303" s="69">
         <v>50</v>
       </c>
-      <c r="D303" s="81"/>
+      <c r="D303" s="83"/>
       <c r="E303" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="F303" s="81"/>
+        <v>308</v>
+      </c>
+      <c r="F303" s="83"/>
       <c r="G303" s="69">
         <f>C303-0.015</f>
         <v>49.984999999999999</v>
@@ -8040,16 +8020,16 @@
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="78"/>
-      <c r="B304" s="81"/>
+      <c r="A304" s="80"/>
+      <c r="B304" s="83"/>
       <c r="C304" s="69">
         <v>500</v>
       </c>
-      <c r="D304" s="82"/>
+      <c r="D304" s="84"/>
       <c r="E304" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="F304" s="82"/>
+        <v>309</v>
+      </c>
+      <c r="F304" s="84"/>
       <c r="G304" s="69">
         <f>C304-0.035</f>
         <v>499.96499999999997</v>
@@ -8060,19 +8040,19 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A305" s="79"/>
-      <c r="B305" s="82"/>
+      <c r="A305" s="81"/>
+      <c r="B305" s="84"/>
       <c r="C305" s="69">
         <v>100</v>
       </c>
       <c r="D305" s="69" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E305" s="56" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F305" s="69" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G305" s="69">
         <f>C305-0.007</f>
@@ -8084,23 +8064,23 @@
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A306" s="77">
+      <c r="A306" s="79">
         <v>1</v>
       </c>
-      <c r="B306" s="80">
+      <c r="B306" s="82">
         <v>1</v>
       </c>
       <c r="C306" s="69">
         <v>5</v>
       </c>
-      <c r="D306" s="80" t="s">
-        <v>363</v>
+      <c r="D306" s="82" t="s">
+        <v>358</v>
       </c>
       <c r="E306" s="56" t="s">
-        <v>316</v>
-      </c>
-      <c r="F306" s="80" t="s">
-        <v>363</v>
+        <v>311</v>
+      </c>
+      <c r="F306" s="82" t="s">
+        <v>358</v>
       </c>
       <c r="G306" s="69">
         <f>C306-0.0035</f>
@@ -8112,16 +8092,16 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A307" s="78"/>
-      <c r="B307" s="81"/>
+      <c r="A307" s="80"/>
+      <c r="B307" s="83"/>
       <c r="C307" s="69">
         <v>50</v>
       </c>
-      <c r="D307" s="81"/>
+      <c r="D307" s="83"/>
       <c r="E307" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="F307" s="81"/>
+        <v>312</v>
+      </c>
+      <c r="F307" s="83"/>
       <c r="G307" s="69">
         <f>C307-0.015</f>
         <v>49.984999999999999</v>
@@ -8132,16 +8112,16 @@
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A308" s="78"/>
-      <c r="B308" s="81"/>
+      <c r="A308" s="80"/>
+      <c r="B308" s="83"/>
       <c r="C308" s="69">
         <v>500</v>
       </c>
-      <c r="D308" s="82"/>
+      <c r="D308" s="84"/>
       <c r="E308" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="F308" s="82"/>
+        <v>313</v>
+      </c>
+      <c r="F308" s="84"/>
       <c r="G308" s="69">
         <f>C308-0.035</f>
         <v>499.96499999999997</v>
@@ -8152,19 +8132,19 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" s="79"/>
-      <c r="B309" s="82"/>
+      <c r="A309" s="81"/>
+      <c r="B309" s="84"/>
       <c r="C309" s="69">
         <v>100</v>
       </c>
       <c r="D309" s="69" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E309" s="56" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F309" s="69" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G309" s="69">
         <f>C309-0.007</f>
@@ -8185,7 +8165,7 @@
     </row>
     <row r="311" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B311" s="28"/>
       <c r="C311" s="28"/>
@@ -8198,7 +8178,7 @@
     </row>
     <row r="312" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
@@ -8210,50 +8190,50 @@
       <c r="I312" s="8"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" s="90" t="s">
-        <v>361</v>
-      </c>
-      <c r="B313" s="110" t="s">
-        <v>365</v>
-      </c>
-      <c r="C313" s="111"/>
-      <c r="D313" s="110" t="s">
-        <v>338</v>
-      </c>
-      <c r="E313" s="111"/>
-      <c r="F313" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="G313" s="115"/>
+      <c r="A313" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="B313" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="C313" s="86"/>
+      <c r="D313" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="E313" s="86"/>
+      <c r="F313" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="G313" s="90"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" s="90"/>
-      <c r="B314" s="112"/>
-      <c r="C314" s="113"/>
-      <c r="D314" s="112"/>
-      <c r="E314" s="113"/>
+      <c r="A314" s="91"/>
+      <c r="B314" s="87"/>
+      <c r="C314" s="88"/>
+      <c r="D314" s="87"/>
+      <c r="E314" s="88"/>
       <c r="F314" s="58" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G314" s="58" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="61" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B315" s="61">
         <v>100</v>
       </c>
       <c r="C315" s="60" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D315" s="57" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E315" s="60" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F315" s="15">
         <f>B315-0.01</f>
@@ -8266,19 +8246,19 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="61" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B316" s="61">
         <v>1</v>
       </c>
-      <c r="C316" s="77" t="s">
-        <v>369</v>
+      <c r="C316" s="79" t="s">
+        <v>364</v>
       </c>
       <c r="D316" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="E316" s="77" t="s">
-        <v>369</v>
+        <v>316</v>
+      </c>
+      <c r="E316" s="79" t="s">
+        <v>364</v>
       </c>
       <c r="F316" s="64">
         <f>B316-0.000045</f>
@@ -8291,16 +8271,16 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="61" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B317" s="61">
         <v>10</v>
       </c>
-      <c r="C317" s="78"/>
+      <c r="C317" s="80"/>
       <c r="D317" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="E317" s="78"/>
+        <v>317</v>
+      </c>
+      <c r="E317" s="80"/>
       <c r="F317" s="65">
         <f>B317-0.00045</f>
         <v>9.9995499999999993</v>
@@ -8312,16 +8292,16 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="32" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B318" s="32">
         <v>100</v>
       </c>
-      <c r="C318" s="79"/>
+      <c r="C318" s="81"/>
       <c r="D318" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="E318" s="79"/>
+        <v>318</v>
+      </c>
+      <c r="E318" s="81"/>
       <c r="F318" s="16">
         <f>B318-0.0045</f>
         <v>99.995500000000007</v>
@@ -8341,7 +8321,7 @@
     </row>
     <row r="320" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="38" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
@@ -8353,50 +8333,50 @@
       <c r="I320" s="8"/>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" s="90" t="s">
-        <v>361</v>
-      </c>
-      <c r="B321" s="110" t="s">
-        <v>365</v>
-      </c>
-      <c r="C321" s="111"/>
-      <c r="D321" s="110" t="s">
-        <v>338</v>
-      </c>
-      <c r="E321" s="111"/>
-      <c r="F321" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="G321" s="115"/>
+      <c r="A321" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="B321" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="C321" s="86"/>
+      <c r="D321" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="E321" s="86"/>
+      <c r="F321" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="G321" s="90"/>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A322" s="90"/>
-      <c r="B322" s="112"/>
-      <c r="C322" s="113"/>
-      <c r="D322" s="112"/>
-      <c r="E322" s="113"/>
+      <c r="A322" s="91"/>
+      <c r="B322" s="87"/>
+      <c r="C322" s="88"/>
+      <c r="D322" s="87"/>
+      <c r="E322" s="88"/>
       <c r="F322" s="58" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G322" s="58" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="61" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B323" s="61">
         <v>1</v>
       </c>
-      <c r="C323" s="123" t="s">
-        <v>372</v>
+      <c r="C323" s="95" t="s">
+        <v>367</v>
       </c>
       <c r="D323" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="E323" s="123" t="s">
-        <v>372</v>
+        <v>319</v>
+      </c>
+      <c r="E323" s="95" t="s">
+        <v>367</v>
       </c>
       <c r="F323" s="64">
         <f>B323-0.000075</f>
@@ -8409,16 +8389,16 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="61" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B324" s="61">
         <v>10</v>
       </c>
-      <c r="C324" s="123"/>
+      <c r="C324" s="95"/>
       <c r="D324" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="E324" s="123"/>
+        <v>320</v>
+      </c>
+      <c r="E324" s="95"/>
       <c r="F324" s="16">
         <f>B324-0.0026</f>
         <v>9.9974000000000007</v>
@@ -8430,16 +8410,16 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="61" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B325" s="61">
         <v>100</v>
       </c>
-      <c r="C325" s="123"/>
+      <c r="C325" s="95"/>
       <c r="D325" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="E325" s="123"/>
+        <v>321</v>
+      </c>
+      <c r="E325" s="95"/>
       <c r="F325" s="19">
         <f>B325-0.3</f>
         <v>99.7</v>
@@ -8451,19 +8431,19 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="61" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B326" s="61">
         <v>1</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D326" s="57" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F326" s="65">
         <f>B326-0.00301</f>
@@ -8487,54 +8467,54 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A329" s="124" t="s">
-        <v>361</v>
-      </c>
-      <c r="B329" s="124" t="s">
-        <v>15</v>
-      </c>
-      <c r="C329" s="124"/>
-      <c r="D329" s="124" t="s">
-        <v>16</v>
-      </c>
-      <c r="E329" s="124"/>
-      <c r="F329" s="114" t="s">
-        <v>339</v>
-      </c>
-      <c r="G329" s="115"/>
+      <c r="A329" s="96" t="s">
+        <v>356</v>
+      </c>
+      <c r="B329" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C329" s="96"/>
+      <c r="D329" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329" s="96"/>
+      <c r="F329" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="G329" s="90"/>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A330" s="125"/>
-      <c r="B330" s="124"/>
-      <c r="C330" s="124"/>
-      <c r="D330" s="124"/>
-      <c r="E330" s="124"/>
+      <c r="A330" s="97"/>
+      <c r="B330" s="96"/>
+      <c r="C330" s="96"/>
+      <c r="D330" s="96"/>
+      <c r="E330" s="96"/>
       <c r="F330" s="58" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G330" s="58" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="61" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B331" s="61">
         <v>1</v>
       </c>
-      <c r="C331" s="120" t="s">
-        <v>378</v>
+      <c r="C331" s="92" t="s">
+        <v>373</v>
       </c>
       <c r="D331" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="E331" s="120" t="s">
-        <v>378</v>
+        <v>323</v>
+      </c>
+      <c r="E331" s="92" t="s">
+        <v>373</v>
       </c>
       <c r="F331" s="15">
         <f>B331-0.01</f>
@@ -8547,16 +8527,16 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="61" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B332" s="61">
         <v>10</v>
       </c>
-      <c r="C332" s="121"/>
+      <c r="C332" s="93"/>
       <c r="D332" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="E332" s="121"/>
+        <v>324</v>
+      </c>
+      <c r="E332" s="93"/>
       <c r="F332" s="15">
         <f>B332-0.05</f>
         <v>9.9499999999999993</v>
@@ -8568,16 +8548,16 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="61" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B333" s="61">
         <v>100</v>
       </c>
-      <c r="C333" s="122"/>
+      <c r="C333" s="94"/>
       <c r="D333" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="E333" s="122"/>
+        <v>325</v>
+      </c>
+      <c r="E333" s="94"/>
       <c r="F333" s="19">
         <f>B333-0.5</f>
         <v>99.5</v>
@@ -8589,19 +8569,19 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="61" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B334" s="61">
         <v>1</v>
       </c>
       <c r="C334" s="66" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D334" s="57" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E334" s="66" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F334" s="18">
         <f>B334-0.005</f>
@@ -8620,35 +8600,370 @@
       <c r="E335" s="25"/>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338" s="89" t="s">
-        <v>332</v>
-      </c>
-      <c r="B338" s="89"/>
+      <c r="A338" s="127" t="s">
+        <v>327</v>
+      </c>
+      <c r="B338" s="127"/>
       <c r="C338" s="41"/>
       <c r="D338" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E338" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="F338" s="84"/>
+        <v>13</v>
+      </c>
+      <c r="E338" s="124" t="s">
+        <v>42</v>
+      </c>
+      <c r="F338" s="125"/>
       <c r="G338" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H338" s="43"/>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="B340" s="89"/>
-      <c r="C340" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D340" s="85"/>
+      <c r="A340" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340" s="127"/>
+      <c r="C340" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="D340" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="359">
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="F215:F217"/>
+    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="A201:A205"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A340:B340"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="C230:C232"/>
+    <mergeCell ref="F230:F232"/>
+    <mergeCell ref="C245:C247"/>
+    <mergeCell ref="F245:F247"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="F260:F262"/>
+    <mergeCell ref="C275:C277"/>
+    <mergeCell ref="F275:F277"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="F286:F287"/>
+    <mergeCell ref="C296:C297"/>
+    <mergeCell ref="F296:F297"/>
+    <mergeCell ref="A306:A309"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="A196:A200"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A181:A185"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="A191:A195"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="A112:A136"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="A162:A176"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C196:C200"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A62:A86"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A87:A111"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="F87:F91"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="F92:F96"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="F102:F106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="F112:F116"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="F117:F121"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="F122:F126"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="F127:F131"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="F132:F136"/>
+    <mergeCell ref="F137:F141"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="F142:F146"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="F147:F151"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="F152:F156"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="F157:F161"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="F168:F170"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="F171:F173"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="B179:C180"/>
+    <mergeCell ref="D179:E180"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="E181:E184"/>
+    <mergeCell ref="C186:C190"/>
+    <mergeCell ref="E186:E190"/>
+    <mergeCell ref="C191:C195"/>
+    <mergeCell ref="E191:E195"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="E196:E200"/>
+    <mergeCell ref="C201:C205"/>
+    <mergeCell ref="E201:E205"/>
+    <mergeCell ref="C206:C210"/>
+    <mergeCell ref="E206:E210"/>
+    <mergeCell ref="B213:C214"/>
+    <mergeCell ref="E213:F214"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="G215:G217"/>
+    <mergeCell ref="H215:H217"/>
+    <mergeCell ref="A218:A232"/>
+    <mergeCell ref="B218:B220"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="F218:F220"/>
+    <mergeCell ref="G218:G220"/>
+    <mergeCell ref="H218:H220"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="F221:F223"/>
+    <mergeCell ref="G221:G223"/>
+    <mergeCell ref="H221:H223"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="F224:F226"/>
+    <mergeCell ref="G224:G226"/>
+    <mergeCell ref="H224:H226"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="F227:F229"/>
+    <mergeCell ref="G227:G229"/>
+    <mergeCell ref="H227:H229"/>
+    <mergeCell ref="B230:B232"/>
+    <mergeCell ref="G230:G232"/>
+    <mergeCell ref="H230:H232"/>
+    <mergeCell ref="A233:A247"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="C233:C235"/>
+    <mergeCell ref="F233:F235"/>
+    <mergeCell ref="G233:G235"/>
+    <mergeCell ref="H233:H235"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="F236:F238"/>
+    <mergeCell ref="G236:G238"/>
+    <mergeCell ref="H236:H238"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="F239:F241"/>
+    <mergeCell ref="G239:G241"/>
+    <mergeCell ref="H239:H241"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="C242:C244"/>
+    <mergeCell ref="F242:F244"/>
+    <mergeCell ref="G242:G244"/>
+    <mergeCell ref="H242:H244"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="G245:G247"/>
+    <mergeCell ref="H245:H247"/>
+    <mergeCell ref="A248:A262"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="C248:C250"/>
+    <mergeCell ref="F248:F250"/>
+    <mergeCell ref="G248:G250"/>
+    <mergeCell ref="H248:H250"/>
+    <mergeCell ref="B251:B253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="F251:F253"/>
+    <mergeCell ref="G251:G253"/>
+    <mergeCell ref="H251:H253"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="F254:F256"/>
+    <mergeCell ref="G254:G256"/>
+    <mergeCell ref="H254:H256"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="F257:F259"/>
+    <mergeCell ref="G257:G259"/>
+    <mergeCell ref="H257:H259"/>
+    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="G260:G262"/>
+    <mergeCell ref="H260:H262"/>
+    <mergeCell ref="A263:A277"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="F263:F265"/>
+    <mergeCell ref="G263:G265"/>
+    <mergeCell ref="H263:H265"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="C266:C268"/>
+    <mergeCell ref="F266:F268"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="H266:H268"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="F269:F271"/>
+    <mergeCell ref="G269:G271"/>
+    <mergeCell ref="H269:H271"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="F272:F274"/>
+    <mergeCell ref="G272:G274"/>
+    <mergeCell ref="H272:H274"/>
+    <mergeCell ref="B275:B277"/>
+    <mergeCell ref="G275:G277"/>
+    <mergeCell ref="H275:H277"/>
+    <mergeCell ref="A278:A287"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="F278:F279"/>
+    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="F280:F281"/>
+    <mergeCell ref="G280:G281"/>
+    <mergeCell ref="H280:H281"/>
+    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="F282:F283"/>
+    <mergeCell ref="G282:G283"/>
+    <mergeCell ref="H282:H283"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="F284:F285"/>
+    <mergeCell ref="G284:G285"/>
+    <mergeCell ref="H284:H285"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="H286:H287"/>
+    <mergeCell ref="A288:A297"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="F288:F289"/>
+    <mergeCell ref="G288:G289"/>
+    <mergeCell ref="H288:H289"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="F290:F291"/>
+    <mergeCell ref="G290:G291"/>
+    <mergeCell ref="H290:H291"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="F292:F293"/>
+    <mergeCell ref="G292:G293"/>
+    <mergeCell ref="H292:H293"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="F294:F295"/>
+    <mergeCell ref="G294:G295"/>
+    <mergeCell ref="H294:H295"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="H296:H297"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="C300:D301"/>
+    <mergeCell ref="E300:F301"/>
+    <mergeCell ref="G300:H300"/>
+    <mergeCell ref="A302:A305"/>
+    <mergeCell ref="B302:B305"/>
+    <mergeCell ref="D302:D304"/>
+    <mergeCell ref="F302:F304"/>
     <mergeCell ref="A137:A161"/>
     <mergeCell ref="B306:B309"/>
     <mergeCell ref="D306:D308"/>
@@ -8673,341 +8988,6 @@
     <mergeCell ref="F329:G329"/>
     <mergeCell ref="G296:G297"/>
     <mergeCell ref="G286:G287"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="B300:B301"/>
-    <mergeCell ref="C300:D301"/>
-    <mergeCell ref="E300:F301"/>
-    <mergeCell ref="G300:H300"/>
-    <mergeCell ref="A302:A305"/>
-    <mergeCell ref="B302:B305"/>
-    <mergeCell ref="D302:D304"/>
-    <mergeCell ref="F302:F304"/>
-    <mergeCell ref="A288:A297"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="F288:F289"/>
-    <mergeCell ref="G288:G289"/>
-    <mergeCell ref="H288:H289"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="F290:F291"/>
-    <mergeCell ref="G290:G291"/>
-    <mergeCell ref="H290:H291"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="F292:F293"/>
-    <mergeCell ref="G292:G293"/>
-    <mergeCell ref="H292:H293"/>
-    <mergeCell ref="B294:B295"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="F294:F295"/>
-    <mergeCell ref="G294:G295"/>
-    <mergeCell ref="H294:H295"/>
-    <mergeCell ref="B296:B297"/>
-    <mergeCell ref="H296:H297"/>
-    <mergeCell ref="A278:A287"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="F278:F279"/>
-    <mergeCell ref="G278:G279"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="F280:F281"/>
-    <mergeCell ref="G280:G281"/>
-    <mergeCell ref="H280:H281"/>
-    <mergeCell ref="B282:B283"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="F282:F283"/>
-    <mergeCell ref="G282:G283"/>
-    <mergeCell ref="H282:H283"/>
-    <mergeCell ref="B284:B285"/>
-    <mergeCell ref="C284:C285"/>
-    <mergeCell ref="F284:F285"/>
-    <mergeCell ref="G284:G285"/>
-    <mergeCell ref="H284:H285"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="H286:H287"/>
-    <mergeCell ref="A263:A277"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="C263:C265"/>
-    <mergeCell ref="F263:F265"/>
-    <mergeCell ref="G263:G265"/>
-    <mergeCell ref="H263:H265"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="C266:C268"/>
-    <mergeCell ref="F266:F268"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="H266:H268"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="F269:F271"/>
-    <mergeCell ref="G269:G271"/>
-    <mergeCell ref="H269:H271"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="F272:F274"/>
-    <mergeCell ref="G272:G274"/>
-    <mergeCell ref="H272:H274"/>
-    <mergeCell ref="B275:B277"/>
-    <mergeCell ref="G275:G277"/>
-    <mergeCell ref="H275:H277"/>
-    <mergeCell ref="A248:A262"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="C248:C250"/>
-    <mergeCell ref="F248:F250"/>
-    <mergeCell ref="G248:G250"/>
-    <mergeCell ref="H248:H250"/>
-    <mergeCell ref="B251:B253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="F251:F253"/>
-    <mergeCell ref="G251:G253"/>
-    <mergeCell ref="H251:H253"/>
-    <mergeCell ref="B254:B256"/>
-    <mergeCell ref="C254:C256"/>
-    <mergeCell ref="F254:F256"/>
-    <mergeCell ref="G254:G256"/>
-    <mergeCell ref="H254:H256"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="F257:F259"/>
-    <mergeCell ref="G257:G259"/>
-    <mergeCell ref="H257:H259"/>
-    <mergeCell ref="B260:B262"/>
-    <mergeCell ref="G260:G262"/>
-    <mergeCell ref="H260:H262"/>
-    <mergeCell ref="A233:A247"/>
-    <mergeCell ref="B233:B235"/>
-    <mergeCell ref="C233:C235"/>
-    <mergeCell ref="F233:F235"/>
-    <mergeCell ref="G233:G235"/>
-    <mergeCell ref="H233:H235"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="F236:F238"/>
-    <mergeCell ref="G236:G238"/>
-    <mergeCell ref="H236:H238"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="F239:F241"/>
-    <mergeCell ref="G239:G241"/>
-    <mergeCell ref="H239:H241"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="F242:F244"/>
-    <mergeCell ref="G242:G244"/>
-    <mergeCell ref="H242:H244"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="G245:G247"/>
-    <mergeCell ref="H245:H247"/>
-    <mergeCell ref="A218:A232"/>
-    <mergeCell ref="B218:B220"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="F218:F220"/>
-    <mergeCell ref="G218:G220"/>
-    <mergeCell ref="H218:H220"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="F221:F223"/>
-    <mergeCell ref="G221:G223"/>
-    <mergeCell ref="H221:H223"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="F224:F226"/>
-    <mergeCell ref="G224:G226"/>
-    <mergeCell ref="H224:H226"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="F227:F229"/>
-    <mergeCell ref="G227:G229"/>
-    <mergeCell ref="H227:H229"/>
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="G230:G232"/>
-    <mergeCell ref="H230:H232"/>
-    <mergeCell ref="E196:E200"/>
-    <mergeCell ref="C201:C205"/>
-    <mergeCell ref="E201:E205"/>
-    <mergeCell ref="C206:C210"/>
-    <mergeCell ref="E206:E210"/>
-    <mergeCell ref="B213:C214"/>
-    <mergeCell ref="E213:F214"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="G215:G217"/>
-    <mergeCell ref="H215:H217"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="B179:C180"/>
-    <mergeCell ref="D179:E180"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="E181:E184"/>
-    <mergeCell ref="C186:C190"/>
-    <mergeCell ref="E186:E190"/>
-    <mergeCell ref="C191:C195"/>
-    <mergeCell ref="E191:E195"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="F165:F167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="F168:F170"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="F171:F173"/>
-    <mergeCell ref="F137:F141"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="F142:F146"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="F147:F151"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="F152:F156"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="F157:F161"/>
-    <mergeCell ref="F112:F116"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="F117:F121"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="F122:F126"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="F132:F136"/>
-    <mergeCell ref="A87:A111"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="F87:F91"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="F92:F96"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="F102:F106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B60:C61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A62:A86"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="A196:A200"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A181:A185"/>
-    <mergeCell ref="A186:A190"/>
-    <mergeCell ref="A191:A195"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="A112:A136"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="A162:A176"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C196:C200"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="F215:F217"/>
-    <mergeCell ref="E338:F338"/>
-    <mergeCell ref="C340:D340"/>
-    <mergeCell ref="A201:A205"/>
-    <mergeCell ref="A206:A210"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="A340:B340"/>
-    <mergeCell ref="A338:B338"/>
-    <mergeCell ref="C230:C232"/>
-    <mergeCell ref="F230:F232"/>
-    <mergeCell ref="C245:C247"/>
-    <mergeCell ref="F245:F247"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="F260:F262"/>
-    <mergeCell ref="C275:C277"/>
-    <mergeCell ref="F275:F277"/>
-    <mergeCell ref="C286:C287"/>
-    <mergeCell ref="F286:F287"/>
-    <mergeCell ref="C296:C297"/>
-    <mergeCell ref="F296:F297"/>
-    <mergeCell ref="A306:A309"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Shablon/34470A.xlsx
+++ b/Shablon/34470A.xlsx
@@ -12,14 +12,23 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$349</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$350</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="389">
+  <si>
+    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
+  </si>
+  <si>
+    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
+  </si>
+  <si>
+    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
+  </si>
   <si>
     <t>Условия проведения калибровки:</t>
   </si>
@@ -1229,7 +1238,16 @@
     <t>Предел, В</t>
   </si>
   <si>
-    <t>TITLE</t>
+    <t>СГМетр, лаборатория средств электрических и радиотехнических измерений</t>
+  </si>
+  <si>
+    <t>Уникальный номер об аккредитации в реестре акредитованных лиц № РОСС СОБ 3.00231.2014</t>
+  </si>
+  <si>
+    <t>Заключение:</t>
+  </si>
+  <si>
+    <t>годен</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1911,6 +1929,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -2216,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I340"/>
+  <dimension ref="A1:I338"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E346" sqref="E346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2251,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="110"/>
+      <c r="A1" s="110" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="110"/>
       <c r="C1" s="110"/>
       <c r="D1" s="110"/>
@@ -2243,7 +2264,9 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
+      <c r="A2" s="110" t="s">
+        <v>385</v>
+      </c>
       <c r="B2" s="110"/>
       <c r="C2" s="110"/>
       <c r="D2" s="110"/>
@@ -2255,7 +2278,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
-        <v>382</v>
+        <v>1</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="110"/>
@@ -2267,7 +2290,9 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
+      <c r="A4" s="106" t="s">
+        <v>386</v>
+      </c>
       <c r="B4" s="106"/>
       <c r="C4" s="106"/>
       <c r="D4" s="106"/>
@@ -2278,7 +2303,9 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="106" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" s="106"/>
       <c r="C5" s="106"/>
       <c r="D5" s="106"/>
@@ -2301,7 +2328,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="108" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B7" s="108"/>
       <c r="C7" s="108"/>
@@ -2325,16 +2352,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="109" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="109"/>
       <c r="C9" s="109"/>
       <c r="D9" s="48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="51"/>
@@ -2342,12 +2369,12 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="109" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="109"/>
       <c r="C10" s="109"/>
       <c r="D10" s="52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -2357,7 +2384,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="109" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="109"/>
       <c r="C11" s="109"/>
@@ -2370,7 +2397,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="109" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="109"/>
       <c r="C12" s="109"/>
@@ -2382,12 +2409,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="109" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="109"/>
       <c r="C13" s="109"/>
       <c r="D13" s="52" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -2397,12 +2424,12 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="109" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="109"/>
       <c r="C14" s="109"/>
       <c r="D14" s="54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
@@ -2412,12 +2439,12 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="109" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" s="109"/>
       <c r="C15" s="109"/>
       <c r="D15" s="48" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -2430,97 +2457,97 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="115" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" s="116"/>
       <c r="C18" s="117"/>
       <c r="D18" s="111" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18" s="111"/>
       <c r="F18" s="111" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G18" s="111"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="118" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" s="119"/>
       <c r="C19" s="120"/>
       <c r="D19" s="112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E19" s="112"/>
       <c r="F19" s="115" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G19" s="117"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="121" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B20" s="121"/>
       <c r="C20" s="121"/>
       <c r="D20" s="112" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E20" s="112"/>
       <c r="F20" s="115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G20" s="117"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="118" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B21" s="119"/>
       <c r="C21" s="120"/>
       <c r="D21" s="113" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E21" s="114"/>
       <c r="F21" s="115" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G21" s="117"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="118" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B22" s="119"/>
       <c r="C22" s="120"/>
       <c r="D22" s="122"/>
       <c r="E22" s="123"/>
       <c r="F22" s="115" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G22" s="117"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="118" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" s="119"/>
       <c r="C23" s="120"/>
       <c r="D23" s="122"/>
       <c r="E23" s="123"/>
       <c r="F23" s="115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" s="117"/>
       <c r="H23" s="10"/>
@@ -2537,7 +2564,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -2559,17 +2586,17 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2582,7 +2609,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -2595,18 +2622,18 @@
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="91" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B31" s="85" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C31" s="86"/>
       <c r="D31" s="85" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E31" s="86"/>
       <c r="F31" s="89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G31" s="90"/>
       <c r="I31" s="13"/>
@@ -2618,28 +2645,28 @@
       <c r="D32" s="87"/>
       <c r="E32" s="88"/>
       <c r="F32" s="58" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="91" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B33" s="63">
         <v>10</v>
       </c>
       <c r="C33" s="101" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E33" s="101" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F33" s="75">
         <f>B33-0.0039</f>
@@ -2658,7 +2685,7 @@
       </c>
       <c r="C34" s="102"/>
       <c r="D34" s="55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E34" s="102"/>
       <c r="F34" s="75">
@@ -2678,7 +2705,7 @@
       </c>
       <c r="C35" s="102"/>
       <c r="D35" s="55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E35" s="102"/>
       <c r="F35" s="18">
@@ -2698,7 +2725,7 @@
       </c>
       <c r="C36" s="102"/>
       <c r="D36" s="55" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E36" s="102"/>
       <c r="F36" s="75">
@@ -2718,7 +2745,7 @@
       </c>
       <c r="C37" s="103"/>
       <c r="D37" s="55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E37" s="103"/>
       <c r="F37" s="75">
@@ -2733,19 +2760,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="91" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B38" s="19">
         <v>0.1</v>
       </c>
       <c r="C38" s="101" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E38" s="101" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F38" s="64">
         <f>B38-0.000006</f>
@@ -2764,7 +2791,7 @@
       </c>
       <c r="C39" s="102"/>
       <c r="D39" s="55" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E39" s="102"/>
       <c r="F39" s="65">
@@ -2784,7 +2811,7 @@
       </c>
       <c r="C40" s="102"/>
       <c r="D40" s="55" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E40" s="102"/>
       <c r="F40" s="64">
@@ -2804,7 +2831,7 @@
       </c>
       <c r="C41" s="102"/>
       <c r="D41" s="55" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E41" s="102"/>
       <c r="F41" s="64">
@@ -2824,7 +2851,7 @@
       </c>
       <c r="C42" s="103"/>
       <c r="D42" s="55" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E42" s="103"/>
       <c r="F42" s="64">
@@ -2839,19 +2866,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="91" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B43" s="63">
         <v>1</v>
       </c>
       <c r="C43" s="101" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E43" s="101" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F43" s="65">
         <f>B43-0.000036</f>
@@ -2870,7 +2897,7 @@
       </c>
       <c r="C44" s="102"/>
       <c r="D44" s="55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E44" s="102"/>
       <c r="F44" s="65">
@@ -2890,7 +2917,7 @@
       </c>
       <c r="C45" s="102"/>
       <c r="D45" s="55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E45" s="102"/>
       <c r="F45" s="16">
@@ -2910,7 +2937,7 @@
       </c>
       <c r="C46" s="102"/>
       <c r="D46" s="55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E46" s="102"/>
       <c r="F46" s="65">
@@ -2930,7 +2957,7 @@
       </c>
       <c r="C47" s="103"/>
       <c r="D47" s="55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E47" s="103"/>
       <c r="F47" s="65">
@@ -2945,19 +2972,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="91" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B48" s="63">
         <v>10</v>
       </c>
       <c r="C48" s="101" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E48" s="101" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F48" s="18">
         <f>B48-0.00098</f>
@@ -2976,7 +3003,7 @@
       </c>
       <c r="C49" s="102"/>
       <c r="D49" s="55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E49" s="102"/>
       <c r="F49" s="16">
@@ -2996,7 +3023,7 @@
       </c>
       <c r="C50" s="102"/>
       <c r="D50" s="55" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E50" s="102"/>
       <c r="F50" s="16">
@@ -3016,7 +3043,7 @@
       </c>
       <c r="C51" s="102"/>
       <c r="D51" s="55" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E51" s="102"/>
       <c r="F51" s="16">
@@ -3036,7 +3063,7 @@
       </c>
       <c r="C52" s="103"/>
       <c r="D52" s="55" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E52" s="103"/>
       <c r="F52" s="16">
@@ -3051,19 +3078,19 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B53" s="63">
         <v>100</v>
       </c>
       <c r="C53" s="101" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E53" s="101" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F53" s="15">
         <f>B53-0.0098</f>
@@ -3082,7 +3109,7 @@
       </c>
       <c r="C54" s="102"/>
       <c r="D54" s="55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E54" s="102"/>
       <c r="F54" s="18">
@@ -3102,7 +3129,7 @@
       </c>
       <c r="C55" s="102"/>
       <c r="D55" s="55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E55" s="102"/>
       <c r="F55" s="18">
@@ -3122,7 +3149,7 @@
       </c>
       <c r="C56" s="102"/>
       <c r="D56" s="55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E56" s="102"/>
       <c r="F56" s="18">
@@ -3142,7 +3169,7 @@
       </c>
       <c r="C57" s="103"/>
       <c r="D57" s="55" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E57" s="103"/>
       <c r="F57" s="18">
@@ -3157,7 +3184,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -3169,21 +3196,21 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="104" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B60" s="91" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C60" s="91"/>
       <c r="D60" s="91" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E60" s="91" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F60" s="91"/>
       <c r="G60" s="89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H60" s="90"/>
     </row>
@@ -3195,30 +3222,30 @@
       <c r="E61" s="91"/>
       <c r="F61" s="91"/>
       <c r="G61" s="62" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H61" s="62" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="79" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B62" s="79">
         <v>10</v>
       </c>
       <c r="C62" s="82" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D62" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F62" s="82" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G62" s="69">
         <f>$B$62-0.025</f>
@@ -3234,10 +3261,10 @@
       <c r="B63" s="80"/>
       <c r="C63" s="83"/>
       <c r="D63" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F63" s="83"/>
       <c r="G63" s="69">
@@ -3254,10 +3281,10 @@
       <c r="B64" s="80"/>
       <c r="C64" s="83"/>
       <c r="D64" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F64" s="83"/>
       <c r="G64" s="69">
@@ -3274,10 +3301,10 @@
       <c r="B65" s="80"/>
       <c r="C65" s="83"/>
       <c r="D65" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F65" s="83"/>
       <c r="G65" s="69">
@@ -3294,10 +3321,10 @@
       <c r="B66" s="81"/>
       <c r="C66" s="84"/>
       <c r="D66" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F66" s="84"/>
       <c r="G66" s="69">
@@ -3315,16 +3342,16 @@
         <v>30</v>
       </c>
       <c r="C67" s="82" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D67" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F67" s="82" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G67" s="69">
         <f>$B$67-0.035</f>
@@ -3340,10 +3367,10 @@
       <c r="B68" s="80"/>
       <c r="C68" s="83"/>
       <c r="D68" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F68" s="83"/>
       <c r="G68" s="69">
@@ -3360,10 +3387,10 @@
       <c r="B69" s="80"/>
       <c r="C69" s="83"/>
       <c r="D69" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F69" s="83"/>
       <c r="G69" s="69">
@@ -3380,10 +3407,10 @@
       <c r="B70" s="80"/>
       <c r="C70" s="83"/>
       <c r="D70" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F70" s="83"/>
       <c r="G70" s="69">
@@ -3400,10 +3427,10 @@
       <c r="B71" s="81"/>
       <c r="C71" s="84"/>
       <c r="D71" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F71" s="84"/>
       <c r="G71" s="69">
@@ -3421,16 +3448,16 @@
         <v>50</v>
       </c>
       <c r="C72" s="82" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D72" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F72" s="82" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G72" s="69">
         <f>$B$72-0.045</f>
@@ -3446,10 +3473,10 @@
       <c r="B73" s="80"/>
       <c r="C73" s="83"/>
       <c r="D73" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F73" s="83"/>
       <c r="G73" s="69">
@@ -3466,10 +3493,10 @@
       <c r="B74" s="80"/>
       <c r="C74" s="83"/>
       <c r="D74" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F74" s="83"/>
       <c r="G74" s="69">
@@ -3486,10 +3513,10 @@
       <c r="B75" s="80"/>
       <c r="C75" s="83"/>
       <c r="D75" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F75" s="83"/>
       <c r="G75" s="69">
@@ -3506,10 +3533,10 @@
       <c r="B76" s="81"/>
       <c r="C76" s="84"/>
       <c r="D76" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E76" s="55" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F76" s="84"/>
       <c r="G76" s="69">
@@ -3527,16 +3554,16 @@
         <v>70</v>
       </c>
       <c r="C77" s="99" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F77" s="99" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="G77" s="69">
         <f>$B$77-0.055</f>
@@ -3552,10 +3579,10 @@
       <c r="B78" s="100"/>
       <c r="C78" s="99"/>
       <c r="D78" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F78" s="99"/>
       <c r="G78" s="69">
@@ -3572,10 +3599,10 @@
       <c r="B79" s="100"/>
       <c r="C79" s="99"/>
       <c r="D79" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F79" s="99"/>
       <c r="G79" s="69">
@@ -3592,10 +3619,10 @@
       <c r="B80" s="100"/>
       <c r="C80" s="99"/>
       <c r="D80" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E80" s="55" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F80" s="99"/>
       <c r="G80" s="69">
@@ -3612,10 +3639,10 @@
       <c r="B81" s="100"/>
       <c r="C81" s="99"/>
       <c r="D81" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F81" s="99"/>
       <c r="G81" s="69">
@@ -3633,16 +3660,16 @@
         <v>0.1</v>
       </c>
       <c r="C82" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D82" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E82" s="55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F82" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G82" s="69">
         <f>$B$82-0.00007</f>
@@ -3658,10 +3685,10 @@
       <c r="B83" s="100"/>
       <c r="C83" s="99"/>
       <c r="D83" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F83" s="99"/>
       <c r="G83" s="69">
@@ -3678,10 +3705,10 @@
       <c r="B84" s="100"/>
       <c r="C84" s="99"/>
       <c r="D84" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F84" s="99"/>
       <c r="G84" s="69">
@@ -3698,10 +3725,10 @@
       <c r="B85" s="100"/>
       <c r="C85" s="99"/>
       <c r="D85" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E85" s="55" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F85" s="99"/>
       <c r="G85" s="69">
@@ -3718,10 +3745,10 @@
       <c r="B86" s="100"/>
       <c r="C86" s="99"/>
       <c r="D86" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F86" s="99"/>
       <c r="G86" s="69">
@@ -3735,22 +3762,22 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="79" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B87" s="79">
         <v>0.1</v>
       </c>
       <c r="C87" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D87" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F87" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G87" s="77">
         <f>$B$87-0.00025</f>
@@ -3766,10 +3793,10 @@
       <c r="B88" s="80"/>
       <c r="C88" s="99"/>
       <c r="D88" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F88" s="99"/>
       <c r="G88" s="77">
@@ -3786,10 +3813,10 @@
       <c r="B89" s="80"/>
       <c r="C89" s="99"/>
       <c r="D89" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E89" s="55" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F89" s="99"/>
       <c r="G89" s="77">
@@ -3806,10 +3833,10 @@
       <c r="B90" s="80"/>
       <c r="C90" s="99"/>
       <c r="D90" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F90" s="99"/>
       <c r="G90" s="77">
@@ -3826,10 +3853,10 @@
       <c r="B91" s="81"/>
       <c r="C91" s="99"/>
       <c r="D91" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F91" s="99"/>
       <c r="G91" s="72">
@@ -3847,16 +3874,16 @@
         <v>0.3</v>
       </c>
       <c r="C92" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D92" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E92" s="55" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F92" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G92" s="69">
         <f>$B$92-0.00035</f>
@@ -3872,10 +3899,10 @@
       <c r="B93" s="80"/>
       <c r="C93" s="99"/>
       <c r="D93" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F93" s="99"/>
       <c r="G93" s="69">
@@ -3892,10 +3919,10 @@
       <c r="B94" s="80"/>
       <c r="C94" s="99"/>
       <c r="D94" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E94" s="55" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F94" s="99"/>
       <c r="G94" s="69">
@@ -3912,10 +3939,10 @@
       <c r="B95" s="80"/>
       <c r="C95" s="99"/>
       <c r="D95" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F95" s="99"/>
       <c r="G95" s="69">
@@ -3932,10 +3959,10 @@
       <c r="B96" s="81"/>
       <c r="C96" s="99"/>
       <c r="D96" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F96" s="99"/>
       <c r="G96" s="69">
@@ -3953,16 +3980,16 @@
         <v>0.5</v>
       </c>
       <c r="C97" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D97" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E97" s="55" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F97" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G97" s="69">
         <f>$B$97-0.00045</f>
@@ -3978,10 +4005,10 @@
       <c r="B98" s="80"/>
       <c r="C98" s="99"/>
       <c r="D98" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E98" s="55" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F98" s="99"/>
       <c r="G98" s="69">
@@ -3998,10 +4025,10 @@
       <c r="B99" s="80"/>
       <c r="C99" s="99"/>
       <c r="D99" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E99" s="55" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F99" s="99"/>
       <c r="G99" s="69">
@@ -4018,10 +4045,10 @@
       <c r="B100" s="80"/>
       <c r="C100" s="99"/>
       <c r="D100" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F100" s="99"/>
       <c r="G100" s="69">
@@ -4038,10 +4065,10 @@
       <c r="B101" s="81"/>
       <c r="C101" s="99"/>
       <c r="D101" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F101" s="99"/>
       <c r="G101" s="69">
@@ -4059,16 +4086,16 @@
         <v>0.7</v>
       </c>
       <c r="C102" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D102" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F102" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G102" s="69">
         <f>$B$102-0.00055</f>
@@ -4084,10 +4111,10 @@
       <c r="B103" s="80"/>
       <c r="C103" s="99"/>
       <c r="D103" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F103" s="99"/>
       <c r="G103" s="69">
@@ -4104,10 +4131,10 @@
       <c r="B104" s="80"/>
       <c r="C104" s="99"/>
       <c r="D104" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F104" s="99"/>
       <c r="G104" s="69">
@@ -4124,10 +4151,10 @@
       <c r="B105" s="80"/>
       <c r="C105" s="99"/>
       <c r="D105" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F105" s="99"/>
       <c r="G105" s="69">
@@ -4144,10 +4171,10 @@
       <c r="B106" s="81"/>
       <c r="C106" s="99"/>
       <c r="D106" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E106" s="55" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F106" s="99"/>
       <c r="G106" s="69">
@@ -4165,16 +4192,16 @@
         <v>1</v>
       </c>
       <c r="C107" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D107" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E107" s="55" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F107" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G107" s="69">
         <f>$B$107-0.0007</f>
@@ -4190,10 +4217,10 @@
       <c r="B108" s="80"/>
       <c r="C108" s="99"/>
       <c r="D108" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E108" s="55" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F108" s="99"/>
       <c r="G108" s="69">
@@ -4210,10 +4237,10 @@
       <c r="B109" s="80"/>
       <c r="C109" s="99"/>
       <c r="D109" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E109" s="55" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F109" s="99"/>
       <c r="G109" s="69">
@@ -4230,10 +4257,10 @@
       <c r="B110" s="80"/>
       <c r="C110" s="99"/>
       <c r="D110" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F110" s="99"/>
       <c r="G110" s="69">
@@ -4250,10 +4277,10 @@
       <c r="B111" s="81"/>
       <c r="C111" s="99"/>
       <c r="D111" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E111" s="55" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F111" s="99"/>
       <c r="G111" s="69">
@@ -4267,22 +4294,22 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="79" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B112" s="79">
         <v>1</v>
       </c>
       <c r="C112" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D112" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F112" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G112" s="78">
         <f>$B$112-0.0025</f>
@@ -4298,10 +4325,10 @@
       <c r="B113" s="80"/>
       <c r="C113" s="99"/>
       <c r="D113" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E113" s="55" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F113" s="99"/>
       <c r="G113" s="78">
@@ -4318,10 +4345,10 @@
       <c r="B114" s="80"/>
       <c r="C114" s="99"/>
       <c r="D114" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E114" s="55" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F114" s="99"/>
       <c r="G114" s="78">
@@ -4338,10 +4365,10 @@
       <c r="B115" s="80"/>
       <c r="C115" s="99"/>
       <c r="D115" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E115" s="55" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F115" s="99"/>
       <c r="G115" s="78">
@@ -4358,10 +4385,10 @@
       <c r="B116" s="81"/>
       <c r="C116" s="99"/>
       <c r="D116" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E116" s="55" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F116" s="99"/>
       <c r="G116" s="74">
@@ -4379,16 +4406,16 @@
         <v>3</v>
       </c>
       <c r="C117" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D117" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E117" s="55" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F117" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G117" s="69">
         <f>$B$117-0.0035</f>
@@ -4404,10 +4431,10 @@
       <c r="B118" s="80"/>
       <c r="C118" s="99"/>
       <c r="D118" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E118" s="55" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F118" s="99"/>
       <c r="G118" s="69">
@@ -4424,10 +4451,10 @@
       <c r="B119" s="80"/>
       <c r="C119" s="99"/>
       <c r="D119" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E119" s="55" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F119" s="99"/>
       <c r="G119" s="69">
@@ -4444,10 +4471,10 @@
       <c r="B120" s="80"/>
       <c r="C120" s="99"/>
       <c r="D120" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E120" s="55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F120" s="99"/>
       <c r="G120" s="69">
@@ -4464,10 +4491,10 @@
       <c r="B121" s="81"/>
       <c r="C121" s="99"/>
       <c r="D121" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E121" s="55" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F121" s="99"/>
       <c r="G121" s="69">
@@ -4485,16 +4512,16 @@
         <v>5</v>
       </c>
       <c r="C122" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D122" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E122" s="55" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F122" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G122" s="69">
         <f>$B$122-0.0045</f>
@@ -4510,10 +4537,10 @@
       <c r="B123" s="80"/>
       <c r="C123" s="99"/>
       <c r="D123" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E123" s="55" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F123" s="99"/>
       <c r="G123" s="69">
@@ -4530,10 +4557,10 @@
       <c r="B124" s="80"/>
       <c r="C124" s="99"/>
       <c r="D124" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E124" s="55" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F124" s="99"/>
       <c r="G124" s="69">
@@ -4550,10 +4577,10 @@
       <c r="B125" s="80"/>
       <c r="C125" s="99"/>
       <c r="D125" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E125" s="55" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F125" s="99"/>
       <c r="G125" s="69">
@@ -4570,10 +4597,10 @@
       <c r="B126" s="81"/>
       <c r="C126" s="99"/>
       <c r="D126" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E126" s="55" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F126" s="99"/>
       <c r="G126" s="69">
@@ -4591,16 +4618,16 @@
         <v>7</v>
       </c>
       <c r="C127" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D127" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E127" s="55" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F127" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G127" s="69">
         <f>$B$127-0.0055</f>
@@ -4616,10 +4643,10 @@
       <c r="B128" s="80"/>
       <c r="C128" s="99"/>
       <c r="D128" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E128" s="55" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F128" s="99"/>
       <c r="G128" s="69">
@@ -4636,10 +4663,10 @@
       <c r="B129" s="80"/>
       <c r="C129" s="99"/>
       <c r="D129" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E129" s="55" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F129" s="99"/>
       <c r="G129" s="69">
@@ -4656,10 +4683,10 @@
       <c r="B130" s="80"/>
       <c r="C130" s="99"/>
       <c r="D130" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E130" s="55" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F130" s="99"/>
       <c r="G130" s="69">
@@ -4676,10 +4703,10 @@
       <c r="B131" s="81"/>
       <c r="C131" s="99"/>
       <c r="D131" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E131" s="55" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F131" s="99"/>
       <c r="G131" s="69">
@@ -4697,16 +4724,16 @@
         <v>10</v>
       </c>
       <c r="C132" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D132" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E132" s="55" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F132" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G132" s="69">
         <f>$B$132-0.007</f>
@@ -4722,10 +4749,10 @@
       <c r="B133" s="80"/>
       <c r="C133" s="99"/>
       <c r="D133" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E133" s="55" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F133" s="99"/>
       <c r="G133" s="69">
@@ -4742,10 +4769,10 @@
       <c r="B134" s="80"/>
       <c r="C134" s="99"/>
       <c r="D134" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E134" s="55" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F134" s="99"/>
       <c r="G134" s="69">
@@ -4762,10 +4789,10 @@
       <c r="B135" s="80"/>
       <c r="C135" s="99"/>
       <c r="D135" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E135" s="55" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F135" s="99"/>
       <c r="G135" s="69">
@@ -4782,10 +4809,10 @@
       <c r="B136" s="81"/>
       <c r="C136" s="99"/>
       <c r="D136" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E136" s="55" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F136" s="99"/>
       <c r="G136" s="69">
@@ -4799,22 +4826,22 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="79" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B137" s="79">
         <v>10</v>
       </c>
       <c r="C137" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D137" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E137" s="55" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F137" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G137" s="72">
         <f>$B$137-0.025</f>
@@ -4830,10 +4857,10 @@
       <c r="B138" s="80"/>
       <c r="C138" s="99"/>
       <c r="D138" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E138" s="55" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F138" s="99"/>
       <c r="G138" s="72">
@@ -4850,10 +4877,10 @@
       <c r="B139" s="80"/>
       <c r="C139" s="99"/>
       <c r="D139" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E139" s="55" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F139" s="99"/>
       <c r="G139" s="72">
@@ -4870,10 +4897,10 @@
       <c r="B140" s="80"/>
       <c r="C140" s="99"/>
       <c r="D140" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E140" s="55" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F140" s="99"/>
       <c r="G140" s="72">
@@ -4890,10 +4917,10 @@
       <c r="B141" s="81"/>
       <c r="C141" s="99"/>
       <c r="D141" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E141" s="55" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F141" s="99"/>
       <c r="G141" s="73">
@@ -4911,16 +4938,16 @@
         <v>30</v>
       </c>
       <c r="C142" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D142" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E142" s="55" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F142" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G142" s="69">
         <f>$B$142-0.035</f>
@@ -4936,10 +4963,10 @@
       <c r="B143" s="80"/>
       <c r="C143" s="99"/>
       <c r="D143" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E143" s="55" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F143" s="99"/>
       <c r="G143" s="69">
@@ -4956,10 +4983,10 @@
       <c r="B144" s="80"/>
       <c r="C144" s="99"/>
       <c r="D144" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E144" s="55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F144" s="99"/>
       <c r="G144" s="69">
@@ -4976,10 +5003,10 @@
       <c r="B145" s="80"/>
       <c r="C145" s="99"/>
       <c r="D145" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E145" s="55" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F145" s="99"/>
       <c r="G145" s="69">
@@ -4996,10 +5023,10 @@
       <c r="B146" s="81"/>
       <c r="C146" s="99"/>
       <c r="D146" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E146" s="55" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F146" s="99"/>
       <c r="G146" s="69">
@@ -5017,16 +5044,16 @@
         <v>50</v>
       </c>
       <c r="C147" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D147" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E147" s="55" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F147" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G147" s="69">
         <f>$B$147-0.045</f>
@@ -5042,10 +5069,10 @@
       <c r="B148" s="80"/>
       <c r="C148" s="99"/>
       <c r="D148" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E148" s="55" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F148" s="99"/>
       <c r="G148" s="69">
@@ -5062,10 +5089,10 @@
       <c r="B149" s="80"/>
       <c r="C149" s="99"/>
       <c r="D149" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E149" s="55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F149" s="99"/>
       <c r="G149" s="69">
@@ -5082,10 +5109,10 @@
       <c r="B150" s="80"/>
       <c r="C150" s="99"/>
       <c r="D150" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E150" s="55" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F150" s="99"/>
       <c r="G150" s="69">
@@ -5102,10 +5129,10 @@
       <c r="B151" s="81"/>
       <c r="C151" s="99"/>
       <c r="D151" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E151" s="55" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F151" s="99"/>
       <c r="G151" s="69">
@@ -5123,16 +5150,16 @@
         <v>70</v>
       </c>
       <c r="C152" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D152" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E152" s="55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F152" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G152" s="69">
         <f>$B$152-0.055</f>
@@ -5148,10 +5175,10 @@
       <c r="B153" s="80"/>
       <c r="C153" s="99"/>
       <c r="D153" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E153" s="55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F153" s="99"/>
       <c r="G153" s="69">
@@ -5168,10 +5195,10 @@
       <c r="B154" s="80"/>
       <c r="C154" s="99"/>
       <c r="D154" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E154" s="55" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F154" s="99"/>
       <c r="G154" s="69">
@@ -5188,10 +5215,10 @@
       <c r="B155" s="80"/>
       <c r="C155" s="99"/>
       <c r="D155" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E155" s="55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F155" s="99"/>
       <c r="G155" s="69">
@@ -5208,10 +5235,10 @@
       <c r="B156" s="81"/>
       <c r="C156" s="99"/>
       <c r="D156" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E156" s="55" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F156" s="99"/>
       <c r="G156" s="69">
@@ -5229,16 +5256,16 @@
         <v>100</v>
       </c>
       <c r="C157" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D157" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E157" s="55" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F157" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G157" s="69">
         <f>$B$157-0.07</f>
@@ -5254,10 +5281,10 @@
       <c r="B158" s="80"/>
       <c r="C158" s="99"/>
       <c r="D158" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E158" s="55" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F158" s="99"/>
       <c r="G158" s="69">
@@ -5274,10 +5301,10 @@
       <c r="B159" s="80"/>
       <c r="C159" s="99"/>
       <c r="D159" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E159" s="55" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F159" s="99"/>
       <c r="G159" s="69">
@@ -5294,10 +5321,10 @@
       <c r="B160" s="80"/>
       <c r="C160" s="99"/>
       <c r="D160" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E160" s="55" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F160" s="99"/>
       <c r="G160" s="69">
@@ -5314,10 +5341,10 @@
       <c r="B161" s="81"/>
       <c r="C161" s="99"/>
       <c r="D161" s="69" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E161" s="55" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F161" s="99"/>
       <c r="G161" s="69">
@@ -5331,22 +5358,22 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="79" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B162" s="100">
         <v>75</v>
       </c>
       <c r="C162" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D162" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E162" s="55" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F162" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G162" s="72">
         <f>$B$162-0.1875</f>
@@ -5362,10 +5389,10 @@
       <c r="B163" s="100"/>
       <c r="C163" s="99"/>
       <c r="D163" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E163" s="55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F163" s="99"/>
       <c r="G163" s="72">
@@ -5382,10 +5409,10 @@
       <c r="B164" s="100"/>
       <c r="C164" s="99"/>
       <c r="D164" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E164" s="55" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F164" s="99"/>
       <c r="G164" s="72">
@@ -5403,16 +5430,16 @@
         <v>225</v>
       </c>
       <c r="C165" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D165" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E165" s="55" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F165" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G165" s="72">
         <f>$B$165-0.2625</f>
@@ -5428,10 +5455,10 @@
       <c r="B166" s="100"/>
       <c r="C166" s="99"/>
       <c r="D166" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E166" s="55" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F166" s="99"/>
       <c r="G166" s="72">
@@ -5448,10 +5475,10 @@
       <c r="B167" s="100"/>
       <c r="C167" s="99"/>
       <c r="D167" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E167" s="55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F167" s="99"/>
       <c r="G167" s="72">
@@ -5469,16 +5496,16 @@
         <v>375</v>
       </c>
       <c r="C168" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D168" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E168" s="55" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F168" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G168" s="72">
         <f>$B$168-0.3375</f>
@@ -5494,10 +5521,10 @@
       <c r="B169" s="100"/>
       <c r="C169" s="99"/>
       <c r="D169" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E169" s="55" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F169" s="99"/>
       <c r="G169" s="72">
@@ -5514,10 +5541,10 @@
       <c r="B170" s="100"/>
       <c r="C170" s="99"/>
       <c r="D170" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E170" s="55" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F170" s="99"/>
       <c r="G170" s="72">
@@ -5535,16 +5562,16 @@
         <v>525</v>
       </c>
       <c r="C171" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D171" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E171" s="55" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F171" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G171" s="72">
         <f>$B$171-0.6375</f>
@@ -5560,10 +5587,10 @@
       <c r="B172" s="100"/>
       <c r="C172" s="99"/>
       <c r="D172" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E172" s="55" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F172" s="99"/>
       <c r="G172" s="72">
@@ -5580,10 +5607,10 @@
       <c r="B173" s="100"/>
       <c r="C173" s="99"/>
       <c r="D173" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E173" s="55" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F173" s="99"/>
       <c r="G173" s="72">
@@ -5601,16 +5628,16 @@
         <v>750</v>
       </c>
       <c r="C174" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D174" s="69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E174" s="55" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F174" s="99" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G174" s="72">
         <f>$B$174-0.975</f>
@@ -5626,10 +5653,10 @@
       <c r="B175" s="100"/>
       <c r="C175" s="99"/>
       <c r="D175" s="69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E175" s="55" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F175" s="99"/>
       <c r="G175" s="73">
@@ -5646,10 +5673,10 @@
       <c r="B176" s="100"/>
       <c r="C176" s="99"/>
       <c r="D176" s="69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E176" s="55" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F176" s="99"/>
       <c r="G176" s="74">
@@ -5671,7 +5698,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B178" s="21"/>
       <c r="C178" s="22"/>
@@ -5681,18 +5708,18 @@
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="91" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B179" s="91" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C179" s="91"/>
       <c r="D179" s="91" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E179" s="91"/>
       <c r="F179" s="89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G179" s="90"/>
     </row>
@@ -5703,27 +5730,27 @@
       <c r="D180" s="91"/>
       <c r="E180" s="91"/>
       <c r="F180" s="58" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G180" s="58" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="100" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B181" s="60">
         <v>100</v>
       </c>
       <c r="C181" s="100" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D181" s="55" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E181" s="100" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F181" s="15">
         <f>B181-0.1</f>
@@ -5741,7 +5768,7 @@
       </c>
       <c r="C182" s="100"/>
       <c r="D182" s="55" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E182" s="100"/>
       <c r="F182" s="15">
@@ -5760,7 +5787,7 @@
       </c>
       <c r="C183" s="100"/>
       <c r="D183" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E183" s="100"/>
       <c r="F183" s="15">
@@ -5779,7 +5806,7 @@
       </c>
       <c r="C184" s="100"/>
       <c r="D184" s="55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E184" s="100"/>
       <c r="F184" s="15">
@@ -5797,13 +5824,13 @@
         <v>1</v>
       </c>
       <c r="C185" s="60" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E185" s="60" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F185" s="65">
         <f>B185-0.00055</f>
@@ -5816,19 +5843,19 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="100" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B186" s="60">
         <v>1</v>
       </c>
       <c r="C186" s="79" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D186" s="55" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E186" s="79" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F186" s="76">
         <f>B186-0.0025</f>
@@ -5846,7 +5873,7 @@
       </c>
       <c r="C187" s="80"/>
       <c r="D187" s="55" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E187" s="80"/>
       <c r="F187" s="76">
@@ -5865,7 +5892,7 @@
       </c>
       <c r="C188" s="80"/>
       <c r="D188" s="55" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E188" s="80"/>
       <c r="F188" s="76">
@@ -5884,7 +5911,7 @@
       </c>
       <c r="C189" s="80"/>
       <c r="D189" s="55" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E189" s="80"/>
       <c r="F189" s="76">
@@ -5903,7 +5930,7 @@
       </c>
       <c r="C190" s="81"/>
       <c r="D190" s="55" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E190" s="81"/>
       <c r="F190" s="18">
@@ -5917,19 +5944,19 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="100" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B191" s="60">
         <v>10</v>
       </c>
       <c r="C191" s="79" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D191" s="55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E191" s="79" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F191" s="15">
         <f>B191-0.01</f>
@@ -5947,7 +5974,7 @@
       </c>
       <c r="C192" s="80"/>
       <c r="D192" s="55" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E192" s="80"/>
       <c r="F192" s="15">
@@ -5966,7 +5993,7 @@
       </c>
       <c r="C193" s="80"/>
       <c r="D193" s="55" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E193" s="80"/>
       <c r="F193" s="15">
@@ -5985,7 +6012,7 @@
       </c>
       <c r="C194" s="80"/>
       <c r="D194" s="55" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E194" s="80"/>
       <c r="F194" s="15">
@@ -6004,7 +6031,7 @@
       </c>
       <c r="C195" s="81"/>
       <c r="D195" s="55" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E195" s="81"/>
       <c r="F195" s="18">
@@ -6018,19 +6045,19 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="100" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B196" s="60">
         <v>0.1</v>
       </c>
       <c r="C196" s="79" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D196" s="55" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E196" s="79" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F196" s="65">
         <f>B196-0.00018</f>
@@ -6048,7 +6075,7 @@
       </c>
       <c r="C197" s="80"/>
       <c r="D197" s="55" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E197" s="80"/>
       <c r="F197" s="65">
@@ -6067,7 +6094,7 @@
       </c>
       <c r="C198" s="80"/>
       <c r="D198" s="55" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E198" s="80"/>
       <c r="F198" s="65">
@@ -6086,7 +6113,7 @@
       </c>
       <c r="C199" s="80"/>
       <c r="D199" s="55" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E199" s="80"/>
       <c r="F199" s="65">
@@ -6105,7 +6132,7 @@
       </c>
       <c r="C200" s="81"/>
       <c r="D200" s="55" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E200" s="81"/>
       <c r="F200" s="76">
@@ -6119,19 +6146,19 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="100" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B201" s="60">
         <v>0.3</v>
       </c>
       <c r="C201" s="79" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D201" s="55" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E201" s="79" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F201" s="76">
         <f>B201-0.0012</f>
@@ -6149,7 +6176,7 @@
       </c>
       <c r="C202" s="80"/>
       <c r="D202" s="55" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E202" s="80"/>
       <c r="F202" s="76">
@@ -6168,7 +6195,7 @@
       </c>
       <c r="C203" s="80"/>
       <c r="D203" s="55" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E203" s="80"/>
       <c r="F203" s="76">
@@ -6187,7 +6214,7 @@
       </c>
       <c r="C204" s="80"/>
       <c r="D204" s="55" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E204" s="80"/>
       <c r="F204" s="76">
@@ -6206,7 +6233,7 @@
       </c>
       <c r="C205" s="81"/>
       <c r="D205" s="55" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E205" s="81"/>
       <c r="F205" s="76">
@@ -6220,19 +6247,19 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="100" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B206" s="60">
         <v>1</v>
       </c>
       <c r="C206" s="79" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D206" s="55" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E206" s="79" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F206" s="76">
         <f>B206-0.0022</f>
@@ -6250,7 +6277,7 @@
       </c>
       <c r="C207" s="80"/>
       <c r="D207" s="55" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E207" s="80"/>
       <c r="F207" s="76">
@@ -6269,7 +6296,7 @@
       </c>
       <c r="C208" s="80"/>
       <c r="D208" s="55" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E208" s="80"/>
       <c r="F208" s="18">
@@ -6288,7 +6315,7 @@
       </c>
       <c r="C209" s="80"/>
       <c r="D209" s="55" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E209" s="80"/>
       <c r="F209" s="76">
@@ -6307,7 +6334,7 @@
       </c>
       <c r="C210" s="81"/>
       <c r="D210" s="55" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E210" s="81"/>
       <c r="F210" s="18">
@@ -6329,7 +6356,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="22"/>
@@ -6339,21 +6366,21 @@
     </row>
     <row r="213" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="104" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B213" s="91" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C213" s="91"/>
       <c r="D213" s="91" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E213" s="91" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F213" s="91"/>
       <c r="G213" s="89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H213" s="90"/>
     </row>
@@ -6365,30 +6392,30 @@
       <c r="E214" s="91"/>
       <c r="F214" s="91"/>
       <c r="G214" s="62" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H214" s="62" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="79" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B215" s="82">
         <v>100</v>
       </c>
       <c r="C215" s="82" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D215" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E215" s="55" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F215" s="82" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G215" s="82">
         <f>$B$215-0.14</f>
@@ -6404,10 +6431,10 @@
       <c r="B216" s="83"/>
       <c r="C216" s="83"/>
       <c r="D216" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E216" s="55" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F216" s="83"/>
       <c r="G216" s="83"/>
@@ -6418,10 +6445,10 @@
       <c r="B217" s="84"/>
       <c r="C217" s="84"/>
       <c r="D217" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E217" s="55" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F217" s="84"/>
       <c r="G217" s="84"/>
@@ -6429,22 +6456,22 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="79" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B218" s="82">
         <v>100</v>
       </c>
       <c r="C218" s="82" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D218" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E218" s="55" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F218" s="82" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G218" s="82">
         <f>B218-0.5</f>
@@ -6460,10 +6487,10 @@
       <c r="B219" s="83"/>
       <c r="C219" s="83"/>
       <c r="D219" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E219" s="55" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F219" s="83"/>
       <c r="G219" s="83"/>
@@ -6474,10 +6501,10 @@
       <c r="B220" s="84"/>
       <c r="C220" s="84"/>
       <c r="D220" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E220" s="55" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F220" s="84"/>
       <c r="G220" s="84"/>
@@ -6489,16 +6516,16 @@
         <v>300</v>
       </c>
       <c r="C221" s="82" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D221" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E221" s="55" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F221" s="82" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G221" s="82">
         <f>B221-0.7</f>
@@ -6514,10 +6541,10 @@
       <c r="B222" s="83"/>
       <c r="C222" s="83"/>
       <c r="D222" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E222" s="55" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F222" s="83"/>
       <c r="G222" s="83"/>
@@ -6528,10 +6555,10 @@
       <c r="B223" s="84"/>
       <c r="C223" s="84"/>
       <c r="D223" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E223" s="55" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F223" s="84"/>
       <c r="G223" s="84"/>
@@ -6543,16 +6570,16 @@
         <v>500</v>
       </c>
       <c r="C224" s="82" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D224" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E224" s="55" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F224" s="82" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G224" s="82">
         <f>B224-0.9</f>
@@ -6568,10 +6595,10 @@
       <c r="B225" s="83"/>
       <c r="C225" s="83"/>
       <c r="D225" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E225" s="55" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F225" s="83"/>
       <c r="G225" s="83"/>
@@ -6582,10 +6609,10 @@
       <c r="B226" s="84"/>
       <c r="C226" s="84"/>
       <c r="D226" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E226" s="55" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F226" s="84"/>
       <c r="G226" s="84"/>
@@ -6597,16 +6624,16 @@
         <v>700</v>
       </c>
       <c r="C227" s="82" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D227" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E227" s="55" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F227" s="82" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G227" s="82">
         <f>B227-1.1</f>
@@ -6622,10 +6649,10 @@
       <c r="B228" s="83"/>
       <c r="C228" s="83"/>
       <c r="D228" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E228" s="55" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F228" s="83"/>
       <c r="G228" s="83"/>
@@ -6636,10 +6663,10 @@
       <c r="B229" s="84"/>
       <c r="C229" s="84"/>
       <c r="D229" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E229" s="55" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F229" s="84"/>
       <c r="G229" s="84"/>
@@ -6651,16 +6678,16 @@
         <v>1</v>
       </c>
       <c r="C230" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D230" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E230" s="55" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F230" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G230" s="82">
         <f>B230-0.0014</f>
@@ -6676,10 +6703,10 @@
       <c r="B231" s="83"/>
       <c r="C231" s="83"/>
       <c r="D231" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E231" s="55" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F231" s="83"/>
       <c r="G231" s="83"/>
@@ -6690,10 +6717,10 @@
       <c r="B232" s="84"/>
       <c r="C232" s="84"/>
       <c r="D232" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E232" s="55" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F232" s="84"/>
       <c r="G232" s="84"/>
@@ -6701,22 +6728,22 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="79" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B233" s="82">
         <v>1</v>
       </c>
       <c r="C233" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D233" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E233" s="55" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F233" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G233" s="82">
         <f>B233-0.005</f>
@@ -6732,10 +6759,10 @@
       <c r="B234" s="83"/>
       <c r="C234" s="83"/>
       <c r="D234" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E234" s="55" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F234" s="83"/>
       <c r="G234" s="83"/>
@@ -6746,10 +6773,10 @@
       <c r="B235" s="84"/>
       <c r="C235" s="84"/>
       <c r="D235" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E235" s="55" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F235" s="84"/>
       <c r="G235" s="84"/>
@@ -6761,16 +6788,16 @@
         <v>3</v>
       </c>
       <c r="C236" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D236" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E236" s="55" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F236" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G236" s="82">
         <f>B236-0.007</f>
@@ -6786,10 +6813,10 @@
       <c r="B237" s="83"/>
       <c r="C237" s="83"/>
       <c r="D237" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E237" s="55" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F237" s="83"/>
       <c r="G237" s="83"/>
@@ -6800,10 +6827,10 @@
       <c r="B238" s="84"/>
       <c r="C238" s="84"/>
       <c r="D238" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E238" s="55" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F238" s="84"/>
       <c r="G238" s="84"/>
@@ -6815,16 +6842,16 @@
         <v>5</v>
       </c>
       <c r="C239" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D239" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E239" s="55" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F239" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G239" s="82">
         <f>B239-0.009</f>
@@ -6840,10 +6867,10 @@
       <c r="B240" s="83"/>
       <c r="C240" s="83"/>
       <c r="D240" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E240" s="55" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F240" s="83"/>
       <c r="G240" s="83"/>
@@ -6854,10 +6881,10 @@
       <c r="B241" s="84"/>
       <c r="C241" s="84"/>
       <c r="D241" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E241" s="55" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F241" s="84"/>
       <c r="G241" s="84"/>
@@ -6869,16 +6896,16 @@
         <v>7</v>
       </c>
       <c r="C242" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D242" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E242" s="55" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F242" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G242" s="82">
         <f>B242-0.011</f>
@@ -6894,10 +6921,10 @@
       <c r="B243" s="83"/>
       <c r="C243" s="83"/>
       <c r="D243" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E243" s="55" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F243" s="83"/>
       <c r="G243" s="83"/>
@@ -6908,10 +6935,10 @@
       <c r="B244" s="84"/>
       <c r="C244" s="84"/>
       <c r="D244" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E244" s="55" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F244" s="84"/>
       <c r="G244" s="84"/>
@@ -6923,16 +6950,16 @@
         <v>10</v>
       </c>
       <c r="C245" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D245" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E245" s="55" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F245" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G245" s="82">
         <f>B245-0.014</f>
@@ -6948,10 +6975,10 @@
       <c r="B246" s="83"/>
       <c r="C246" s="83"/>
       <c r="D246" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E246" s="55" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F246" s="83"/>
       <c r="G246" s="83"/>
@@ -6962,10 +6989,10 @@
       <c r="B247" s="84"/>
       <c r="C247" s="84"/>
       <c r="D247" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E247" s="55" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F247" s="84"/>
       <c r="G247" s="84"/>
@@ -6973,22 +7000,22 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B248" s="82">
         <v>10</v>
       </c>
       <c r="C248" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D248" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E248" s="55" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F248" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G248" s="82">
         <f>B248-0.05</f>
@@ -7004,10 +7031,10 @@
       <c r="B249" s="83"/>
       <c r="C249" s="83"/>
       <c r="D249" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E249" s="55" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F249" s="83"/>
       <c r="G249" s="83"/>
@@ -7018,10 +7045,10 @@
       <c r="B250" s="84"/>
       <c r="C250" s="84"/>
       <c r="D250" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E250" s="55" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F250" s="84"/>
       <c r="G250" s="84"/>
@@ -7033,16 +7060,16 @@
         <v>30</v>
       </c>
       <c r="C251" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D251" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E251" s="55" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F251" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G251" s="82">
         <f>B251-0.07</f>
@@ -7058,10 +7085,10 @@
       <c r="B252" s="83"/>
       <c r="C252" s="83"/>
       <c r="D252" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E252" s="55" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F252" s="83"/>
       <c r="G252" s="83"/>
@@ -7072,10 +7099,10 @@
       <c r="B253" s="84"/>
       <c r="C253" s="84"/>
       <c r="D253" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E253" s="55" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F253" s="84"/>
       <c r="G253" s="84"/>
@@ -7087,16 +7114,16 @@
         <v>50</v>
       </c>
       <c r="C254" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D254" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E254" s="55" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F254" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G254" s="82">
         <f>B254-0.09</f>
@@ -7112,10 +7139,10 @@
       <c r="B255" s="83"/>
       <c r="C255" s="83"/>
       <c r="D255" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E255" s="55" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F255" s="83"/>
       <c r="G255" s="83"/>
@@ -7126,10 +7153,10 @@
       <c r="B256" s="84"/>
       <c r="C256" s="84"/>
       <c r="D256" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E256" s="55" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F256" s="84"/>
       <c r="G256" s="84"/>
@@ -7141,16 +7168,16 @@
         <v>70</v>
       </c>
       <c r="C257" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D257" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E257" s="55" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F257" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G257" s="82">
         <f>B257-0.11</f>
@@ -7166,10 +7193,10 @@
       <c r="B258" s="83"/>
       <c r="C258" s="83"/>
       <c r="D258" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E258" s="55" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F258" s="83"/>
       <c r="G258" s="83"/>
@@ -7180,10 +7207,10 @@
       <c r="B259" s="84"/>
       <c r="C259" s="84"/>
       <c r="D259" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E259" s="55" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F259" s="84"/>
       <c r="G259" s="84"/>
@@ -7195,16 +7222,16 @@
         <v>100</v>
       </c>
       <c r="C260" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D260" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E260" s="55" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F260" s="82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G260" s="82">
         <f>B260-0.14</f>
@@ -7220,10 +7247,10 @@
       <c r="B261" s="83"/>
       <c r="C261" s="83"/>
       <c r="D261" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E261" s="55" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F261" s="83"/>
       <c r="G261" s="83"/>
@@ -7234,10 +7261,10 @@
       <c r="B262" s="84"/>
       <c r="C262" s="84"/>
       <c r="D262" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E262" s="55" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F262" s="84"/>
       <c r="G262" s="84"/>
@@ -7245,22 +7272,22 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="79" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B263" s="82">
         <v>0.1</v>
       </c>
       <c r="C263" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D263" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E263" s="55" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F263" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G263" s="82">
         <f>B263-0.0005</f>
@@ -7276,10 +7303,10 @@
       <c r="B264" s="83"/>
       <c r="C264" s="83"/>
       <c r="D264" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E264" s="55" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F264" s="83"/>
       <c r="G264" s="83"/>
@@ -7290,10 +7317,10 @@
       <c r="B265" s="84"/>
       <c r="C265" s="84"/>
       <c r="D265" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E265" s="55" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F265" s="84"/>
       <c r="G265" s="84"/>
@@ -7305,16 +7332,16 @@
         <v>0.3</v>
       </c>
       <c r="C266" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D266" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E266" s="55" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F266" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G266" s="82">
         <f>B266-0.0007</f>
@@ -7330,10 +7357,10 @@
       <c r="B267" s="83"/>
       <c r="C267" s="83"/>
       <c r="D267" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E267" s="55" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F267" s="83"/>
       <c r="G267" s="83"/>
@@ -7344,10 +7371,10 @@
       <c r="B268" s="84"/>
       <c r="C268" s="84"/>
       <c r="D268" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E268" s="55" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F268" s="84"/>
       <c r="G268" s="84"/>
@@ -7359,16 +7386,16 @@
         <v>0.5</v>
       </c>
       <c r="C269" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D269" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E269" s="55" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F269" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G269" s="82">
         <f>B269-0.0009</f>
@@ -7384,10 +7411,10 @@
       <c r="B270" s="83"/>
       <c r="C270" s="83"/>
       <c r="D270" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E270" s="55" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F270" s="83"/>
       <c r="G270" s="83"/>
@@ -7398,10 +7425,10 @@
       <c r="B271" s="84"/>
       <c r="C271" s="84"/>
       <c r="D271" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E271" s="55" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F271" s="84"/>
       <c r="G271" s="84"/>
@@ -7413,16 +7440,16 @@
         <v>0.7</v>
       </c>
       <c r="C272" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D272" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E272" s="55" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F272" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G272" s="82">
         <f>B272-0.0011</f>
@@ -7438,10 +7465,10 @@
       <c r="B273" s="83"/>
       <c r="C273" s="83"/>
       <c r="D273" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E273" s="55" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F273" s="83"/>
       <c r="G273" s="83"/>
@@ -7452,10 +7479,10 @@
       <c r="B274" s="84"/>
       <c r="C274" s="84"/>
       <c r="D274" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E274" s="55" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F274" s="84"/>
       <c r="G274" s="84"/>
@@ -7467,16 +7494,16 @@
         <v>1</v>
       </c>
       <c r="C275" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D275" s="69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E275" s="55" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F275" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G275" s="82">
         <f>B275-0.0014</f>
@@ -7492,10 +7519,10 @@
       <c r="B276" s="83"/>
       <c r="C276" s="83"/>
       <c r="D276" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E276" s="55" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F276" s="83"/>
       <c r="G276" s="83"/>
@@ -7506,10 +7533,10 @@
       <c r="B277" s="84"/>
       <c r="C277" s="84"/>
       <c r="D277" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E277" s="55" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F277" s="84"/>
       <c r="G277" s="84"/>
@@ -7517,22 +7544,22 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="79" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B278" s="82">
         <v>0.3</v>
       </c>
       <c r="C278" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D278" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E278" s="55" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F278" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G278" s="82">
         <f>B278-0.00189</f>
@@ -7548,10 +7575,10 @@
       <c r="B279" s="84"/>
       <c r="C279" s="84"/>
       <c r="D279" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E279" s="55" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F279" s="84"/>
       <c r="G279" s="84"/>
@@ -7563,16 +7590,16 @@
         <v>0.9</v>
       </c>
       <c r="C280" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D280" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E280" s="55" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F280" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G280" s="82">
         <f>B280-0.00327</f>
@@ -7588,10 +7615,10 @@
       <c r="B281" s="84"/>
       <c r="C281" s="84"/>
       <c r="D281" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E281" s="55" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F281" s="84"/>
       <c r="G281" s="84"/>
@@ -7603,16 +7630,16 @@
         <v>1.5</v>
       </c>
       <c r="C282" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D282" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E282" s="55" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F282" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G282" s="82">
         <f>B282-0.00465</f>
@@ -7628,10 +7655,10 @@
       <c r="B283" s="84"/>
       <c r="C283" s="84"/>
       <c r="D283" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E283" s="55" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F283" s="84"/>
       <c r="G283" s="84"/>
@@ -7643,16 +7670,16 @@
         <v>2.1</v>
       </c>
       <c r="C284" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D284" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E284" s="55" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F284" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G284" s="82">
         <f>B284-0.00603</f>
@@ -7668,10 +7695,10 @@
       <c r="B285" s="84"/>
       <c r="C285" s="84"/>
       <c r="D285" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E285" s="55" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F285" s="84"/>
       <c r="G285" s="84"/>
@@ -7683,16 +7710,16 @@
         <v>3</v>
       </c>
       <c r="C286" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D286" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E286" s="55" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F286" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G286" s="82">
         <f>B286-0.00801</f>
@@ -7708,10 +7735,10 @@
       <c r="B287" s="84"/>
       <c r="C287" s="84"/>
       <c r="D287" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E287" s="55" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F287" s="84"/>
       <c r="G287" s="84"/>
@@ -7719,22 +7746,22 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="79" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B288" s="82">
         <v>1</v>
       </c>
       <c r="C288" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D288" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E288" s="55" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F288" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G288" s="82">
         <f>B288-0.005</f>
@@ -7750,10 +7777,10 @@
       <c r="B289" s="84"/>
       <c r="C289" s="84"/>
       <c r="D289" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E289" s="55" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F289" s="84"/>
       <c r="G289" s="84"/>
@@ -7765,16 +7792,16 @@
         <v>3</v>
       </c>
       <c r="C290" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D290" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E290" s="55" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F290" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G290" s="82">
         <f>B290-0.007</f>
@@ -7790,10 +7817,10 @@
       <c r="B291" s="84"/>
       <c r="C291" s="84"/>
       <c r="D291" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E291" s="55" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F291" s="84"/>
       <c r="G291" s="84"/>
@@ -7805,16 +7832,16 @@
         <v>5</v>
       </c>
       <c r="C292" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D292" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E292" s="55" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F292" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G292" s="82">
         <f>B292-0.009</f>
@@ -7830,10 +7857,10 @@
       <c r="B293" s="84"/>
       <c r="C293" s="84"/>
       <c r="D293" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E293" s="55" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F293" s="84"/>
       <c r="G293" s="84"/>
@@ -7845,16 +7872,16 @@
         <v>7</v>
       </c>
       <c r="C294" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D294" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E294" s="55" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F294" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G294" s="82">
         <f>B294-0.015</f>
@@ -7870,10 +7897,10 @@
       <c r="B295" s="84"/>
       <c r="C295" s="84"/>
       <c r="D295" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E295" s="55" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F295" s="84"/>
       <c r="G295" s="84"/>
@@ -7885,16 +7912,16 @@
         <v>10</v>
       </c>
       <c r="C296" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D296" s="69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E296" s="55" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F296" s="82" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G296" s="82">
         <f>B296-0.024</f>
@@ -7910,10 +7937,10 @@
       <c r="B297" s="84"/>
       <c r="C297" s="84"/>
       <c r="D297" s="69" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E297" s="55" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F297" s="84"/>
       <c r="G297" s="84"/>
@@ -7929,7 +7956,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20"/>
@@ -7939,21 +7966,21 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="91" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B300" s="98" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C300" s="91" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D300" s="91"/>
       <c r="E300" s="91" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F300" s="91"/>
       <c r="G300" s="89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H300" s="90"/>
     </row>
@@ -7965,10 +7992,10 @@
       <c r="E301" s="91"/>
       <c r="F301" s="91"/>
       <c r="G301" s="59" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H301" s="59" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -7982,13 +8009,13 @@
         <v>5</v>
       </c>
       <c r="D302" s="82" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E302" s="56" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F302" s="82" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G302" s="69">
         <f>C302-0.0035</f>
@@ -8007,7 +8034,7 @@
       </c>
       <c r="D303" s="83"/>
       <c r="E303" s="56" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F303" s="83"/>
       <c r="G303" s="69">
@@ -8027,7 +8054,7 @@
       </c>
       <c r="D304" s="84"/>
       <c r="E304" s="56" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F304" s="84"/>
       <c r="G304" s="69">
@@ -8046,13 +8073,13 @@
         <v>100</v>
       </c>
       <c r="D305" s="69" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E305" s="56" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F305" s="69" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G305" s="69">
         <f>C305-0.007</f>
@@ -8074,13 +8101,13 @@
         <v>5</v>
       </c>
       <c r="D306" s="82" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E306" s="56" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F306" s="82" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G306" s="69">
         <f>C306-0.0035</f>
@@ -8099,7 +8126,7 @@
       </c>
       <c r="D307" s="83"/>
       <c r="E307" s="56" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F307" s="83"/>
       <c r="G307" s="69">
@@ -8119,7 +8146,7 @@
       </c>
       <c r="D308" s="84"/>
       <c r="E308" s="56" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F308" s="84"/>
       <c r="G308" s="69">
@@ -8138,13 +8165,13 @@
         <v>100</v>
       </c>
       <c r="D309" s="69" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E309" s="56" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F309" s="69" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G309" s="69">
         <f>C309-0.007</f>
@@ -8165,7 +8192,7 @@
     </row>
     <row r="311" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B311" s="28"/>
       <c r="C311" s="28"/>
@@ -8178,7 +8205,7 @@
     </row>
     <row r="312" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
@@ -8191,18 +8218,18 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="91" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B313" s="85" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C313" s="86"/>
       <c r="D313" s="85" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E313" s="86"/>
       <c r="F313" s="89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G313" s="90"/>
     </row>
@@ -8213,27 +8240,27 @@
       <c r="D314" s="87"/>
       <c r="E314" s="88"/>
       <c r="F314" s="58" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G314" s="58" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="61" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B315" s="61">
         <v>100</v>
       </c>
       <c r="C315" s="60" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D315" s="57" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E315" s="60" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F315" s="15">
         <f>B315-0.01</f>
@@ -8246,19 +8273,19 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="61" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B316" s="61">
         <v>1</v>
       </c>
       <c r="C316" s="79" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D316" s="57" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E316" s="79" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F316" s="64">
         <f>B316-0.000045</f>
@@ -8271,14 +8298,14 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="61" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B317" s="61">
         <v>10</v>
       </c>
       <c r="C317" s="80"/>
       <c r="D317" s="57" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E317" s="80"/>
       <c r="F317" s="65">
@@ -8292,14 +8319,14 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="32" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B318" s="32">
         <v>100</v>
       </c>
       <c r="C318" s="81"/>
       <c r="D318" s="57" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E318" s="81"/>
       <c r="F318" s="16">
@@ -8321,7 +8348,7 @@
     </row>
     <row r="320" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="38" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
@@ -8334,18 +8361,18 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="91" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B321" s="85" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C321" s="86"/>
       <c r="D321" s="85" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E321" s="86"/>
       <c r="F321" s="89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G321" s="90"/>
     </row>
@@ -8356,27 +8383,27 @@
       <c r="D322" s="87"/>
       <c r="E322" s="88"/>
       <c r="F322" s="58" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G322" s="58" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="61" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B323" s="61">
         <v>1</v>
       </c>
       <c r="C323" s="95" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D323" s="57" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E323" s="95" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F323" s="64">
         <f>B323-0.000075</f>
@@ -8389,14 +8416,14 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="61" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B324" s="61">
         <v>10</v>
       </c>
       <c r="C324" s="95"/>
       <c r="D324" s="57" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E324" s="95"/>
       <c r="F324" s="16">
@@ -8410,14 +8437,14 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="61" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B325" s="61">
         <v>100</v>
       </c>
       <c r="C325" s="95"/>
       <c r="D325" s="57" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E325" s="95"/>
       <c r="F325" s="19">
@@ -8431,19 +8458,19 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="61" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B326" s="61">
         <v>1</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D326" s="57" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F326" s="65">
         <f>B326-0.00301</f>
@@ -8467,23 +8494,23 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="96" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B329" s="96" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C329" s="96"/>
       <c r="D329" s="96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E329" s="96"/>
       <c r="F329" s="89" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G329" s="90"/>
     </row>
@@ -8494,27 +8521,27 @@
       <c r="D330" s="96"/>
       <c r="E330" s="96"/>
       <c r="F330" s="58" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G330" s="58" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="61" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B331" s="61">
         <v>1</v>
       </c>
       <c r="C331" s="92" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D331" s="57" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E331" s="92" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F331" s="15">
         <f>B331-0.01</f>
@@ -8527,14 +8554,14 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="61" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B332" s="61">
         <v>10</v>
       </c>
       <c r="C332" s="93"/>
       <c r="D332" s="57" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E332" s="93"/>
       <c r="F332" s="15">
@@ -8548,14 +8575,14 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="61" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B333" s="61">
         <v>100</v>
       </c>
       <c r="C333" s="94"/>
       <c r="D333" s="57" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E333" s="94"/>
       <c r="F333" s="19">
@@ -8569,19 +8596,19 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="61" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B334" s="61">
         <v>1</v>
       </c>
       <c r="C334" s="66" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D334" s="57" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E334" s="66" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F334" s="18">
         <f>B334-0.005</f>
@@ -8599,47 +8626,63 @@
       <c r="D335" s="70"/>
       <c r="E335" s="25"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" s="127" t="s">
+        <v>387</v>
+      </c>
+      <c r="B336" s="127"/>
+      <c r="C336" s="128" t="s">
+        <v>388</v>
+      </c>
+      <c r="D336" s="14"/>
+      <c r="E336" s="14"/>
+      <c r="F336" s="25"/>
+      <c r="I336" s="2"/>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" s="127" t="s">
+        <v>330</v>
+      </c>
+      <c r="B337" s="127"/>
+      <c r="C337" s="41"/>
+      <c r="D337" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E337" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="F337" s="125"/>
+      <c r="G337" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H337" s="43"/>
+      <c r="I337" s="2"/>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="127" t="s">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="B338" s="127"/>
-      <c r="C338" s="41"/>
-      <c r="D338" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E338" s="124" t="s">
-        <v>42</v>
-      </c>
-      <c r="F338" s="125"/>
-      <c r="G338" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H338" s="43"/>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="127" t="s">
-        <v>12</v>
-      </c>
-      <c r="B340" s="127"/>
-      <c r="C340" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="D340" s="126"/>
+      <c r="C338" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="D338" s="126"/>
+      <c r="I338" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="359">
+  <mergeCells count="360">
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="E337:F337"/>
     <mergeCell ref="A215:A217"/>
     <mergeCell ref="B215:B217"/>
     <mergeCell ref="C215:C217"/>
     <mergeCell ref="F215:F217"/>
-    <mergeCell ref="E338:F338"/>
-    <mergeCell ref="C340:D340"/>
+    <mergeCell ref="C338:D338"/>
     <mergeCell ref="A201:A205"/>
     <mergeCell ref="A206:A210"/>
     <mergeCell ref="A213:A214"/>
-    <mergeCell ref="A340:B340"/>
     <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A336:B336"/>
     <mergeCell ref="C230:C232"/>
     <mergeCell ref="F230:F232"/>
     <mergeCell ref="C245:C247"/>
@@ -8989,7 +9032,7 @@
     <mergeCell ref="G296:G297"/>
     <mergeCell ref="G286:G287"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.67708333333333337" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Times New Roman,обычный"&amp;P страница из &amp;N</oddFooter>

--- a/Shablon/34470A.xlsx
+++ b/Shablon/34470A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="388">
   <si>
     <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
   </si>
@@ -1082,9 +1082,6 @@
     <t>_customer</t>
   </si>
   <si>
-    <t>Протокол поверки №</t>
-  </si>
-  <si>
     <t>Предел измерений</t>
   </si>
   <si>
@@ -1262,7 +1259,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1378,6 +1375,11 @@
       <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1558,9 +1560,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1783,6 +1786,16 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1801,139 +1814,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2238,7 +2242,7 @@
   <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E346" sqref="E346"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,68 +2255,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="95" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="109" t="s">
         <v>385</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2327,16 +2331,17 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="108" t="s">
-        <v>333</v>
-      </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
+      <c r="A7" s="128" t="str">
+        <f>"Протокол поверки № 10/"&amp;C338&amp;"/"&amp;D10</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2351,11 +2356,11 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="48" t="s">
         <v>48</v>
       </c>
@@ -2368,11 +2373,11 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="52" t="s">
         <v>41</v>
       </c>
@@ -2383,11 +2388,11 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="48"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -2396,11 +2401,11 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="53"/>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -2408,11 +2413,11 @@
       <c r="H12" s="51"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
       <c r="D13" s="52" t="s">
         <v>332</v>
       </c>
@@ -2423,11 +2428,11 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="54" t="s">
         <v>56</v>
       </c>
@@ -2438,11 +2443,11 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="48" t="s">
         <v>55</v>
       </c>
@@ -2461,95 +2466,95 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="111" t="s">
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111" t="s">
+      <c r="E18" s="96"/>
+      <c r="F18" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="111"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="112" t="s">
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="115" t="s">
+      <c r="E19" s="97"/>
+      <c r="F19" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="117"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="112" t="s">
+      <c r="B20" s="106"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="115" t="s">
+      <c r="E20" s="97"/>
+      <c r="F20" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="117"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="113" t="s">
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115" t="s">
+      <c r="E21" s="99"/>
+      <c r="F21" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="117"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="115" t="s">
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="117"/>
+      <c r="G22" s="102"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="118" t="s">
+      <c r="A23" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="115" t="s">
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="117"/>
+      <c r="G23" s="102"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2621,52 +2626,52 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="B31" s="112" t="s">
         <v>334</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="C31" s="113"/>
+      <c r="D31" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="85" t="s">
+      <c r="E31" s="113"/>
+      <c r="F31" s="116" t="s">
         <v>336</v>
       </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="89" t="s">
+      <c r="G31" s="117"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="93"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="G31" s="90"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="58" t="s">
+      <c r="G32" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="G32" s="58" t="s">
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="93" t="s">
         <v>339</v>
-      </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="91" t="s">
-        <v>340</v>
       </c>
       <c r="B33" s="63">
         <v>10</v>
       </c>
-      <c r="C33" s="101" t="s">
-        <v>341</v>
+      <c r="C33" s="118" t="s">
+        <v>340</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="101" t="s">
-        <v>341</v>
+      <c r="E33" s="118" t="s">
+        <v>340</v>
       </c>
       <c r="F33" s="75">
         <f>B33-0.0039</f>
@@ -2679,15 +2684,15 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
+      <c r="A34" s="93"/>
       <c r="B34" s="63">
         <v>30</v>
       </c>
-      <c r="C34" s="102"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="102"/>
+      <c r="E34" s="119"/>
       <c r="F34" s="75">
         <f>B34-0.0047</f>
         <v>29.9953</v>
@@ -2699,15 +2704,15 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="63">
         <v>50</v>
       </c>
-      <c r="C35" s="102"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="102"/>
+      <c r="E35" s="119"/>
       <c r="F35" s="18">
         <f>B35-0.0055</f>
         <v>49.994500000000002</v>
@@ -2719,15 +2724,15 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="91"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="63">
         <v>70</v>
       </c>
-      <c r="C36" s="102"/>
+      <c r="C36" s="119"/>
       <c r="D36" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="102"/>
+      <c r="E36" s="119"/>
       <c r="F36" s="75">
         <f>B36-0.0063</f>
         <v>69.993700000000004</v>
@@ -2739,15 +2744,15 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="63">
         <v>100</v>
       </c>
-      <c r="C37" s="103"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="103"/>
+      <c r="E37" s="120"/>
       <c r="F37" s="75">
         <f>B37-0.0075</f>
         <v>99.992500000000007</v>
@@ -2759,20 +2764,20 @@
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="91" t="s">
-        <v>342</v>
+      <c r="A38" s="93" t="s">
+        <v>341</v>
       </c>
       <c r="B38" s="19">
         <v>0.1</v>
       </c>
-      <c r="C38" s="101" t="s">
-        <v>343</v>
+      <c r="C38" s="118" t="s">
+        <v>342</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="101" t="s">
-        <v>343</v>
+      <c r="E38" s="118" t="s">
+        <v>342</v>
       </c>
       <c r="F38" s="64">
         <f>B38-0.000006</f>
@@ -2785,15 +2790,15 @@
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="19">
         <v>0.3</v>
       </c>
-      <c r="C39" s="102"/>
+      <c r="C39" s="119"/>
       <c r="D39" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="102"/>
+      <c r="E39" s="119"/>
       <c r="F39" s="65">
         <f>B39-0.00001</f>
         <v>0.29998999999999998</v>
@@ -2805,15 +2810,15 @@
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="19">
         <v>0.5</v>
       </c>
-      <c r="C40" s="102"/>
+      <c r="C40" s="119"/>
       <c r="D40" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="102"/>
+      <c r="E40" s="119"/>
       <c r="F40" s="64">
         <f>B40-0.000014</f>
         <v>0.49998599999999999</v>
@@ -2825,15 +2830,15 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
+      <c r="A41" s="93"/>
       <c r="B41" s="19">
         <v>0.7</v>
       </c>
-      <c r="C41" s="102"/>
+      <c r="C41" s="119"/>
       <c r="D41" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="102"/>
+      <c r="E41" s="119"/>
       <c r="F41" s="64">
         <f>B41-0.000018</f>
         <v>0.69998199999999999</v>
@@ -2845,15 +2850,15 @@
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
+      <c r="A42" s="93"/>
       <c r="B42" s="63">
         <v>1</v>
       </c>
-      <c r="C42" s="103"/>
+      <c r="C42" s="120"/>
       <c r="D42" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="103"/>
+      <c r="E42" s="120"/>
       <c r="F42" s="64">
         <f>B42-0.000024</f>
         <v>0.99997599999999998</v>
@@ -2865,20 +2870,20 @@
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="91" t="s">
-        <v>344</v>
+      <c r="A43" s="93" t="s">
+        <v>343</v>
       </c>
       <c r="B43" s="63">
         <v>1</v>
       </c>
-      <c r="C43" s="101" t="s">
-        <v>343</v>
+      <c r="C43" s="118" t="s">
+        <v>342</v>
       </c>
       <c r="D43" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E43" s="101" t="s">
-        <v>343</v>
+      <c r="E43" s="118" t="s">
+        <v>342</v>
       </c>
       <c r="F43" s="65">
         <f>B43-0.000036</f>
@@ -2891,15 +2896,15 @@
       <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="63">
         <v>3</v>
       </c>
-      <c r="C44" s="102"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="102"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="65">
         <f>B44-0.000068</f>
         <v>2.9999319999999998</v>
@@ -2911,15 +2916,15 @@
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="63">
         <v>5</v>
       </c>
-      <c r="C45" s="102"/>
+      <c r="C45" s="119"/>
       <c r="D45" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="102"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="16">
         <f>B45-0.0001</f>
         <v>4.9999000000000002</v>
@@ -2931,15 +2936,15 @@
       <c r="I45" s="17"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="91"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="63">
         <v>7</v>
       </c>
-      <c r="C46" s="102"/>
+      <c r="C46" s="119"/>
       <c r="D46" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="102"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="65">
         <f>B46-0.000132</f>
         <v>6.9998680000000002</v>
@@ -2951,15 +2956,15 @@
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="63">
         <v>10</v>
       </c>
-      <c r="C47" s="103"/>
+      <c r="C47" s="120"/>
       <c r="D47" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="103"/>
+      <c r="E47" s="120"/>
       <c r="F47" s="65">
         <f>B47-0.00018</f>
         <v>9.9998199999999997</v>
@@ -2971,20 +2976,20 @@
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="91" t="s">
-        <v>345</v>
+      <c r="A48" s="93" t="s">
+        <v>344</v>
       </c>
       <c r="B48" s="63">
         <v>10</v>
       </c>
-      <c r="C48" s="101" t="s">
-        <v>343</v>
+      <c r="C48" s="118" t="s">
+        <v>342</v>
       </c>
       <c r="D48" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="101" t="s">
-        <v>343</v>
+      <c r="E48" s="118" t="s">
+        <v>342</v>
       </c>
       <c r="F48" s="18">
         <f>B48-0.00098</f>
@@ -2997,15 +3002,15 @@
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="63">
         <v>30</v>
       </c>
-      <c r="C49" s="102"/>
+      <c r="C49" s="119"/>
       <c r="D49" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="102"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="16">
         <f>B49-0.00174</f>
         <v>29.998259999999998</v>
@@ -3017,15 +3022,15 @@
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="63">
         <v>50</v>
       </c>
-      <c r="C50" s="102"/>
+      <c r="C50" s="119"/>
       <c r="D50" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="102"/>
+      <c r="E50" s="119"/>
       <c r="F50" s="16">
         <f>B50-0.0025</f>
         <v>49.997500000000002</v>
@@ -3037,15 +3042,15 @@
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="63">
         <v>70</v>
       </c>
-      <c r="C51" s="102"/>
+      <c r="C51" s="119"/>
       <c r="D51" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="102"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="16">
         <f>B51-0.00326</f>
         <v>69.996740000000003</v>
@@ -3057,15 +3062,15 @@
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="63">
         <v>100</v>
       </c>
-      <c r="C52" s="103"/>
+      <c r="C52" s="120"/>
       <c r="D52" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="103"/>
+      <c r="E52" s="120"/>
       <c r="F52" s="16">
         <f>B52-0.0044</f>
         <v>99.995599999999996</v>
@@ -3077,20 +3082,20 @@
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="107" t="s">
-        <v>346</v>
+      <c r="A53" s="110" t="s">
+        <v>345</v>
       </c>
       <c r="B53" s="63">
         <v>100</v>
       </c>
-      <c r="C53" s="101" t="s">
-        <v>343</v>
+      <c r="C53" s="118" t="s">
+        <v>342</v>
       </c>
       <c r="D53" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="101" t="s">
-        <v>343</v>
+      <c r="E53" s="118" t="s">
+        <v>342</v>
       </c>
       <c r="F53" s="15">
         <f>B53-0.0098</f>
@@ -3103,15 +3108,15 @@
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="107"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="63">
         <v>300</v>
       </c>
-      <c r="C54" s="102"/>
+      <c r="C54" s="119"/>
       <c r="D54" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="102"/>
+      <c r="E54" s="119"/>
       <c r="F54" s="18">
         <f>B54-0.0174</f>
         <v>299.98259999999999</v>
@@ -3123,15 +3128,15 @@
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="107"/>
+      <c r="A55" s="110"/>
       <c r="B55" s="63">
         <v>500</v>
       </c>
-      <c r="C55" s="102"/>
+      <c r="C55" s="119"/>
       <c r="D55" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E55" s="102"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="18">
         <f>B55-0.025</f>
         <v>499.97500000000002</v>
@@ -3143,15 +3148,15 @@
       <c r="I55" s="17"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="107"/>
+      <c r="A56" s="110"/>
       <c r="B56" s="63">
         <v>700</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="119"/>
       <c r="D56" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E56" s="102"/>
+      <c r="E56" s="119"/>
       <c r="F56" s="18">
         <f>B56-0.0366</f>
         <v>699.96339999999998</v>
@@ -3163,15 +3168,15 @@
       <c r="I56" s="17"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="107"/>
+      <c r="A57" s="110"/>
       <c r="B57" s="63">
         <v>1000</v>
       </c>
-      <c r="C57" s="103"/>
+      <c r="C57" s="120"/>
       <c r="D57" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="103"/>
+      <c r="E57" s="120"/>
       <c r="F57" s="18">
         <f>B57-0.054</f>
         <v>999.94600000000003</v>
@@ -3195,48 +3200,48 @@
       <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="104" t="s">
+      <c r="A60" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="B60" s="91" t="s">
+      <c r="C60" s="93"/>
+      <c r="D60" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="91" t="s">
+      <c r="F60" s="93"/>
+      <c r="G60" s="116" t="s">
         <v>336</v>
       </c>
-      <c r="F60" s="91"/>
-      <c r="G60" s="89" t="s">
+      <c r="H60" s="117"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="92"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="62" t="s">
         <v>337</v>
       </c>
-      <c r="H60" s="90"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="105"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="62" t="s">
+      <c r="H61" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="H61" s="62" t="s">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="83" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="79" t="s">
+      <c r="B62" s="83">
+        <v>10</v>
+      </c>
+      <c r="C62" s="86" t="s">
         <v>340</v>
-      </c>
-      <c r="B62" s="79">
-        <v>10</v>
-      </c>
-      <c r="C62" s="82" t="s">
-        <v>341</v>
       </c>
       <c r="D62" s="69" t="s">
         <v>18</v>
@@ -3244,8 +3249,8 @@
       <c r="E62" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="F62" s="82" t="s">
-        <v>341</v>
+      <c r="F62" s="86" t="s">
+        <v>340</v>
       </c>
       <c r="G62" s="69">
         <f>$B$62-0.025</f>
@@ -3257,16 +3262,16 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="80"/>
-      <c r="B63" s="80"/>
-      <c r="C63" s="83"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="87"/>
       <c r="D63" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E63" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="83"/>
+      <c r="F63" s="87"/>
       <c r="G63" s="69">
         <f>$B$62-0.025</f>
         <v>9.9749999999999996</v>
@@ -3277,16 +3282,16 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="80"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="83"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="87"/>
       <c r="D64" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="83"/>
+      <c r="F64" s="87"/>
       <c r="G64" s="69">
         <f>$B$62-0.037</f>
         <v>9.9629999999999992</v>
@@ -3297,16 +3302,16 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="80"/>
-      <c r="B65" s="80"/>
-      <c r="C65" s="83"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="87"/>
       <c r="D65" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="83"/>
+      <c r="F65" s="87"/>
       <c r="G65" s="69">
         <f>$B$62-0.065</f>
         <v>9.9350000000000005</v>
@@ -3317,16 +3322,16 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="80"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="84"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="88"/>
       <c r="D66" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F66" s="84"/>
+      <c r="F66" s="88"/>
       <c r="G66" s="69">
         <f>$B$62-0.2</f>
         <v>9.8000000000000007</v>
@@ -3337,12 +3342,12 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="80"/>
-      <c r="B67" s="79">
+      <c r="A67" s="84"/>
+      <c r="B67" s="83">
         <v>30</v>
       </c>
-      <c r="C67" s="82" t="s">
-        <v>341</v>
+      <c r="C67" s="86" t="s">
+        <v>340</v>
       </c>
       <c r="D67" s="69" t="s">
         <v>18</v>
@@ -3350,8 +3355,8 @@
       <c r="E67" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="F67" s="82" t="s">
-        <v>341</v>
+      <c r="F67" s="86" t="s">
+        <v>340</v>
       </c>
       <c r="G67" s="69">
         <f>$B$67-0.035</f>
@@ -3363,16 +3368,16 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="80"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="83"/>
+      <c r="A68" s="84"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="87"/>
       <c r="D68" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E68" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="83"/>
+      <c r="F68" s="87"/>
       <c r="G68" s="69">
         <f>$B$67-0.035</f>
         <v>29.965</v>
@@ -3383,16 +3388,16 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="80"/>
-      <c r="B69" s="80"/>
-      <c r="C69" s="83"/>
+      <c r="A69" s="84"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="87"/>
       <c r="D69" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="F69" s="83"/>
+      <c r="F69" s="87"/>
       <c r="G69" s="69">
         <f>$B$67-0.051</f>
         <v>29.949000000000002</v>
@@ -3403,16 +3408,16 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="80"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="83"/>
+      <c r="A70" s="84"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="87"/>
       <c r="D70" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E70" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="83"/>
+      <c r="F70" s="87"/>
       <c r="G70" s="69">
         <f>$B$67-0.095</f>
         <v>29.905000000000001</v>
@@ -3423,16 +3428,16 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="80"/>
-      <c r="B71" s="81"/>
-      <c r="C71" s="84"/>
+      <c r="A71" s="84"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="88"/>
       <c r="D71" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E71" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="84"/>
+      <c r="F71" s="88"/>
       <c r="G71" s="69">
         <f>$B$67-0.4</f>
         <v>29.6</v>
@@ -3443,12 +3448,12 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="80"/>
-      <c r="B72" s="79">
+      <c r="A72" s="84"/>
+      <c r="B72" s="83">
         <v>50</v>
       </c>
-      <c r="C72" s="82" t="s">
-        <v>341</v>
+      <c r="C72" s="86" t="s">
+        <v>340</v>
       </c>
       <c r="D72" s="69" t="s">
         <v>18</v>
@@ -3456,8 +3461,8 @@
       <c r="E72" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="F72" s="82" t="s">
-        <v>341</v>
+      <c r="F72" s="86" t="s">
+        <v>340</v>
       </c>
       <c r="G72" s="69">
         <f>$B$72-0.045</f>
@@ -3469,16 +3474,16 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="80"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="83"/>
+      <c r="A73" s="84"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="87"/>
       <c r="D73" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E73" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F73" s="83"/>
+      <c r="F73" s="87"/>
       <c r="G73" s="69">
         <f>$B$72-0.045</f>
         <v>49.954999999999998</v>
@@ -3489,16 +3494,16 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="80"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="83"/>
+      <c r="A74" s="84"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="87"/>
       <c r="D74" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="F74" s="83"/>
+      <c r="F74" s="87"/>
       <c r="G74" s="69">
         <f>$B$72-0.065</f>
         <v>49.935000000000002</v>
@@ -3509,16 +3514,16 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="80"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="83"/>
+      <c r="A75" s="84"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="87"/>
       <c r="D75" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E75" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="F75" s="83"/>
+      <c r="F75" s="87"/>
       <c r="G75" s="69">
         <f>$B$72-0.125</f>
         <v>49.875</v>
@@ -3529,16 +3534,16 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="80"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="84"/>
+      <c r="A76" s="84"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="88"/>
       <c r="D76" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E76" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="F76" s="84"/>
+      <c r="F76" s="88"/>
       <c r="G76" s="69">
         <f>$B$72-0.6</f>
         <v>49.4</v>
@@ -3549,12 +3554,12 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="80"/>
-      <c r="B77" s="100">
+      <c r="A77" s="84"/>
+      <c r="B77" s="90">
         <v>70</v>
       </c>
-      <c r="C77" s="99" t="s">
-        <v>341</v>
+      <c r="C77" s="94" t="s">
+        <v>340</v>
       </c>
       <c r="D77" s="69" t="s">
         <v>18</v>
@@ -3562,8 +3567,8 @@
       <c r="E77" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="F77" s="99" t="s">
-        <v>341</v>
+      <c r="F77" s="94" t="s">
+        <v>340</v>
       </c>
       <c r="G77" s="69">
         <f>$B$77-0.055</f>
@@ -3575,16 +3580,16 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="80"/>
-      <c r="B78" s="100"/>
-      <c r="C78" s="99"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="94"/>
       <c r="D78" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E78" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="F78" s="99"/>
+      <c r="F78" s="94"/>
       <c r="G78" s="69">
         <f>$B$77-0.055</f>
         <v>69.944999999999993</v>
@@ -3595,16 +3600,16 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="80"/>
-      <c r="B79" s="100"/>
-      <c r="C79" s="99"/>
+      <c r="A79" s="84"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="94"/>
       <c r="D79" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E79" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="F79" s="99"/>
+      <c r="F79" s="94"/>
       <c r="G79" s="69">
         <f>$B$77-0.079</f>
         <v>69.921000000000006</v>
@@ -3615,16 +3620,16 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="80"/>
-      <c r="B80" s="100"/>
-      <c r="C80" s="99"/>
+      <c r="A80" s="84"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="94"/>
       <c r="D80" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="F80" s="99"/>
+      <c r="F80" s="94"/>
       <c r="G80" s="69">
         <f>$B$77-0.155</f>
         <v>69.844999999999999</v>
@@ -3635,16 +3640,16 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="80"/>
-      <c r="B81" s="100"/>
-      <c r="C81" s="99"/>
+      <c r="A81" s="84"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="94"/>
       <c r="D81" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E81" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="F81" s="99"/>
+      <c r="F81" s="94"/>
       <c r="G81" s="69">
         <f>$B$77-0.8</f>
         <v>69.2</v>
@@ -3655,12 +3660,12 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="80"/>
-      <c r="B82" s="100">
+      <c r="A82" s="84"/>
+      <c r="B82" s="90">
         <v>0.1</v>
       </c>
-      <c r="C82" s="99" t="s">
-        <v>343</v>
+      <c r="C82" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D82" s="69" t="s">
         <v>18</v>
@@ -3668,8 +3673,8 @@
       <c r="E82" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="F82" s="99" t="s">
-        <v>343</v>
+      <c r="F82" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G82" s="69">
         <f>$B$82-0.00007</f>
@@ -3681,16 +3686,16 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="80"/>
-      <c r="B83" s="100"/>
-      <c r="C83" s="99"/>
+      <c r="A83" s="84"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="94"/>
       <c r="D83" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="F83" s="99"/>
+      <c r="F83" s="94"/>
       <c r="G83" s="69">
         <f>$B$82-0.00007</f>
         <v>9.9930000000000005E-2</v>
@@ -3701,16 +3706,16 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="80"/>
-      <c r="B84" s="100"/>
-      <c r="C84" s="99"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="94"/>
       <c r="D84" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E84" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="F84" s="99"/>
+      <c r="F84" s="94"/>
       <c r="G84" s="69">
         <f>$B$82-0.0001</f>
         <v>9.9900000000000003E-2</v>
@@ -3721,16 +3726,16 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="80"/>
-      <c r="B85" s="100"/>
-      <c r="C85" s="99"/>
+      <c r="A85" s="84"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="94"/>
       <c r="D85" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="F85" s="99"/>
+      <c r="F85" s="94"/>
       <c r="G85" s="69">
         <f>$B$82-0.0002</f>
         <v>9.98E-2</v>
@@ -3741,16 +3746,16 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="81"/>
-      <c r="B86" s="100"/>
-      <c r="C86" s="99"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="94"/>
       <c r="D86" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E86" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="F86" s="99"/>
+      <c r="F86" s="94"/>
       <c r="G86" s="69">
         <f>$B$82-0.0011</f>
         <v>9.8900000000000002E-2</v>
@@ -3761,14 +3766,14 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="79" t="s">
+      <c r="A87" s="83" t="s">
+        <v>341</v>
+      </c>
+      <c r="B87" s="83">
+        <v>0.1</v>
+      </c>
+      <c r="C87" s="94" t="s">
         <v>342</v>
-      </c>
-      <c r="B87" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="C87" s="99" t="s">
-        <v>343</v>
       </c>
       <c r="D87" s="69" t="s">
         <v>18</v>
@@ -3776,8 +3781,8 @@
       <c r="E87" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="F87" s="99" t="s">
-        <v>343</v>
+      <c r="F87" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G87" s="77">
         <f>$B$87-0.00025</f>
@@ -3789,16 +3794,16 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="80"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="99"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="94"/>
       <c r="D88" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="F88" s="99"/>
+      <c r="F88" s="94"/>
       <c r="G88" s="77">
         <f>$B$87-0.00025</f>
         <v>9.9750000000000005E-2</v>
@@ -3809,16 +3814,16 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="80"/>
-      <c r="B89" s="80"/>
-      <c r="C89" s="99"/>
+      <c r="A89" s="84"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="94"/>
       <c r="D89" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E89" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="F89" s="99"/>
+      <c r="F89" s="94"/>
       <c r="G89" s="77">
         <f>$B$87-0.00037</f>
         <v>9.963000000000001E-2</v>
@@ -3829,16 +3834,16 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="80"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="99"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="84"/>
+      <c r="C90" s="94"/>
       <c r="D90" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E90" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="F90" s="99"/>
+      <c r="F90" s="94"/>
       <c r="G90" s="77">
         <f>$B$87-0.00065</f>
         <v>9.9350000000000008E-2</v>
@@ -3849,16 +3854,16 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="80"/>
-      <c r="B91" s="81"/>
-      <c r="C91" s="99"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="94"/>
       <c r="D91" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E91" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="F91" s="99"/>
+      <c r="F91" s="94"/>
       <c r="G91" s="72">
         <f>$B$87-0.002</f>
         <v>9.8000000000000004E-2</v>
@@ -3869,12 +3874,12 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="80"/>
-      <c r="B92" s="79">
+      <c r="A92" s="84"/>
+      <c r="B92" s="83">
         <v>0.3</v>
       </c>
-      <c r="C92" s="99" t="s">
-        <v>343</v>
+      <c r="C92" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D92" s="69" t="s">
         <v>18</v>
@@ -3882,8 +3887,8 @@
       <c r="E92" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F92" s="99" t="s">
-        <v>343</v>
+      <c r="F92" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G92" s="69">
         <f>$B$92-0.00035</f>
@@ -3895,16 +3900,16 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="80"/>
-      <c r="B93" s="80"/>
-      <c r="C93" s="99"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="94"/>
       <c r="D93" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E93" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="F93" s="99"/>
+      <c r="F93" s="94"/>
       <c r="G93" s="69">
         <f>$B$92-0.00035</f>
         <v>0.29964999999999997</v>
@@ -3915,16 +3920,16 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="80"/>
-      <c r="B94" s="80"/>
-      <c r="C94" s="99"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="94"/>
       <c r="D94" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E94" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="F94" s="99"/>
+      <c r="F94" s="94"/>
       <c r="G94" s="69">
         <f>$B$92-0.00051</f>
         <v>0.29948999999999998</v>
@@ -3935,16 +3940,16 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="80"/>
-      <c r="B95" s="80"/>
-      <c r="C95" s="99"/>
+      <c r="A95" s="84"/>
+      <c r="B95" s="84"/>
+      <c r="C95" s="94"/>
       <c r="D95" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E95" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="F95" s="99"/>
+      <c r="F95" s="94"/>
       <c r="G95" s="69">
         <f>$B$92-0.00095</f>
         <v>0.29904999999999998</v>
@@ -3955,16 +3960,16 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="80"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="99"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="94"/>
       <c r="D96" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E96" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="F96" s="99"/>
+      <c r="F96" s="94"/>
       <c r="G96" s="69">
         <f>$B$92-0.004</f>
         <v>0.29599999999999999</v>
@@ -3975,12 +3980,12 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="80"/>
-      <c r="B97" s="79">
+      <c r="A97" s="84"/>
+      <c r="B97" s="83">
         <v>0.5</v>
       </c>
-      <c r="C97" s="99" t="s">
-        <v>343</v>
+      <c r="C97" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D97" s="69" t="s">
         <v>18</v>
@@ -3988,8 +3993,8 @@
       <c r="E97" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="F97" s="99" t="s">
-        <v>343</v>
+      <c r="F97" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G97" s="69">
         <f>$B$97-0.00045</f>
@@ -4001,16 +4006,16 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="80"/>
-      <c r="B98" s="80"/>
-      <c r="C98" s="99"/>
+      <c r="A98" s="84"/>
+      <c r="B98" s="84"/>
+      <c r="C98" s="94"/>
       <c r="D98" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="F98" s="99"/>
+      <c r="F98" s="94"/>
       <c r="G98" s="69">
         <f>$B$97-0.00045</f>
         <v>0.49954999999999999</v>
@@ -4021,16 +4026,16 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="80"/>
-      <c r="B99" s="80"/>
-      <c r="C99" s="99"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="94"/>
       <c r="D99" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E99" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="F99" s="99"/>
+      <c r="F99" s="94"/>
       <c r="G99" s="69">
         <f>$B$97-0.00065</f>
         <v>0.49935000000000002</v>
@@ -4041,16 +4046,16 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="80"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="99"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="94"/>
       <c r="D100" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E100" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F100" s="99"/>
+      <c r="F100" s="94"/>
       <c r="G100" s="69">
         <f>$B$97-0.00125</f>
         <v>0.49875000000000003</v>
@@ -4061,16 +4066,16 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="80"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="99"/>
+      <c r="A101" s="84"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="94"/>
       <c r="D101" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E101" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="F101" s="99"/>
+      <c r="F101" s="94"/>
       <c r="G101" s="69">
         <f>$B$97-0.006</f>
         <v>0.49399999999999999</v>
@@ -4081,12 +4086,12 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="80"/>
-      <c r="B102" s="79">
+      <c r="A102" s="84"/>
+      <c r="B102" s="83">
         <v>0.7</v>
       </c>
-      <c r="C102" s="99" t="s">
-        <v>343</v>
+      <c r="C102" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D102" s="69" t="s">
         <v>18</v>
@@ -4094,8 +4099,8 @@
       <c r="E102" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F102" s="99" t="s">
-        <v>343</v>
+      <c r="F102" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G102" s="69">
         <f>$B$102-0.00055</f>
@@ -4107,16 +4112,16 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="80"/>
-      <c r="B103" s="80"/>
-      <c r="C103" s="99"/>
+      <c r="A103" s="84"/>
+      <c r="B103" s="84"/>
+      <c r="C103" s="94"/>
       <c r="D103" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E103" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="F103" s="99"/>
+      <c r="F103" s="94"/>
       <c r="G103" s="69">
         <f>$B$102-0.00055</f>
         <v>0.69944999999999991</v>
@@ -4127,16 +4132,16 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="80"/>
-      <c r="B104" s="80"/>
-      <c r="C104" s="99"/>
+      <c r="A104" s="84"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="94"/>
       <c r="D104" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E104" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="F104" s="99"/>
+      <c r="F104" s="94"/>
       <c r="G104" s="69">
         <f>$B$102-0.00079</f>
         <v>0.69921</v>
@@ -4147,16 +4152,16 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="80"/>
-      <c r="B105" s="80"/>
-      <c r="C105" s="99"/>
+      <c r="A105" s="84"/>
+      <c r="B105" s="84"/>
+      <c r="C105" s="94"/>
       <c r="D105" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E105" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="F105" s="99"/>
+      <c r="F105" s="94"/>
       <c r="G105" s="69">
         <f>$B$102-0.00155</f>
         <v>0.6984499999999999</v>
@@ -4167,16 +4172,16 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="80"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="99"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="94"/>
       <c r="D106" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E106" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="F106" s="99"/>
+      <c r="F106" s="94"/>
       <c r="G106" s="69">
         <f>$B$102-0.008</f>
         <v>0.69199999999999995</v>
@@ -4187,12 +4192,12 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="80"/>
-      <c r="B107" s="79">
+      <c r="A107" s="84"/>
+      <c r="B107" s="83">
         <v>1</v>
       </c>
-      <c r="C107" s="99" t="s">
-        <v>343</v>
+      <c r="C107" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D107" s="69" t="s">
         <v>18</v>
@@ -4200,8 +4205,8 @@
       <c r="E107" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="F107" s="99" t="s">
-        <v>343</v>
+      <c r="F107" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G107" s="69">
         <f>$B$107-0.0007</f>
@@ -4213,16 +4218,16 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="80"/>
-      <c r="B108" s="80"/>
-      <c r="C108" s="99"/>
+      <c r="A108" s="84"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="94"/>
       <c r="D108" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E108" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="F108" s="99"/>
+      <c r="F108" s="94"/>
       <c r="G108" s="69">
         <f>$B$107-0.0007</f>
         <v>0.99929999999999997</v>
@@ -4233,16 +4238,16 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="80"/>
-      <c r="B109" s="80"/>
-      <c r="C109" s="99"/>
+      <c r="A109" s="84"/>
+      <c r="B109" s="84"/>
+      <c r="C109" s="94"/>
       <c r="D109" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E109" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="F109" s="99"/>
+      <c r="F109" s="94"/>
       <c r="G109" s="69">
         <f>$B$107-0.001</f>
         <v>0.999</v>
@@ -4253,16 +4258,16 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="80"/>
-      <c r="B110" s="80"/>
-      <c r="C110" s="99"/>
+      <c r="A110" s="84"/>
+      <c r="B110" s="84"/>
+      <c r="C110" s="94"/>
       <c r="D110" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E110" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="F110" s="99"/>
+      <c r="F110" s="94"/>
       <c r="G110" s="69">
         <f>$B$107-0.002</f>
         <v>0.998</v>
@@ -4273,16 +4278,16 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="81"/>
-      <c r="B111" s="81"/>
-      <c r="C111" s="99"/>
+      <c r="A111" s="85"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="94"/>
       <c r="D111" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E111" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="F111" s="99"/>
+      <c r="F111" s="94"/>
       <c r="G111" s="69">
         <f>$B$107-0.011</f>
         <v>0.98899999999999999</v>
@@ -4293,14 +4298,14 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="79" t="s">
-        <v>344</v>
-      </c>
-      <c r="B112" s="79">
+      <c r="A112" s="83" t="s">
+        <v>343</v>
+      </c>
+      <c r="B112" s="83">
         <v>1</v>
       </c>
-      <c r="C112" s="99" t="s">
-        <v>343</v>
+      <c r="C112" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D112" s="69" t="s">
         <v>18</v>
@@ -4308,8 +4313,8 @@
       <c r="E112" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="F112" s="99" t="s">
-        <v>343</v>
+      <c r="F112" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G112" s="78">
         <f>$B$112-0.0025</f>
@@ -4321,16 +4326,16 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="80"/>
-      <c r="B113" s="80"/>
-      <c r="C113" s="99"/>
+      <c r="A113" s="84"/>
+      <c r="B113" s="84"/>
+      <c r="C113" s="94"/>
       <c r="D113" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E113" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="F113" s="99"/>
+      <c r="F113" s="94"/>
       <c r="G113" s="78">
         <f>$B$112-0.0025</f>
         <v>0.99750000000000005</v>
@@ -4341,16 +4346,16 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="80"/>
-      <c r="B114" s="80"/>
-      <c r="C114" s="99"/>
+      <c r="A114" s="84"/>
+      <c r="B114" s="84"/>
+      <c r="C114" s="94"/>
       <c r="D114" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="F114" s="99"/>
+      <c r="F114" s="94"/>
       <c r="G114" s="78">
         <f>$B$112-0.0037</f>
         <v>0.99629999999999996</v>
@@ -4361,16 +4366,16 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="80"/>
-      <c r="B115" s="80"/>
-      <c r="C115" s="99"/>
+      <c r="A115" s="84"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="94"/>
       <c r="D115" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F115" s="99"/>
+      <c r="F115" s="94"/>
       <c r="G115" s="78">
         <f>$B$112-0.0065</f>
         <v>0.99350000000000005</v>
@@ -4381,16 +4386,16 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="80"/>
-      <c r="B116" s="81"/>
-      <c r="C116" s="99"/>
+      <c r="A116" s="84"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="94"/>
       <c r="D116" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E116" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="F116" s="99"/>
+      <c r="F116" s="94"/>
       <c r="G116" s="74">
         <f>$B$112-0.02</f>
         <v>0.98</v>
@@ -4401,12 +4406,12 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="80"/>
-      <c r="B117" s="79">
+      <c r="A117" s="84"/>
+      <c r="B117" s="83">
         <v>3</v>
       </c>
-      <c r="C117" s="99" t="s">
-        <v>343</v>
+      <c r="C117" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D117" s="69" t="s">
         <v>18</v>
@@ -4414,8 +4419,8 @@
       <c r="E117" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F117" s="99" t="s">
-        <v>343</v>
+      <c r="F117" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G117" s="69">
         <f>$B$117-0.0035</f>
@@ -4427,16 +4432,16 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="80"/>
-      <c r="B118" s="80"/>
-      <c r="C118" s="99"/>
+      <c r="A118" s="84"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="94"/>
       <c r="D118" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E118" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="F118" s="99"/>
+      <c r="F118" s="94"/>
       <c r="G118" s="69">
         <f>$B$117-0.0035</f>
         <v>2.9965000000000002</v>
@@ -4447,16 +4452,16 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="80"/>
-      <c r="B119" s="80"/>
-      <c r="C119" s="99"/>
+      <c r="A119" s="84"/>
+      <c r="B119" s="84"/>
+      <c r="C119" s="94"/>
       <c r="D119" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E119" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="F119" s="99"/>
+      <c r="F119" s="94"/>
       <c r="G119" s="69">
         <f>$B$117-0.0051</f>
         <v>2.9948999999999999</v>
@@ -4467,16 +4472,16 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="80"/>
-      <c r="B120" s="80"/>
-      <c r="C120" s="99"/>
+      <c r="A120" s="84"/>
+      <c r="B120" s="84"/>
+      <c r="C120" s="94"/>
       <c r="D120" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E120" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="F120" s="99"/>
+      <c r="F120" s="94"/>
       <c r="G120" s="69">
         <f>$B$117-0.0095</f>
         <v>2.9904999999999999</v>
@@ -4487,16 +4492,16 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="80"/>
-      <c r="B121" s="81"/>
-      <c r="C121" s="99"/>
+      <c r="A121" s="84"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="94"/>
       <c r="D121" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E121" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="F121" s="99"/>
+      <c r="F121" s="94"/>
       <c r="G121" s="69">
         <f>$B$117-0.04</f>
         <v>2.96</v>
@@ -4507,12 +4512,12 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="80"/>
-      <c r="B122" s="79">
+      <c r="A122" s="84"/>
+      <c r="B122" s="83">
         <v>5</v>
       </c>
-      <c r="C122" s="99" t="s">
-        <v>343</v>
+      <c r="C122" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D122" s="69" t="s">
         <v>18</v>
@@ -4520,8 +4525,8 @@
       <c r="E122" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="F122" s="99" t="s">
-        <v>343</v>
+      <c r="F122" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G122" s="69">
         <f>$B$122-0.0045</f>
@@ -4533,16 +4538,16 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="80"/>
-      <c r="B123" s="80"/>
-      <c r="C123" s="99"/>
+      <c r="A123" s="84"/>
+      <c r="B123" s="84"/>
+      <c r="C123" s="94"/>
       <c r="D123" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E123" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="F123" s="99"/>
+      <c r="F123" s="94"/>
       <c r="G123" s="69">
         <f>$B$122-0.0045</f>
         <v>4.9954999999999998</v>
@@ -4553,16 +4558,16 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="80"/>
-      <c r="B124" s="80"/>
-      <c r="C124" s="99"/>
+      <c r="A124" s="84"/>
+      <c r="B124" s="84"/>
+      <c r="C124" s="94"/>
       <c r="D124" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E124" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="F124" s="99"/>
+      <c r="F124" s="94"/>
       <c r="G124" s="69">
         <f>$B$122-0.0065</f>
         <v>4.9935</v>
@@ -4573,16 +4578,16 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="80"/>
-      <c r="B125" s="80"/>
-      <c r="C125" s="99"/>
+      <c r="A125" s="84"/>
+      <c r="B125" s="84"/>
+      <c r="C125" s="94"/>
       <c r="D125" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E125" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="F125" s="99"/>
+      <c r="F125" s="94"/>
       <c r="G125" s="69">
         <f>$B$122-0.0125</f>
         <v>4.9874999999999998</v>
@@ -4593,16 +4598,16 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="80"/>
-      <c r="B126" s="81"/>
-      <c r="C126" s="99"/>
+      <c r="A126" s="84"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="94"/>
       <c r="D126" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E126" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="F126" s="99"/>
+      <c r="F126" s="94"/>
       <c r="G126" s="69">
         <f>$B$122-0.06</f>
         <v>4.9400000000000004</v>
@@ -4613,12 +4618,12 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="80"/>
-      <c r="B127" s="79">
+      <c r="A127" s="84"/>
+      <c r="B127" s="83">
         <v>7</v>
       </c>
-      <c r="C127" s="99" t="s">
-        <v>343</v>
+      <c r="C127" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D127" s="69" t="s">
         <v>18</v>
@@ -4626,8 +4631,8 @@
       <c r="E127" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="F127" s="99" t="s">
-        <v>343</v>
+      <c r="F127" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G127" s="69">
         <f>$B$127-0.0055</f>
@@ -4639,16 +4644,16 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="80"/>
-      <c r="B128" s="80"/>
-      <c r="C128" s="99"/>
+      <c r="A128" s="84"/>
+      <c r="B128" s="84"/>
+      <c r="C128" s="94"/>
       <c r="D128" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E128" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="F128" s="99"/>
+      <c r="F128" s="94"/>
       <c r="G128" s="69">
         <f>$B$127-0.0055</f>
         <v>6.9945000000000004</v>
@@ -4659,16 +4664,16 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="80"/>
-      <c r="B129" s="80"/>
-      <c r="C129" s="99"/>
+      <c r="A129" s="84"/>
+      <c r="B129" s="84"/>
+      <c r="C129" s="94"/>
       <c r="D129" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E129" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="F129" s="99"/>
+      <c r="F129" s="94"/>
       <c r="G129" s="69">
         <f>$B$127-0.0079</f>
         <v>6.9920999999999998</v>
@@ -4679,16 +4684,16 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="80"/>
-      <c r="B130" s="80"/>
-      <c r="C130" s="99"/>
+      <c r="A130" s="84"/>
+      <c r="B130" s="84"/>
+      <c r="C130" s="94"/>
       <c r="D130" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E130" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="F130" s="99"/>
+      <c r="F130" s="94"/>
       <c r="G130" s="69">
         <f>$B$127-0.0155</f>
         <v>6.9844999999999997</v>
@@ -4699,16 +4704,16 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="80"/>
-      <c r="B131" s="81"/>
-      <c r="C131" s="99"/>
+      <c r="A131" s="84"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="94"/>
       <c r="D131" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E131" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="F131" s="99"/>
+      <c r="F131" s="94"/>
       <c r="G131" s="69">
         <f>$B$127-0.08</f>
         <v>6.92</v>
@@ -4719,12 +4724,12 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="80"/>
-      <c r="B132" s="79">
+      <c r="A132" s="84"/>
+      <c r="B132" s="83">
         <v>10</v>
       </c>
-      <c r="C132" s="99" t="s">
-        <v>343</v>
+      <c r="C132" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D132" s="69" t="s">
         <v>18</v>
@@ -4732,8 +4737,8 @@
       <c r="E132" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="F132" s="99" t="s">
-        <v>343</v>
+      <c r="F132" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G132" s="69">
         <f>$B$132-0.007</f>
@@ -4745,16 +4750,16 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="80"/>
-      <c r="B133" s="80"/>
-      <c r="C133" s="99"/>
+      <c r="A133" s="84"/>
+      <c r="B133" s="84"/>
+      <c r="C133" s="94"/>
       <c r="D133" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E133" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F133" s="99"/>
+      <c r="F133" s="94"/>
       <c r="G133" s="69">
         <f>$B$132-0.007</f>
         <v>9.9930000000000003</v>
@@ -4765,16 +4770,16 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="80"/>
-      <c r="B134" s="80"/>
-      <c r="C134" s="99"/>
+      <c r="A134" s="84"/>
+      <c r="B134" s="84"/>
+      <c r="C134" s="94"/>
       <c r="D134" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E134" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="F134" s="99"/>
+      <c r="F134" s="94"/>
       <c r="G134" s="69">
         <f>$B$132-0.01</f>
         <v>9.99</v>
@@ -4785,16 +4790,16 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="80"/>
-      <c r="B135" s="80"/>
-      <c r="C135" s="99"/>
+      <c r="A135" s="84"/>
+      <c r="B135" s="84"/>
+      <c r="C135" s="94"/>
       <c r="D135" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E135" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="F135" s="99"/>
+      <c r="F135" s="94"/>
       <c r="G135" s="69">
         <f>$B$132-0.02</f>
         <v>9.98</v>
@@ -4805,16 +4810,16 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="81"/>
-      <c r="B136" s="81"/>
-      <c r="C136" s="99"/>
+      <c r="A136" s="85"/>
+      <c r="B136" s="85"/>
+      <c r="C136" s="94"/>
       <c r="D136" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E136" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F136" s="99"/>
+      <c r="F136" s="94"/>
       <c r="G136" s="69">
         <f>$B$132-0.11</f>
         <v>9.89</v>
@@ -4825,14 +4830,14 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="79" t="s">
-        <v>345</v>
-      </c>
-      <c r="B137" s="79">
+      <c r="A137" s="83" t="s">
+        <v>344</v>
+      </c>
+      <c r="B137" s="83">
         <v>10</v>
       </c>
-      <c r="C137" s="99" t="s">
-        <v>343</v>
+      <c r="C137" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D137" s="69" t="s">
         <v>18</v>
@@ -4840,8 +4845,8 @@
       <c r="E137" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="F137" s="99" t="s">
-        <v>343</v>
+      <c r="F137" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G137" s="72">
         <f>$B$137-0.025</f>
@@ -4853,16 +4858,16 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="80"/>
-      <c r="B138" s="80"/>
-      <c r="C138" s="99"/>
+      <c r="A138" s="84"/>
+      <c r="B138" s="84"/>
+      <c r="C138" s="94"/>
       <c r="D138" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E138" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F138" s="99"/>
+      <c r="F138" s="94"/>
       <c r="G138" s="72">
         <f>$B$137-0.025</f>
         <v>9.9749999999999996</v>
@@ -4873,16 +4878,16 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="80"/>
-      <c r="B139" s="80"/>
-      <c r="C139" s="99"/>
+      <c r="A139" s="84"/>
+      <c r="B139" s="84"/>
+      <c r="C139" s="94"/>
       <c r="D139" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E139" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="F139" s="99"/>
+      <c r="F139" s="94"/>
       <c r="G139" s="72">
         <f>$B$137-0.037</f>
         <v>9.9629999999999992</v>
@@ -4893,16 +4898,16 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="80"/>
-      <c r="B140" s="80"/>
-      <c r="C140" s="99"/>
+      <c r="A140" s="84"/>
+      <c r="B140" s="84"/>
+      <c r="C140" s="94"/>
       <c r="D140" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E140" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="F140" s="99"/>
+      <c r="F140" s="94"/>
       <c r="G140" s="72">
         <f>$B$137-0.065</f>
         <v>9.9350000000000005</v>
@@ -4913,16 +4918,16 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="80"/>
-      <c r="B141" s="81"/>
-      <c r="C141" s="99"/>
+      <c r="A141" s="84"/>
+      <c r="B141" s="85"/>
+      <c r="C141" s="94"/>
       <c r="D141" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E141" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="F141" s="99"/>
+      <c r="F141" s="94"/>
       <c r="G141" s="73">
         <f>$B$137-0.2</f>
         <v>9.8000000000000007</v>
@@ -4933,12 +4938,12 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="80"/>
-      <c r="B142" s="79">
+      <c r="A142" s="84"/>
+      <c r="B142" s="83">
         <v>30</v>
       </c>
-      <c r="C142" s="99" t="s">
-        <v>343</v>
+      <c r="C142" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D142" s="69" t="s">
         <v>18</v>
@@ -4946,8 +4951,8 @@
       <c r="E142" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="F142" s="99" t="s">
-        <v>343</v>
+      <c r="F142" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G142" s="69">
         <f>$B$142-0.035</f>
@@ -4959,16 +4964,16 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="80"/>
-      <c r="B143" s="80"/>
-      <c r="C143" s="99"/>
+      <c r="A143" s="84"/>
+      <c r="B143" s="84"/>
+      <c r="C143" s="94"/>
       <c r="D143" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E143" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="F143" s="99"/>
+      <c r="F143" s="94"/>
       <c r="G143" s="69">
         <f>$B$142-0.035</f>
         <v>29.965</v>
@@ -4979,16 +4984,16 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="80"/>
-      <c r="B144" s="80"/>
-      <c r="C144" s="99"/>
+      <c r="A144" s="84"/>
+      <c r="B144" s="84"/>
+      <c r="C144" s="94"/>
       <c r="D144" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E144" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="F144" s="99"/>
+      <c r="F144" s="94"/>
       <c r="G144" s="69">
         <f>$B$142-0.051</f>
         <v>29.949000000000002</v>
@@ -4999,16 +5004,16 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="80"/>
-      <c r="B145" s="80"/>
-      <c r="C145" s="99"/>
+      <c r="A145" s="84"/>
+      <c r="B145" s="84"/>
+      <c r="C145" s="94"/>
       <c r="D145" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E145" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="F145" s="99"/>
+      <c r="F145" s="94"/>
       <c r="G145" s="69">
         <f>$B$142-0.095</f>
         <v>29.905000000000001</v>
@@ -5019,16 +5024,16 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="80"/>
-      <c r="B146" s="81"/>
-      <c r="C146" s="99"/>
+      <c r="A146" s="84"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="94"/>
       <c r="D146" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E146" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="F146" s="99"/>
+      <c r="F146" s="94"/>
       <c r="G146" s="69">
         <f>$B$142-0.4</f>
         <v>29.6</v>
@@ -5039,12 +5044,12 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="80"/>
-      <c r="B147" s="79">
+      <c r="A147" s="84"/>
+      <c r="B147" s="83">
         <v>50</v>
       </c>
-      <c r="C147" s="99" t="s">
-        <v>343</v>
+      <c r="C147" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D147" s="69" t="s">
         <v>18</v>
@@ -5052,8 +5057,8 @@
       <c r="E147" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="F147" s="99" t="s">
-        <v>343</v>
+      <c r="F147" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G147" s="69">
         <f>$B$147-0.045</f>
@@ -5065,16 +5070,16 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="80"/>
-      <c r="B148" s="80"/>
-      <c r="C148" s="99"/>
+      <c r="A148" s="84"/>
+      <c r="B148" s="84"/>
+      <c r="C148" s="94"/>
       <c r="D148" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E148" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="F148" s="99"/>
+      <c r="F148" s="94"/>
       <c r="G148" s="69">
         <f>$B$147-0.045</f>
         <v>49.954999999999998</v>
@@ -5085,16 +5090,16 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="80"/>
-      <c r="B149" s="80"/>
-      <c r="C149" s="99"/>
+      <c r="A149" s="84"/>
+      <c r="B149" s="84"/>
+      <c r="C149" s="94"/>
       <c r="D149" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E149" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="F149" s="99"/>
+      <c r="F149" s="94"/>
       <c r="G149" s="69">
         <f>$B$147-0.065</f>
         <v>49.935000000000002</v>
@@ -5105,16 +5110,16 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="80"/>
-      <c r="B150" s="80"/>
-      <c r="C150" s="99"/>
+      <c r="A150" s="84"/>
+      <c r="B150" s="84"/>
+      <c r="C150" s="94"/>
       <c r="D150" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E150" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="F150" s="99"/>
+      <c r="F150" s="94"/>
       <c r="G150" s="69">
         <f>$B$147-0.125</f>
         <v>49.875</v>
@@ -5125,16 +5130,16 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="80"/>
-      <c r="B151" s="81"/>
-      <c r="C151" s="99"/>
+      <c r="A151" s="84"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="94"/>
       <c r="D151" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E151" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="F151" s="99"/>
+      <c r="F151" s="94"/>
       <c r="G151" s="69">
         <f>$B$147-0.6</f>
         <v>49.4</v>
@@ -5145,12 +5150,12 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="80"/>
-      <c r="B152" s="79">
+      <c r="A152" s="84"/>
+      <c r="B152" s="83">
         <v>70</v>
       </c>
-      <c r="C152" s="99" t="s">
-        <v>343</v>
+      <c r="C152" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D152" s="69" t="s">
         <v>18</v>
@@ -5158,8 +5163,8 @@
       <c r="E152" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="F152" s="99" t="s">
-        <v>343</v>
+      <c r="F152" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G152" s="69">
         <f>$B$152-0.055</f>
@@ -5171,16 +5176,16 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="80"/>
-      <c r="B153" s="80"/>
-      <c r="C153" s="99"/>
+      <c r="A153" s="84"/>
+      <c r="B153" s="84"/>
+      <c r="C153" s="94"/>
       <c r="D153" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E153" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="F153" s="99"/>
+      <c r="F153" s="94"/>
       <c r="G153" s="69">
         <f>$B$152-0.055</f>
         <v>69.944999999999993</v>
@@ -5191,16 +5196,16 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="80"/>
-      <c r="B154" s="80"/>
-      <c r="C154" s="99"/>
+      <c r="A154" s="84"/>
+      <c r="B154" s="84"/>
+      <c r="C154" s="94"/>
       <c r="D154" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E154" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="F154" s="99"/>
+      <c r="F154" s="94"/>
       <c r="G154" s="69">
         <f>$B$152-0.079</f>
         <v>69.921000000000006</v>
@@ -5211,16 +5216,16 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="80"/>
-      <c r="B155" s="80"/>
-      <c r="C155" s="99"/>
+      <c r="A155" s="84"/>
+      <c r="B155" s="84"/>
+      <c r="C155" s="94"/>
       <c r="D155" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E155" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="F155" s="99"/>
+      <c r="F155" s="94"/>
       <c r="G155" s="69">
         <f>$B$152-0.155</f>
         <v>69.844999999999999</v>
@@ -5231,16 +5236,16 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="80"/>
-      <c r="B156" s="81"/>
-      <c r="C156" s="99"/>
+      <c r="A156" s="84"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="94"/>
       <c r="D156" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E156" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="F156" s="99"/>
+      <c r="F156" s="94"/>
       <c r="G156" s="69">
         <f>$B$152-0.8</f>
         <v>69.2</v>
@@ -5251,12 +5256,12 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="80"/>
-      <c r="B157" s="79">
+      <c r="A157" s="84"/>
+      <c r="B157" s="83">
         <v>100</v>
       </c>
-      <c r="C157" s="99" t="s">
-        <v>343</v>
+      <c r="C157" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D157" s="69" t="s">
         <v>18</v>
@@ -5264,8 +5269,8 @@
       <c r="E157" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="F157" s="99" t="s">
-        <v>343</v>
+      <c r="F157" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G157" s="69">
         <f>$B$157-0.07</f>
@@ -5277,16 +5282,16 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="80"/>
-      <c r="B158" s="80"/>
-      <c r="C158" s="99"/>
+      <c r="A158" s="84"/>
+      <c r="B158" s="84"/>
+      <c r="C158" s="94"/>
       <c r="D158" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E158" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="F158" s="99"/>
+      <c r="F158" s="94"/>
       <c r="G158" s="69">
         <f>$B$157-0.07</f>
         <v>99.93</v>
@@ -5297,16 +5302,16 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="80"/>
-      <c r="B159" s="80"/>
-      <c r="C159" s="99"/>
+      <c r="A159" s="84"/>
+      <c r="B159" s="84"/>
+      <c r="C159" s="94"/>
       <c r="D159" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E159" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="F159" s="99"/>
+      <c r="F159" s="94"/>
       <c r="G159" s="69">
         <f>$B$157-0.1</f>
         <v>99.9</v>
@@ -5317,16 +5322,16 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="80"/>
-      <c r="B160" s="80"/>
-      <c r="C160" s="99"/>
+      <c r="A160" s="84"/>
+      <c r="B160" s="84"/>
+      <c r="C160" s="94"/>
       <c r="D160" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E160" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="F160" s="99"/>
+      <c r="F160" s="94"/>
       <c r="G160" s="69">
         <f>$B$157-0.2</f>
         <v>99.8</v>
@@ -5337,16 +5342,16 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="81"/>
-      <c r="B161" s="81"/>
-      <c r="C161" s="99"/>
+      <c r="A161" s="85"/>
+      <c r="B161" s="85"/>
+      <c r="C161" s="94"/>
       <c r="D161" s="69" t="s">
         <v>22</v>
       </c>
       <c r="E161" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="F161" s="99"/>
+      <c r="F161" s="94"/>
       <c r="G161" s="69">
         <f>$B$157-1.1</f>
         <v>98.9</v>
@@ -5357,14 +5362,14 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="79" t="s">
-        <v>347</v>
-      </c>
-      <c r="B162" s="100">
+      <c r="A162" s="83" t="s">
+        <v>346</v>
+      </c>
+      <c r="B162" s="90">
         <v>75</v>
       </c>
-      <c r="C162" s="99" t="s">
-        <v>343</v>
+      <c r="C162" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D162" s="69" t="s">
         <v>19</v>
@@ -5372,8 +5377,8 @@
       <c r="E162" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="F162" s="99" t="s">
-        <v>343</v>
+      <c r="F162" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G162" s="72">
         <f>$B$162-0.1875</f>
@@ -5385,16 +5390,16 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="80"/>
-      <c r="B163" s="100"/>
-      <c r="C163" s="99"/>
+      <c r="A163" s="84"/>
+      <c r="B163" s="90"/>
+      <c r="C163" s="94"/>
       <c r="D163" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E163" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="F163" s="99"/>
+      <c r="F163" s="94"/>
       <c r="G163" s="72">
         <f>$B$162-0.2775</f>
         <v>74.722499999999997</v>
@@ -5405,16 +5410,16 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="80"/>
-      <c r="B164" s="100"/>
-      <c r="C164" s="99"/>
+      <c r="A164" s="84"/>
+      <c r="B164" s="90"/>
+      <c r="C164" s="94"/>
       <c r="D164" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E164" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="F164" s="99"/>
+      <c r="F164" s="94"/>
       <c r="G164" s="72">
         <f>$B$162-0.4875</f>
         <v>74.512500000000003</v>
@@ -5425,12 +5430,12 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="80"/>
-      <c r="B165" s="100">
+      <c r="A165" s="84"/>
+      <c r="B165" s="90">
         <v>225</v>
       </c>
-      <c r="C165" s="99" t="s">
-        <v>343</v>
+      <c r="C165" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D165" s="69" t="s">
         <v>19</v>
@@ -5438,8 +5443,8 @@
       <c r="E165" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="F165" s="99" t="s">
-        <v>343</v>
+      <c r="F165" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G165" s="72">
         <f>$B$165-0.2625</f>
@@ -5451,16 +5456,16 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="80"/>
-      <c r="B166" s="100"/>
-      <c r="C166" s="99"/>
+      <c r="A166" s="84"/>
+      <c r="B166" s="90"/>
+      <c r="C166" s="94"/>
       <c r="D166" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E166" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="F166" s="99"/>
+      <c r="F166" s="94"/>
       <c r="G166" s="72">
         <f>$B$165-0.3825</f>
         <v>224.61750000000001</v>
@@ -5471,16 +5476,16 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="80"/>
-      <c r="B167" s="100"/>
-      <c r="C167" s="99"/>
+      <c r="A167" s="84"/>
+      <c r="B167" s="90"/>
+      <c r="C167" s="94"/>
       <c r="D167" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E167" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="F167" s="99"/>
+      <c r="F167" s="94"/>
       <c r="G167" s="72">
         <f>$B$165-0.7125</f>
         <v>224.28749999999999</v>
@@ -5491,12 +5496,12 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="80"/>
-      <c r="B168" s="100">
+      <c r="A168" s="84"/>
+      <c r="B168" s="90">
         <v>375</v>
       </c>
-      <c r="C168" s="99" t="s">
-        <v>343</v>
+      <c r="C168" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D168" s="69" t="s">
         <v>19</v>
@@ -5504,8 +5509,8 @@
       <c r="E168" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="F168" s="99" t="s">
-        <v>343</v>
+      <c r="F168" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G168" s="72">
         <f>$B$168-0.3375</f>
@@ -5517,16 +5522,16 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="80"/>
-      <c r="B169" s="100"/>
-      <c r="C169" s="99"/>
+      <c r="A169" s="84"/>
+      <c r="B169" s="90"/>
+      <c r="C169" s="94"/>
       <c r="D169" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E169" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="F169" s="99"/>
+      <c r="F169" s="94"/>
       <c r="G169" s="72">
         <f>$B$168-0.4875</f>
         <v>374.51249999999999</v>
@@ -5537,16 +5542,16 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="80"/>
-      <c r="B170" s="100"/>
-      <c r="C170" s="99"/>
+      <c r="A170" s="84"/>
+      <c r="B170" s="90"/>
+      <c r="C170" s="94"/>
       <c r="D170" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E170" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="F170" s="99"/>
+      <c r="F170" s="94"/>
       <c r="G170" s="72">
         <f>$B$168-0.9375</f>
         <v>374.0625</v>
@@ -5557,12 +5562,12 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="80"/>
-      <c r="B171" s="100">
+      <c r="A171" s="84"/>
+      <c r="B171" s="90">
         <v>525</v>
       </c>
-      <c r="C171" s="99" t="s">
-        <v>343</v>
+      <c r="C171" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D171" s="69" t="s">
         <v>19</v>
@@ -5570,8 +5575,8 @@
       <c r="E171" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="F171" s="99" t="s">
-        <v>343</v>
+      <c r="F171" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G171" s="72">
         <f>$B$171-0.6375</f>
@@ -5583,16 +5588,16 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="80"/>
-      <c r="B172" s="100"/>
-      <c r="C172" s="99"/>
+      <c r="A172" s="84"/>
+      <c r="B172" s="90"/>
+      <c r="C172" s="94"/>
       <c r="D172" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E172" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="F172" s="99"/>
+      <c r="F172" s="94"/>
       <c r="G172" s="72">
         <f>$B$171-0.8175</f>
         <v>524.1825</v>
@@ -5603,16 +5608,16 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="80"/>
-      <c r="B173" s="100"/>
-      <c r="C173" s="99"/>
+      <c r="A173" s="84"/>
+      <c r="B173" s="90"/>
+      <c r="C173" s="94"/>
       <c r="D173" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E173" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="F173" s="99"/>
+      <c r="F173" s="94"/>
       <c r="G173" s="72">
         <f>$B$171-1.3875</f>
         <v>523.61249999999995</v>
@@ -5623,12 +5628,12 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="80"/>
-      <c r="B174" s="100">
+      <c r="A174" s="84"/>
+      <c r="B174" s="90">
         <v>750</v>
       </c>
-      <c r="C174" s="99" t="s">
-        <v>343</v>
+      <c r="C174" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="D174" s="69" t="s">
         <v>19</v>
@@ -5636,8 +5641,8 @@
       <c r="E174" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="F174" s="99" t="s">
-        <v>343</v>
+      <c r="F174" s="94" t="s">
+        <v>342</v>
       </c>
       <c r="G174" s="72">
         <f>$B$174-0.975</f>
@@ -5649,16 +5654,16 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="80"/>
-      <c r="B175" s="100"/>
-      <c r="C175" s="99"/>
+      <c r="A175" s="84"/>
+      <c r="B175" s="90"/>
+      <c r="C175" s="94"/>
       <c r="D175" s="69" t="s">
         <v>20</v>
       </c>
       <c r="E175" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="F175" s="99"/>
+      <c r="F175" s="94"/>
       <c r="G175" s="73">
         <f>$B$174-1.2</f>
         <v>748.8</v>
@@ -5669,16 +5674,16 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="81"/>
-      <c r="B176" s="100"/>
-      <c r="C176" s="99"/>
+      <c r="A176" s="85"/>
+      <c r="B176" s="90"/>
+      <c r="C176" s="94"/>
       <c r="D176" s="69" t="s">
         <v>21</v>
       </c>
       <c r="E176" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="F176" s="99"/>
+      <c r="F176" s="94"/>
       <c r="G176" s="74">
         <f>$B$174-1.95</f>
         <v>748.05</v>
@@ -5707,50 +5712,50 @@
       <c r="F178" s="25"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="91" t="s">
+      <c r="A179" s="93" t="s">
+        <v>333</v>
+      </c>
+      <c r="B179" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="B179" s="91" t="s">
-        <v>335</v>
-      </c>
-      <c r="C179" s="91"/>
-      <c r="D179" s="91" t="s">
+      <c r="C179" s="93"/>
+      <c r="D179" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="E179" s="91"/>
-      <c r="F179" s="89" t="s">
+      <c r="E179" s="93"/>
+      <c r="F179" s="116" t="s">
+        <v>336</v>
+      </c>
+      <c r="G179" s="117"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="93"/>
+      <c r="B180" s="93"/>
+      <c r="C180" s="93"/>
+      <c r="D180" s="93"/>
+      <c r="E180" s="93"/>
+      <c r="F180" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="G179" s="90"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="91"/>
-      <c r="B180" s="91"/>
-      <c r="C180" s="91"/>
-      <c r="D180" s="91"/>
-      <c r="E180" s="91"/>
-      <c r="F180" s="58" t="s">
+      <c r="G180" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="G180" s="58" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="100" t="s">
-        <v>348</v>
+      <c r="A181" s="90" t="s">
+        <v>347</v>
       </c>
       <c r="B181" s="60">
         <v>100</v>
       </c>
-      <c r="C181" s="100" t="s">
-        <v>349</v>
+      <c r="C181" s="90" t="s">
+        <v>348</v>
       </c>
       <c r="D181" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="E181" s="100" t="s">
-        <v>349</v>
+      <c r="E181" s="90" t="s">
+        <v>348</v>
       </c>
       <c r="F181" s="15">
         <f>B181-0.1</f>
@@ -5762,15 +5767,15 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="100"/>
+      <c r="A182" s="90"/>
       <c r="B182" s="60">
         <v>300</v>
       </c>
-      <c r="C182" s="100"/>
+      <c r="C182" s="90"/>
       <c r="D182" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="E182" s="100"/>
+      <c r="E182" s="90"/>
       <c r="F182" s="15">
         <f>B182-0.2</f>
         <v>299.8</v>
@@ -5781,15 +5786,15 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="100"/>
+      <c r="A183" s="90"/>
       <c r="B183" s="60">
         <v>500</v>
       </c>
-      <c r="C183" s="100"/>
+      <c r="C183" s="90"/>
       <c r="D183" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="E183" s="100"/>
+      <c r="E183" s="90"/>
       <c r="F183" s="15">
         <f>B183-0.3</f>
         <v>499.7</v>
@@ -5800,15 +5805,15 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="100"/>
+      <c r="A184" s="90"/>
       <c r="B184" s="60">
         <v>700</v>
       </c>
-      <c r="C184" s="100"/>
+      <c r="C184" s="90"/>
       <c r="D184" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="E184" s="100"/>
+      <c r="E184" s="90"/>
       <c r="F184" s="15">
         <f>B184-0.4</f>
         <v>699.6</v>
@@ -5819,18 +5824,18 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="100"/>
+      <c r="A185" s="90"/>
       <c r="B185" s="60">
         <v>1</v>
       </c>
       <c r="C185" s="60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D185" s="55" t="s">
         <v>201</v>
       </c>
       <c r="E185" s="60" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F185" s="65">
         <f>B185-0.00055</f>
@@ -5842,20 +5847,20 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="100" t="s">
-        <v>351</v>
+      <c r="A186" s="90" t="s">
+        <v>350</v>
       </c>
       <c r="B186" s="60">
         <v>1</v>
       </c>
-      <c r="C186" s="79" t="s">
-        <v>350</v>
+      <c r="C186" s="83" t="s">
+        <v>349</v>
       </c>
       <c r="D186" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="E186" s="79" t="s">
-        <v>350</v>
+      <c r="E186" s="83" t="s">
+        <v>349</v>
       </c>
       <c r="F186" s="76">
         <f>B186-0.0025</f>
@@ -5867,15 +5872,15 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="100"/>
+      <c r="A187" s="90"/>
       <c r="B187" s="60">
         <v>3</v>
       </c>
-      <c r="C187" s="80"/>
+      <c r="C187" s="84"/>
       <c r="D187" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="E187" s="80"/>
+      <c r="E187" s="84"/>
       <c r="F187" s="76">
         <f>B187-0.0035</f>
         <v>2.9965000000000002</v>
@@ -5886,15 +5891,15 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="100"/>
+      <c r="A188" s="90"/>
       <c r="B188" s="60">
         <v>5</v>
       </c>
-      <c r="C188" s="80"/>
+      <c r="C188" s="84"/>
       <c r="D188" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="E188" s="80"/>
+      <c r="E188" s="84"/>
       <c r="F188" s="76">
         <f>B188-0.0045</f>
         <v>4.9954999999999998</v>
@@ -5905,15 +5910,15 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="100"/>
+      <c r="A189" s="90"/>
       <c r="B189" s="60">
         <v>7</v>
       </c>
-      <c r="C189" s="80"/>
+      <c r="C189" s="84"/>
       <c r="D189" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="E189" s="80"/>
+      <c r="E189" s="84"/>
       <c r="F189" s="76">
         <f>B189-0.0055</f>
         <v>6.9945000000000004</v>
@@ -5924,15 +5929,15 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="100"/>
+      <c r="A190" s="90"/>
       <c r="B190" s="60">
         <v>10</v>
       </c>
-      <c r="C190" s="81"/>
+      <c r="C190" s="85"/>
       <c r="D190" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="E190" s="81"/>
+      <c r="E190" s="85"/>
       <c r="F190" s="18">
         <f>B190-0.007</f>
         <v>9.9930000000000003</v>
@@ -5943,20 +5948,20 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="100" t="s">
-        <v>352</v>
+      <c r="A191" s="90" t="s">
+        <v>351</v>
       </c>
       <c r="B191" s="60">
         <v>10</v>
       </c>
-      <c r="C191" s="79" t="s">
-        <v>350</v>
+      <c r="C191" s="83" t="s">
+        <v>349</v>
       </c>
       <c r="D191" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="E191" s="79" t="s">
-        <v>350</v>
+      <c r="E191" s="83" t="s">
+        <v>349</v>
       </c>
       <c r="F191" s="15">
         <f>B191-0.01</f>
@@ -5968,15 +5973,15 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="100"/>
+      <c r="A192" s="90"/>
       <c r="B192" s="60">
         <v>30</v>
       </c>
-      <c r="C192" s="80"/>
+      <c r="C192" s="84"/>
       <c r="D192" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="E192" s="80"/>
+      <c r="E192" s="84"/>
       <c r="F192" s="15">
         <f>B192-0.02</f>
         <v>29.98</v>
@@ -5987,15 +5992,15 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="100"/>
+      <c r="A193" s="90"/>
       <c r="B193" s="60">
         <v>50</v>
       </c>
-      <c r="C193" s="80"/>
+      <c r="C193" s="84"/>
       <c r="D193" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="E193" s="80"/>
+      <c r="E193" s="84"/>
       <c r="F193" s="15">
         <f>B193-0.03</f>
         <v>49.97</v>
@@ -6006,15 +6011,15 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="100"/>
+      <c r="A194" s="90"/>
       <c r="B194" s="60">
         <v>70</v>
       </c>
-      <c r="C194" s="80"/>
+      <c r="C194" s="84"/>
       <c r="D194" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="E194" s="80"/>
+      <c r="E194" s="84"/>
       <c r="F194" s="15">
         <f>B194-0.04</f>
         <v>69.959999999999994</v>
@@ -6025,15 +6030,15 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="100"/>
+      <c r="A195" s="90"/>
       <c r="B195" s="60">
         <v>100</v>
       </c>
-      <c r="C195" s="81"/>
+      <c r="C195" s="85"/>
       <c r="D195" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="E195" s="81"/>
+      <c r="E195" s="85"/>
       <c r="F195" s="18">
         <f>B195-0.055</f>
         <v>99.944999999999993</v>
@@ -6044,20 +6049,20 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="100" t="s">
-        <v>353</v>
+      <c r="A196" s="90" t="s">
+        <v>352</v>
       </c>
       <c r="B196" s="60">
         <v>0.1</v>
       </c>
-      <c r="C196" s="79" t="s">
-        <v>354</v>
+      <c r="C196" s="83" t="s">
+        <v>353</v>
       </c>
       <c r="D196" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="E196" s="79" t="s">
-        <v>354</v>
+      <c r="E196" s="83" t="s">
+        <v>353</v>
       </c>
       <c r="F196" s="65">
         <f>B196-0.00018</f>
@@ -6069,15 +6074,15 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="100"/>
+      <c r="A197" s="90"/>
       <c r="B197" s="60">
         <v>0.3</v>
       </c>
-      <c r="C197" s="80"/>
+      <c r="C197" s="84"/>
       <c r="D197" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="E197" s="80"/>
+      <c r="E197" s="84"/>
       <c r="F197" s="65">
         <f>B197-0.00034</f>
         <v>0.29965999999999998</v>
@@ -6088,15 +6093,15 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="100"/>
+      <c r="A198" s="90"/>
       <c r="B198" s="60">
         <v>0.5</v>
       </c>
-      <c r="C198" s="80"/>
+      <c r="C198" s="84"/>
       <c r="D198" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="E198" s="80"/>
+      <c r="E198" s="84"/>
       <c r="F198" s="65">
         <f>B198-0.0005</f>
         <v>0.4995</v>
@@ -6107,15 +6112,15 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="100"/>
+      <c r="A199" s="90"/>
       <c r="B199" s="60">
         <v>0.7</v>
       </c>
-      <c r="C199" s="80"/>
+      <c r="C199" s="84"/>
       <c r="D199" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="E199" s="80"/>
+      <c r="E199" s="84"/>
       <c r="F199" s="65">
         <f>B199-0.00066</f>
         <v>0.69933999999999996</v>
@@ -6126,15 +6131,15 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="100"/>
+      <c r="A200" s="90"/>
       <c r="B200" s="60">
         <v>1</v>
       </c>
-      <c r="C200" s="81"/>
+      <c r="C200" s="85"/>
       <c r="D200" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="E200" s="81"/>
+      <c r="E200" s="85"/>
       <c r="F200" s="76">
         <f>B200-0.0009</f>
         <v>0.99909999999999999</v>
@@ -6145,20 +6150,20 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="100" t="s">
-        <v>355</v>
+      <c r="A201" s="90" t="s">
+        <v>354</v>
       </c>
       <c r="B201" s="60">
         <v>0.3</v>
       </c>
-      <c r="C201" s="79" t="s">
-        <v>354</v>
+      <c r="C201" s="83" t="s">
+        <v>353</v>
       </c>
       <c r="D201" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="E201" s="79" t="s">
-        <v>354</v>
+      <c r="E201" s="83" t="s">
+        <v>353</v>
       </c>
       <c r="F201" s="76">
         <f>B201-0.0012</f>
@@ -6170,15 +6175,15 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="100"/>
+      <c r="A202" s="90"/>
       <c r="B202" s="60">
         <v>0.9</v>
       </c>
-      <c r="C202" s="80"/>
+      <c r="C202" s="84"/>
       <c r="D202" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="E202" s="80"/>
+      <c r="E202" s="84"/>
       <c r="F202" s="76">
         <f>B202-0.0024</f>
         <v>0.89760000000000006</v>
@@ -6189,15 +6194,15 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="100"/>
+      <c r="A203" s="90"/>
       <c r="B203" s="60">
         <v>1.5</v>
       </c>
-      <c r="C203" s="80"/>
+      <c r="C203" s="84"/>
       <c r="D203" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="E203" s="80"/>
+      <c r="E203" s="84"/>
       <c r="F203" s="76">
         <f>B203-0.0036</f>
         <v>1.4964</v>
@@ -6208,15 +6213,15 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="100"/>
+      <c r="A204" s="90"/>
       <c r="B204" s="60">
         <v>2.1</v>
       </c>
-      <c r="C204" s="80"/>
+      <c r="C204" s="84"/>
       <c r="D204" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="E204" s="80"/>
+      <c r="E204" s="84"/>
       <c r="F204" s="76">
         <f>B204-0.0048</f>
         <v>2.0952000000000002</v>
@@ -6227,15 +6232,15 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="100"/>
+      <c r="A205" s="90"/>
       <c r="B205" s="60">
         <v>3</v>
       </c>
-      <c r="C205" s="81"/>
+      <c r="C205" s="85"/>
       <c r="D205" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="E205" s="81"/>
+      <c r="E205" s="85"/>
       <c r="F205" s="76">
         <f>B205-0.0066</f>
         <v>2.9933999999999998</v>
@@ -6246,20 +6251,20 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="100" t="s">
-        <v>356</v>
+      <c r="A206" s="90" t="s">
+        <v>355</v>
       </c>
       <c r="B206" s="60">
         <v>1</v>
       </c>
-      <c r="C206" s="79" t="s">
-        <v>354</v>
+      <c r="C206" s="83" t="s">
+        <v>353</v>
       </c>
       <c r="D206" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="E206" s="79" t="s">
-        <v>354</v>
+      <c r="E206" s="83" t="s">
+        <v>353</v>
       </c>
       <c r="F206" s="76">
         <f>B206-0.0022</f>
@@ -6271,15 +6276,15 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="100"/>
+      <c r="A207" s="90"/>
       <c r="B207" s="60">
         <v>3</v>
       </c>
-      <c r="C207" s="80"/>
+      <c r="C207" s="84"/>
       <c r="D207" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="E207" s="80"/>
+      <c r="E207" s="84"/>
       <c r="F207" s="76">
         <f>B207-0.0046</f>
         <v>2.9954000000000001</v>
@@ -6290,15 +6295,15 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="100"/>
+      <c r="A208" s="90"/>
       <c r="B208" s="60">
         <v>5</v>
       </c>
-      <c r="C208" s="80"/>
+      <c r="C208" s="84"/>
       <c r="D208" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="E208" s="80"/>
+      <c r="E208" s="84"/>
       <c r="F208" s="18">
         <f>B208-0.007</f>
         <v>4.9930000000000003</v>
@@ -6309,15 +6314,15 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="100"/>
+      <c r="A209" s="90"/>
       <c r="B209" s="60">
         <v>7</v>
       </c>
-      <c r="C209" s="80"/>
+      <c r="C209" s="84"/>
       <c r="D209" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="E209" s="80"/>
+      <c r="E209" s="84"/>
       <c r="F209" s="76">
         <f>B209-0.0134</f>
         <v>6.9866000000000001</v>
@@ -6328,15 +6333,15 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="100"/>
+      <c r="A210" s="90"/>
       <c r="B210" s="60">
         <v>10</v>
       </c>
-      <c r="C210" s="81"/>
+      <c r="C210" s="85"/>
       <c r="D210" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="E210" s="81"/>
+      <c r="E210" s="85"/>
       <c r="F210" s="18">
         <f>B210-0.023</f>
         <v>9.9770000000000003</v>
@@ -6365,48 +6370,48 @@
       <c r="F212" s="25"/>
     </row>
     <row r="213" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="104" t="s">
+      <c r="A213" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="B213" s="93" t="s">
         <v>334</v>
       </c>
-      <c r="B213" s="91" t="s">
+      <c r="C213" s="93"/>
+      <c r="D213" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E213" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="C213" s="91"/>
-      <c r="D213" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="E213" s="91" t="s">
+      <c r="F213" s="93"/>
+      <c r="G213" s="116" t="s">
         <v>336</v>
       </c>
-      <c r="F213" s="91"/>
-      <c r="G213" s="89" t="s">
+      <c r="H213" s="117"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="92"/>
+      <c r="B214" s="93"/>
+      <c r="C214" s="93"/>
+      <c r="D214" s="93"/>
+      <c r="E214" s="93"/>
+      <c r="F214" s="93"/>
+      <c r="G214" s="62" t="s">
         <v>337</v>
       </c>
-      <c r="H213" s="90"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="105"/>
-      <c r="B214" s="91"/>
-      <c r="C214" s="91"/>
-      <c r="D214" s="91"/>
-      <c r="E214" s="91"/>
-      <c r="F214" s="91"/>
-      <c r="G214" s="62" t="s">
+      <c r="H214" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="H214" s="62" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="79" t="s">
-        <v>357</v>
-      </c>
-      <c r="B215" s="82">
+      <c r="A215" s="83" t="s">
+        <v>356</v>
+      </c>
+      <c r="B215" s="86">
         <v>100</v>
       </c>
-      <c r="C215" s="82" t="s">
-        <v>349</v>
+      <c r="C215" s="86" t="s">
+        <v>348</v>
       </c>
       <c r="D215" s="69" t="s">
         <v>18</v>
@@ -6414,55 +6419,55 @@
       <c r="E215" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="F215" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="G215" s="82">
+      <c r="F215" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="G215" s="86">
         <f>$B$215-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H215" s="82">
+      <c r="H215" s="86">
         <f>$B$215+0.14</f>
         <v>100.14</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="80"/>
-      <c r="B216" s="83"/>
-      <c r="C216" s="83"/>
+      <c r="A216" s="84"/>
+      <c r="B216" s="87"/>
+      <c r="C216" s="87"/>
       <c r="D216" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E216" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F216" s="83"/>
-      <c r="G216" s="83"/>
-      <c r="H216" s="83"/>
+      <c r="F216" s="87"/>
+      <c r="G216" s="87"/>
+      <c r="H216" s="87"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="81"/>
-      <c r="B217" s="84"/>
-      <c r="C217" s="84"/>
+      <c r="A217" s="85"/>
+      <c r="B217" s="88"/>
+      <c r="C217" s="88"/>
       <c r="D217" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E217" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="F217" s="84"/>
-      <c r="G217" s="84"/>
-      <c r="H217" s="84"/>
+      <c r="F217" s="88"/>
+      <c r="G217" s="88"/>
+      <c r="H217" s="88"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="79" t="s">
-        <v>358</v>
-      </c>
-      <c r="B218" s="82">
+      <c r="A218" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="B218" s="86">
         <v>100</v>
       </c>
-      <c r="C218" s="82" t="s">
-        <v>349</v>
+      <c r="C218" s="86" t="s">
+        <v>348</v>
       </c>
       <c r="D218" s="69" t="s">
         <v>18</v>
@@ -6470,53 +6475,53 @@
       <c r="E218" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="F218" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="G218" s="82">
+      <c r="F218" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="G218" s="86">
         <f>B218-0.5</f>
         <v>99.5</v>
       </c>
-      <c r="H218" s="82">
+      <c r="H218" s="86">
         <f>B218+0.5</f>
         <v>100.5</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="80"/>
-      <c r="B219" s="83"/>
-      <c r="C219" s="83"/>
+      <c r="A219" s="84"/>
+      <c r="B219" s="87"/>
+      <c r="C219" s="87"/>
       <c r="D219" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E219" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="F219" s="83"/>
-      <c r="G219" s="83"/>
-      <c r="H219" s="83"/>
+      <c r="F219" s="87"/>
+      <c r="G219" s="87"/>
+      <c r="H219" s="87"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="80"/>
-      <c r="B220" s="84"/>
-      <c r="C220" s="84"/>
+      <c r="A220" s="84"/>
+      <c r="B220" s="88"/>
+      <c r="C220" s="88"/>
       <c r="D220" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E220" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="F220" s="84"/>
-      <c r="G220" s="84"/>
-      <c r="H220" s="84"/>
+      <c r="F220" s="88"/>
+      <c r="G220" s="88"/>
+      <c r="H220" s="88"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="80"/>
-      <c r="B221" s="82">
+      <c r="A221" s="84"/>
+      <c r="B221" s="86">
         <v>300</v>
       </c>
-      <c r="C221" s="82" t="s">
-        <v>349</v>
+      <c r="C221" s="86" t="s">
+        <v>348</v>
       </c>
       <c r="D221" s="69" t="s">
         <v>18</v>
@@ -6524,53 +6529,53 @@
       <c r="E221" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="F221" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="G221" s="82">
+      <c r="F221" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="G221" s="86">
         <f>B221-0.7</f>
         <v>299.3</v>
       </c>
-      <c r="H221" s="82">
+      <c r="H221" s="86">
         <f>B221+0.7</f>
         <v>300.7</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="80"/>
-      <c r="B222" s="83"/>
-      <c r="C222" s="83"/>
+      <c r="A222" s="84"/>
+      <c r="B222" s="87"/>
+      <c r="C222" s="87"/>
       <c r="D222" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E222" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="F222" s="83"/>
-      <c r="G222" s="83"/>
-      <c r="H222" s="83"/>
+      <c r="F222" s="87"/>
+      <c r="G222" s="87"/>
+      <c r="H222" s="87"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="80"/>
-      <c r="B223" s="84"/>
-      <c r="C223" s="84"/>
+      <c r="A223" s="84"/>
+      <c r="B223" s="88"/>
+      <c r="C223" s="88"/>
       <c r="D223" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E223" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="F223" s="84"/>
-      <c r="G223" s="84"/>
-      <c r="H223" s="84"/>
+      <c r="F223" s="88"/>
+      <c r="G223" s="88"/>
+      <c r="H223" s="88"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="80"/>
-      <c r="B224" s="82">
+      <c r="A224" s="84"/>
+      <c r="B224" s="86">
         <v>500</v>
       </c>
-      <c r="C224" s="82" t="s">
-        <v>349</v>
+      <c r="C224" s="86" t="s">
+        <v>348</v>
       </c>
       <c r="D224" s="69" t="s">
         <v>18</v>
@@ -6578,53 +6583,53 @@
       <c r="E224" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="F224" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="G224" s="82">
+      <c r="F224" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="G224" s="86">
         <f>B224-0.9</f>
         <v>499.1</v>
       </c>
-      <c r="H224" s="82">
+      <c r="H224" s="86">
         <f>B224+0.9</f>
         <v>500.9</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="80"/>
-      <c r="B225" s="83"/>
-      <c r="C225" s="83"/>
+      <c r="A225" s="84"/>
+      <c r="B225" s="87"/>
+      <c r="C225" s="87"/>
       <c r="D225" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E225" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="F225" s="83"/>
-      <c r="G225" s="83"/>
-      <c r="H225" s="83"/>
+      <c r="F225" s="87"/>
+      <c r="G225" s="87"/>
+      <c r="H225" s="87"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="80"/>
-      <c r="B226" s="84"/>
-      <c r="C226" s="84"/>
+      <c r="A226" s="84"/>
+      <c r="B226" s="88"/>
+      <c r="C226" s="88"/>
       <c r="D226" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E226" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="F226" s="84"/>
-      <c r="G226" s="84"/>
-      <c r="H226" s="84"/>
+      <c r="F226" s="88"/>
+      <c r="G226" s="88"/>
+      <c r="H226" s="88"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="80"/>
-      <c r="B227" s="82">
+      <c r="A227" s="84"/>
+      <c r="B227" s="86">
         <v>700</v>
       </c>
-      <c r="C227" s="82" t="s">
-        <v>349</v>
+      <c r="C227" s="86" t="s">
+        <v>348</v>
       </c>
       <c r="D227" s="69" t="s">
         <v>18</v>
@@ -6632,53 +6637,53 @@
       <c r="E227" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="F227" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="G227" s="82">
+      <c r="F227" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="G227" s="86">
         <f>B227-1.1</f>
         <v>698.9</v>
       </c>
-      <c r="H227" s="82">
+      <c r="H227" s="86">
         <f>B227+1.1</f>
         <v>701.1</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="80"/>
-      <c r="B228" s="83"/>
-      <c r="C228" s="83"/>
+      <c r="A228" s="84"/>
+      <c r="B228" s="87"/>
+      <c r="C228" s="87"/>
       <c r="D228" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E228" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="F228" s="83"/>
-      <c r="G228" s="83"/>
-      <c r="H228" s="83"/>
+      <c r="F228" s="87"/>
+      <c r="G228" s="87"/>
+      <c r="H228" s="87"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="80"/>
-      <c r="B229" s="84"/>
-      <c r="C229" s="84"/>
+      <c r="A229" s="84"/>
+      <c r="B229" s="88"/>
+      <c r="C229" s="88"/>
       <c r="D229" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E229" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="F229" s="84"/>
-      <c r="G229" s="84"/>
-      <c r="H229" s="84"/>
+      <c r="F229" s="88"/>
+      <c r="G229" s="88"/>
+      <c r="H229" s="88"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="80"/>
-      <c r="B230" s="82">
+      <c r="A230" s="84"/>
+      <c r="B230" s="86">
         <v>1</v>
       </c>
-      <c r="C230" s="82" t="s">
-        <v>350</v>
+      <c r="C230" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D230" s="69" t="s">
         <v>18</v>
@@ -6686,55 +6691,55 @@
       <c r="E230" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="F230" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G230" s="82">
+      <c r="F230" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G230" s="86">
         <f>B230-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H230" s="82">
+      <c r="H230" s="86">
         <f>B230+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="80"/>
-      <c r="B231" s="83"/>
-      <c r="C231" s="83"/>
+      <c r="A231" s="84"/>
+      <c r="B231" s="87"/>
+      <c r="C231" s="87"/>
       <c r="D231" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E231" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="F231" s="83"/>
-      <c r="G231" s="83"/>
-      <c r="H231" s="83"/>
+      <c r="F231" s="87"/>
+      <c r="G231" s="87"/>
+      <c r="H231" s="87"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="81"/>
-      <c r="B232" s="84"/>
-      <c r="C232" s="84"/>
+      <c r="A232" s="85"/>
+      <c r="B232" s="88"/>
+      <c r="C232" s="88"/>
       <c r="D232" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E232" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="F232" s="84"/>
-      <c r="G232" s="84"/>
-      <c r="H232" s="84"/>
+      <c r="F232" s="88"/>
+      <c r="G232" s="88"/>
+      <c r="H232" s="88"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="79" t="s">
-        <v>351</v>
-      </c>
-      <c r="B233" s="82">
+      <c r="A233" s="83" t="s">
+        <v>350</v>
+      </c>
+      <c r="B233" s="86">
         <v>1</v>
       </c>
-      <c r="C233" s="82" t="s">
-        <v>350</v>
+      <c r="C233" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D233" s="69" t="s">
         <v>18</v>
@@ -6742,53 +6747,53 @@
       <c r="E233" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="F233" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G233" s="82">
+      <c r="F233" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G233" s="86">
         <f>B233-0.005</f>
         <v>0.995</v>
       </c>
-      <c r="H233" s="82">
+      <c r="H233" s="86">
         <f>B233+0.005</f>
         <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="80"/>
-      <c r="B234" s="83"/>
-      <c r="C234" s="83"/>
+      <c r="A234" s="84"/>
+      <c r="B234" s="87"/>
+      <c r="C234" s="87"/>
       <c r="D234" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E234" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="F234" s="83"/>
-      <c r="G234" s="83"/>
-      <c r="H234" s="83"/>
+      <c r="F234" s="87"/>
+      <c r="G234" s="87"/>
+      <c r="H234" s="87"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="80"/>
-      <c r="B235" s="84"/>
-      <c r="C235" s="84"/>
+      <c r="A235" s="84"/>
+      <c r="B235" s="88"/>
+      <c r="C235" s="88"/>
       <c r="D235" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E235" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="F235" s="84"/>
-      <c r="G235" s="84"/>
-      <c r="H235" s="84"/>
+      <c r="F235" s="88"/>
+      <c r="G235" s="88"/>
+      <c r="H235" s="88"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="80"/>
-      <c r="B236" s="82">
+      <c r="A236" s="84"/>
+      <c r="B236" s="86">
         <v>3</v>
       </c>
-      <c r="C236" s="82" t="s">
-        <v>350</v>
+      <c r="C236" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D236" s="69" t="s">
         <v>18</v>
@@ -6796,53 +6801,53 @@
       <c r="E236" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="F236" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G236" s="82">
+      <c r="F236" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G236" s="86">
         <f>B236-0.007</f>
         <v>2.9929999999999999</v>
       </c>
-      <c r="H236" s="82">
+      <c r="H236" s="86">
         <f>B236+0.007</f>
         <v>3.0070000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="80"/>
-      <c r="B237" s="83"/>
-      <c r="C237" s="83"/>
+      <c r="A237" s="84"/>
+      <c r="B237" s="87"/>
+      <c r="C237" s="87"/>
       <c r="D237" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E237" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="F237" s="83"/>
-      <c r="G237" s="83"/>
-      <c r="H237" s="83"/>
+      <c r="F237" s="87"/>
+      <c r="G237" s="87"/>
+      <c r="H237" s="87"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="80"/>
-      <c r="B238" s="84"/>
-      <c r="C238" s="84"/>
+      <c r="A238" s="84"/>
+      <c r="B238" s="88"/>
+      <c r="C238" s="88"/>
       <c r="D238" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E238" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="F238" s="84"/>
-      <c r="G238" s="84"/>
-      <c r="H238" s="84"/>
+      <c r="F238" s="88"/>
+      <c r="G238" s="88"/>
+      <c r="H238" s="88"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="80"/>
-      <c r="B239" s="82">
+      <c r="A239" s="84"/>
+      <c r="B239" s="86">
         <v>5</v>
       </c>
-      <c r="C239" s="82" t="s">
-        <v>350</v>
+      <c r="C239" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D239" s="69" t="s">
         <v>18</v>
@@ -6850,53 +6855,53 @@
       <c r="E239" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="F239" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G239" s="82">
+      <c r="F239" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G239" s="86">
         <f>B239-0.009</f>
         <v>4.9909999999999997</v>
       </c>
-      <c r="H239" s="82">
+      <c r="H239" s="86">
         <f>B239+0.009</f>
         <v>5.0090000000000003</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="80"/>
-      <c r="B240" s="83"/>
-      <c r="C240" s="83"/>
+      <c r="A240" s="84"/>
+      <c r="B240" s="87"/>
+      <c r="C240" s="87"/>
       <c r="D240" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E240" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="F240" s="83"/>
-      <c r="G240" s="83"/>
-      <c r="H240" s="83"/>
+      <c r="F240" s="87"/>
+      <c r="G240" s="87"/>
+      <c r="H240" s="87"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="80"/>
-      <c r="B241" s="84"/>
-      <c r="C241" s="84"/>
+      <c r="A241" s="84"/>
+      <c r="B241" s="88"/>
+      <c r="C241" s="88"/>
       <c r="D241" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E241" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="F241" s="84"/>
-      <c r="G241" s="84"/>
-      <c r="H241" s="84"/>
+      <c r="F241" s="88"/>
+      <c r="G241" s="88"/>
+      <c r="H241" s="88"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="80"/>
-      <c r="B242" s="82">
+      <c r="A242" s="84"/>
+      <c r="B242" s="86">
         <v>7</v>
       </c>
-      <c r="C242" s="82" t="s">
-        <v>350</v>
+      <c r="C242" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D242" s="69" t="s">
         <v>18</v>
@@ -6904,53 +6909,53 @@
       <c r="E242" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="F242" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G242" s="82">
+      <c r="F242" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G242" s="86">
         <f>B242-0.011</f>
         <v>6.9889999999999999</v>
       </c>
-      <c r="H242" s="82">
+      <c r="H242" s="86">
         <f>B242+0.011</f>
         <v>7.0110000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="80"/>
-      <c r="B243" s="83"/>
-      <c r="C243" s="83"/>
+      <c r="A243" s="84"/>
+      <c r="B243" s="87"/>
+      <c r="C243" s="87"/>
       <c r="D243" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E243" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="F243" s="83"/>
-      <c r="G243" s="83"/>
-      <c r="H243" s="83"/>
+      <c r="F243" s="87"/>
+      <c r="G243" s="87"/>
+      <c r="H243" s="87"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="80"/>
-      <c r="B244" s="84"/>
-      <c r="C244" s="84"/>
+      <c r="A244" s="84"/>
+      <c r="B244" s="88"/>
+      <c r="C244" s="88"/>
       <c r="D244" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E244" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="F244" s="84"/>
-      <c r="G244" s="84"/>
-      <c r="H244" s="84"/>
+      <c r="F244" s="88"/>
+      <c r="G244" s="88"/>
+      <c r="H244" s="88"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="80"/>
-      <c r="B245" s="82">
+      <c r="A245" s="84"/>
+      <c r="B245" s="86">
         <v>10</v>
       </c>
-      <c r="C245" s="82" t="s">
-        <v>350</v>
+      <c r="C245" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D245" s="69" t="s">
         <v>18</v>
@@ -6958,55 +6963,55 @@
       <c r="E245" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="F245" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G245" s="82">
+      <c r="F245" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G245" s="86">
         <f>B245-0.014</f>
         <v>9.9860000000000007</v>
       </c>
-      <c r="H245" s="82">
+      <c r="H245" s="86">
         <f>B245+0.014</f>
         <v>10.013999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="80"/>
-      <c r="B246" s="83"/>
-      <c r="C246" s="83"/>
+      <c r="A246" s="84"/>
+      <c r="B246" s="87"/>
+      <c r="C246" s="87"/>
       <c r="D246" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E246" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="F246" s="83"/>
-      <c r="G246" s="83"/>
-      <c r="H246" s="83"/>
+      <c r="F246" s="87"/>
+      <c r="G246" s="87"/>
+      <c r="H246" s="87"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="81"/>
-      <c r="B247" s="84"/>
-      <c r="C247" s="84"/>
+      <c r="A247" s="85"/>
+      <c r="B247" s="88"/>
+      <c r="C247" s="88"/>
       <c r="D247" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E247" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="F247" s="84"/>
-      <c r="G247" s="84"/>
-      <c r="H247" s="84"/>
+      <c r="F247" s="88"/>
+      <c r="G247" s="88"/>
+      <c r="H247" s="88"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="79" t="s">
-        <v>352</v>
-      </c>
-      <c r="B248" s="82">
+      <c r="A248" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="B248" s="86">
         <v>10</v>
       </c>
-      <c r="C248" s="82" t="s">
-        <v>350</v>
+      <c r="C248" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D248" s="69" t="s">
         <v>18</v>
@@ -7014,53 +7019,53 @@
       <c r="E248" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="F248" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G248" s="82">
+      <c r="F248" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G248" s="86">
         <f>B248-0.05</f>
         <v>9.9499999999999993</v>
       </c>
-      <c r="H248" s="82">
+      <c r="H248" s="86">
         <f>B248+0.05</f>
         <v>10.050000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="80"/>
-      <c r="B249" s="83"/>
-      <c r="C249" s="83"/>
+      <c r="A249" s="84"/>
+      <c r="B249" s="87"/>
+      <c r="C249" s="87"/>
       <c r="D249" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E249" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="F249" s="83"/>
-      <c r="G249" s="83"/>
-      <c r="H249" s="83"/>
+      <c r="F249" s="87"/>
+      <c r="G249" s="87"/>
+      <c r="H249" s="87"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="80"/>
-      <c r="B250" s="84"/>
-      <c r="C250" s="84"/>
+      <c r="A250" s="84"/>
+      <c r="B250" s="88"/>
+      <c r="C250" s="88"/>
       <c r="D250" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E250" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="F250" s="84"/>
-      <c r="G250" s="84"/>
-      <c r="H250" s="84"/>
+      <c r="F250" s="88"/>
+      <c r="G250" s="88"/>
+      <c r="H250" s="88"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="80"/>
-      <c r="B251" s="82">
+      <c r="A251" s="84"/>
+      <c r="B251" s="86">
         <v>30</v>
       </c>
-      <c r="C251" s="82" t="s">
-        <v>350</v>
+      <c r="C251" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D251" s="69" t="s">
         <v>18</v>
@@ -7068,53 +7073,53 @@
       <c r="E251" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="F251" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G251" s="82">
+      <c r="F251" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G251" s="86">
         <f>B251-0.07</f>
         <v>29.93</v>
       </c>
-      <c r="H251" s="82">
+      <c r="H251" s="86">
         <f>B251+0.07</f>
         <v>30.07</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="80"/>
-      <c r="B252" s="83"/>
-      <c r="C252" s="83"/>
+      <c r="A252" s="84"/>
+      <c r="B252" s="87"/>
+      <c r="C252" s="87"/>
       <c r="D252" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E252" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="F252" s="83"/>
-      <c r="G252" s="83"/>
-      <c r="H252" s="83"/>
+      <c r="F252" s="87"/>
+      <c r="G252" s="87"/>
+      <c r="H252" s="87"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="80"/>
-      <c r="B253" s="84"/>
-      <c r="C253" s="84"/>
+      <c r="A253" s="84"/>
+      <c r="B253" s="88"/>
+      <c r="C253" s="88"/>
       <c r="D253" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E253" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="F253" s="84"/>
-      <c r="G253" s="84"/>
-      <c r="H253" s="84"/>
+      <c r="F253" s="88"/>
+      <c r="G253" s="88"/>
+      <c r="H253" s="88"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="80"/>
-      <c r="B254" s="82">
+      <c r="A254" s="84"/>
+      <c r="B254" s="86">
         <v>50</v>
       </c>
-      <c r="C254" s="82" t="s">
-        <v>350</v>
+      <c r="C254" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D254" s="69" t="s">
         <v>18</v>
@@ -7122,53 +7127,53 @@
       <c r="E254" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="F254" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G254" s="82">
+      <c r="F254" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G254" s="86">
         <f>B254-0.09</f>
         <v>49.91</v>
       </c>
-      <c r="H254" s="82">
+      <c r="H254" s="86">
         <f>B254+0.09</f>
         <v>50.09</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="80"/>
-      <c r="B255" s="83"/>
-      <c r="C255" s="83"/>
+      <c r="A255" s="84"/>
+      <c r="B255" s="87"/>
+      <c r="C255" s="87"/>
       <c r="D255" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E255" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="F255" s="83"/>
-      <c r="G255" s="83"/>
-      <c r="H255" s="83"/>
+      <c r="F255" s="87"/>
+      <c r="G255" s="87"/>
+      <c r="H255" s="87"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="80"/>
-      <c r="B256" s="84"/>
-      <c r="C256" s="84"/>
+      <c r="A256" s="84"/>
+      <c r="B256" s="88"/>
+      <c r="C256" s="88"/>
       <c r="D256" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E256" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="F256" s="84"/>
-      <c r="G256" s="84"/>
-      <c r="H256" s="84"/>
+      <c r="F256" s="88"/>
+      <c r="G256" s="88"/>
+      <c r="H256" s="88"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="80"/>
-      <c r="B257" s="82">
+      <c r="A257" s="84"/>
+      <c r="B257" s="86">
         <v>70</v>
       </c>
-      <c r="C257" s="82" t="s">
-        <v>350</v>
+      <c r="C257" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D257" s="69" t="s">
         <v>18</v>
@@ -7176,53 +7181,53 @@
       <c r="E257" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="F257" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G257" s="82">
+      <c r="F257" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G257" s="86">
         <f>B257-0.11</f>
         <v>69.89</v>
       </c>
-      <c r="H257" s="82">
+      <c r="H257" s="86">
         <f>B257+0.11</f>
         <v>70.11</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="80"/>
-      <c r="B258" s="83"/>
-      <c r="C258" s="83"/>
+      <c r="A258" s="84"/>
+      <c r="B258" s="87"/>
+      <c r="C258" s="87"/>
       <c r="D258" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E258" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="F258" s="83"/>
-      <c r="G258" s="83"/>
-      <c r="H258" s="83"/>
+      <c r="F258" s="87"/>
+      <c r="G258" s="87"/>
+      <c r="H258" s="87"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="80"/>
-      <c r="B259" s="84"/>
-      <c r="C259" s="84"/>
+      <c r="A259" s="84"/>
+      <c r="B259" s="88"/>
+      <c r="C259" s="88"/>
       <c r="D259" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E259" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="F259" s="84"/>
-      <c r="G259" s="84"/>
-      <c r="H259" s="84"/>
+      <c r="F259" s="88"/>
+      <c r="G259" s="88"/>
+      <c r="H259" s="88"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="80"/>
-      <c r="B260" s="82">
+      <c r="A260" s="84"/>
+      <c r="B260" s="86">
         <v>100</v>
       </c>
-      <c r="C260" s="82" t="s">
-        <v>350</v>
+      <c r="C260" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D260" s="69" t="s">
         <v>18</v>
@@ -7230,55 +7235,55 @@
       <c r="E260" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="F260" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="G260" s="82">
+      <c r="F260" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="G260" s="86">
         <f>B260-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H260" s="82">
+      <c r="H260" s="86">
         <f>B260+0.14</f>
         <v>100.14</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="80"/>
-      <c r="B261" s="83"/>
-      <c r="C261" s="83"/>
+      <c r="A261" s="84"/>
+      <c r="B261" s="87"/>
+      <c r="C261" s="87"/>
       <c r="D261" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E261" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="F261" s="83"/>
-      <c r="G261" s="83"/>
-      <c r="H261" s="83"/>
+      <c r="F261" s="87"/>
+      <c r="G261" s="87"/>
+      <c r="H261" s="87"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="81"/>
-      <c r="B262" s="84"/>
-      <c r="C262" s="84"/>
+      <c r="A262" s="85"/>
+      <c r="B262" s="88"/>
+      <c r="C262" s="88"/>
       <c r="D262" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E262" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="F262" s="84"/>
-      <c r="G262" s="84"/>
-      <c r="H262" s="84"/>
+      <c r="F262" s="88"/>
+      <c r="G262" s="88"/>
+      <c r="H262" s="88"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="79" t="s">
+      <c r="A263" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="B263" s="86">
+        <v>0.1</v>
+      </c>
+      <c r="C263" s="86" t="s">
         <v>353</v>
-      </c>
-      <c r="B263" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="C263" s="82" t="s">
-        <v>354</v>
       </c>
       <c r="D263" s="69" t="s">
         <v>18</v>
@@ -7286,53 +7291,53 @@
       <c r="E263" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="F263" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G263" s="82">
+      <c r="F263" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G263" s="86">
         <f>B263-0.0005</f>
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="H263" s="82">
+      <c r="H263" s="86">
         <f>B263+0.0005</f>
         <v>0.10050000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="80"/>
-      <c r="B264" s="83"/>
-      <c r="C264" s="83"/>
+      <c r="A264" s="84"/>
+      <c r="B264" s="87"/>
+      <c r="C264" s="87"/>
       <c r="D264" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E264" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="F264" s="83"/>
-      <c r="G264" s="83"/>
-      <c r="H264" s="83"/>
+      <c r="F264" s="87"/>
+      <c r="G264" s="87"/>
+      <c r="H264" s="87"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="80"/>
-      <c r="B265" s="84"/>
-      <c r="C265" s="84"/>
+      <c r="A265" s="84"/>
+      <c r="B265" s="88"/>
+      <c r="C265" s="88"/>
       <c r="D265" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E265" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="F265" s="84"/>
-      <c r="G265" s="84"/>
-      <c r="H265" s="84"/>
+      <c r="F265" s="88"/>
+      <c r="G265" s="88"/>
+      <c r="H265" s="88"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="80"/>
-      <c r="B266" s="82">
+      <c r="A266" s="84"/>
+      <c r="B266" s="86">
         <v>0.3</v>
       </c>
-      <c r="C266" s="82" t="s">
-        <v>354</v>
+      <c r="C266" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D266" s="69" t="s">
         <v>18</v>
@@ -7340,53 +7345,53 @@
       <c r="E266" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="F266" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G266" s="82">
+      <c r="F266" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G266" s="86">
         <f>B266-0.0007</f>
         <v>0.29930000000000001</v>
       </c>
-      <c r="H266" s="82">
+      <c r="H266" s="86">
         <f>B266+0.0007</f>
         <v>0.30069999999999997</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="80"/>
-      <c r="B267" s="83"/>
-      <c r="C267" s="83"/>
+      <c r="A267" s="84"/>
+      <c r="B267" s="87"/>
+      <c r="C267" s="87"/>
       <c r="D267" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E267" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="F267" s="83"/>
-      <c r="G267" s="83"/>
-      <c r="H267" s="83"/>
+      <c r="F267" s="87"/>
+      <c r="G267" s="87"/>
+      <c r="H267" s="87"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="80"/>
-      <c r="B268" s="84"/>
-      <c r="C268" s="84"/>
+      <c r="A268" s="84"/>
+      <c r="B268" s="88"/>
+      <c r="C268" s="88"/>
       <c r="D268" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E268" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="F268" s="84"/>
-      <c r="G268" s="84"/>
-      <c r="H268" s="84"/>
+      <c r="F268" s="88"/>
+      <c r="G268" s="88"/>
+      <c r="H268" s="88"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="80"/>
-      <c r="B269" s="82">
+      <c r="A269" s="84"/>
+      <c r="B269" s="86">
         <v>0.5</v>
       </c>
-      <c r="C269" s="82" t="s">
-        <v>354</v>
+      <c r="C269" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D269" s="69" t="s">
         <v>18</v>
@@ -7394,53 +7399,53 @@
       <c r="E269" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="F269" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G269" s="82">
+      <c r="F269" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G269" s="86">
         <f>B269-0.0009</f>
         <v>0.49909999999999999</v>
       </c>
-      <c r="H269" s="82">
+      <c r="H269" s="86">
         <f>B269+0.0009</f>
         <v>0.50090000000000001</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="80"/>
-      <c r="B270" s="83"/>
-      <c r="C270" s="83"/>
+      <c r="A270" s="84"/>
+      <c r="B270" s="87"/>
+      <c r="C270" s="87"/>
       <c r="D270" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E270" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="F270" s="83"/>
-      <c r="G270" s="83"/>
-      <c r="H270" s="83"/>
+      <c r="F270" s="87"/>
+      <c r="G270" s="87"/>
+      <c r="H270" s="87"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="80"/>
-      <c r="B271" s="84"/>
-      <c r="C271" s="84"/>
+      <c r="A271" s="84"/>
+      <c r="B271" s="88"/>
+      <c r="C271" s="88"/>
       <c r="D271" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E271" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F271" s="84"/>
-      <c r="G271" s="84"/>
-      <c r="H271" s="84"/>
+      <c r="F271" s="88"/>
+      <c r="G271" s="88"/>
+      <c r="H271" s="88"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="80"/>
-      <c r="B272" s="82">
+      <c r="A272" s="84"/>
+      <c r="B272" s="86">
         <v>0.7</v>
       </c>
-      <c r="C272" s="82" t="s">
-        <v>354</v>
+      <c r="C272" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D272" s="69" t="s">
         <v>18</v>
@@ -7448,53 +7453,53 @@
       <c r="E272" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="F272" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G272" s="82">
+      <c r="F272" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G272" s="86">
         <f>B272-0.0011</f>
         <v>0.69889999999999997</v>
       </c>
-      <c r="H272" s="82">
+      <c r="H272" s="86">
         <f>B272+0.0011</f>
         <v>0.70109999999999995</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="80"/>
-      <c r="B273" s="83"/>
-      <c r="C273" s="83"/>
+      <c r="A273" s="84"/>
+      <c r="B273" s="87"/>
+      <c r="C273" s="87"/>
       <c r="D273" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E273" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="F273" s="83"/>
-      <c r="G273" s="83"/>
-      <c r="H273" s="83"/>
+      <c r="F273" s="87"/>
+      <c r="G273" s="87"/>
+      <c r="H273" s="87"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="80"/>
-      <c r="B274" s="84"/>
-      <c r="C274" s="84"/>
+      <c r="A274" s="84"/>
+      <c r="B274" s="88"/>
+      <c r="C274" s="88"/>
       <c r="D274" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E274" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="F274" s="84"/>
-      <c r="G274" s="84"/>
-      <c r="H274" s="84"/>
+      <c r="F274" s="88"/>
+      <c r="G274" s="88"/>
+      <c r="H274" s="88"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="80"/>
-      <c r="B275" s="82">
+      <c r="A275" s="84"/>
+      <c r="B275" s="86">
         <v>1</v>
       </c>
-      <c r="C275" s="82" t="s">
-        <v>354</v>
+      <c r="C275" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D275" s="69" t="s">
         <v>18</v>
@@ -7502,55 +7507,55 @@
       <c r="E275" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="F275" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G275" s="82">
+      <c r="F275" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G275" s="86">
         <f>B275-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H275" s="82">
+      <c r="H275" s="86">
         <f>B275+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="80"/>
-      <c r="B276" s="83"/>
-      <c r="C276" s="83"/>
+      <c r="A276" s="84"/>
+      <c r="B276" s="87"/>
+      <c r="C276" s="87"/>
       <c r="D276" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E276" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F276" s="83"/>
-      <c r="G276" s="83"/>
-      <c r="H276" s="83"/>
+      <c r="F276" s="87"/>
+      <c r="G276" s="87"/>
+      <c r="H276" s="87"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="81"/>
-      <c r="B277" s="84"/>
-      <c r="C277" s="84"/>
+      <c r="A277" s="85"/>
+      <c r="B277" s="88"/>
+      <c r="C277" s="88"/>
       <c r="D277" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E277" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F277" s="84"/>
-      <c r="G277" s="84"/>
-      <c r="H277" s="84"/>
+      <c r="F277" s="88"/>
+      <c r="G277" s="88"/>
+      <c r="H277" s="88"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="79" t="s">
-        <v>355</v>
-      </c>
-      <c r="B278" s="82">
+      <c r="A278" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="B278" s="86">
         <v>0.3</v>
       </c>
-      <c r="C278" s="82" t="s">
-        <v>354</v>
+      <c r="C278" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D278" s="69" t="s">
         <v>23</v>
@@ -7558,39 +7563,39 @@
       <c r="E278" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="F278" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G278" s="82">
+      <c r="F278" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G278" s="86">
         <f>B278-0.00189</f>
         <v>0.29810999999999999</v>
       </c>
-      <c r="H278" s="82">
+      <c r="H278" s="86">
         <f>B278+0.00189</f>
         <v>0.30188999999999999</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="80"/>
-      <c r="B279" s="84"/>
-      <c r="C279" s="84"/>
+      <c r="A279" s="84"/>
+      <c r="B279" s="88"/>
+      <c r="C279" s="88"/>
       <c r="D279" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E279" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="F279" s="84"/>
-      <c r="G279" s="84"/>
-      <c r="H279" s="84"/>
+      <c r="F279" s="88"/>
+      <c r="G279" s="88"/>
+      <c r="H279" s="88"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="80"/>
-      <c r="B280" s="82">
+      <c r="A280" s="84"/>
+      <c r="B280" s="86">
         <v>0.9</v>
       </c>
-      <c r="C280" s="82" t="s">
-        <v>354</v>
+      <c r="C280" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D280" s="69" t="s">
         <v>23</v>
@@ -7598,39 +7603,39 @@
       <c r="E280" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F280" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G280" s="82">
+      <c r="F280" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G280" s="86">
         <f>B280-0.00327</f>
         <v>0.89673000000000003</v>
       </c>
-      <c r="H280" s="82">
+      <c r="H280" s="86">
         <f>B280+0.00327</f>
         <v>0.90327000000000002</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="80"/>
-      <c r="B281" s="84"/>
-      <c r="C281" s="84"/>
+      <c r="A281" s="84"/>
+      <c r="B281" s="88"/>
+      <c r="C281" s="88"/>
       <c r="D281" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E281" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="F281" s="84"/>
-      <c r="G281" s="84"/>
-      <c r="H281" s="84"/>
+      <c r="F281" s="88"/>
+      <c r="G281" s="88"/>
+      <c r="H281" s="88"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="80"/>
-      <c r="B282" s="82">
+      <c r="A282" s="84"/>
+      <c r="B282" s="86">
         <v>1.5</v>
       </c>
-      <c r="C282" s="82" t="s">
-        <v>354</v>
+      <c r="C282" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D282" s="69" t="s">
         <v>23</v>
@@ -7638,39 +7643,39 @@
       <c r="E282" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="F282" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G282" s="82">
+      <c r="F282" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G282" s="86">
         <f>B282-0.00465</f>
         <v>1.49535</v>
       </c>
-      <c r="H282" s="82">
+      <c r="H282" s="86">
         <f>B282+0.00465</f>
         <v>1.50465</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="80"/>
-      <c r="B283" s="84"/>
-      <c r="C283" s="84"/>
+      <c r="A283" s="84"/>
+      <c r="B283" s="88"/>
+      <c r="C283" s="88"/>
       <c r="D283" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E283" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F283" s="84"/>
-      <c r="G283" s="84"/>
-      <c r="H283" s="84"/>
+      <c r="F283" s="88"/>
+      <c r="G283" s="88"/>
+      <c r="H283" s="88"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="80"/>
-      <c r="B284" s="82">
+      <c r="A284" s="84"/>
+      <c r="B284" s="86">
         <v>2.1</v>
       </c>
-      <c r="C284" s="82" t="s">
-        <v>354</v>
+      <c r="C284" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D284" s="69" t="s">
         <v>23</v>
@@ -7678,39 +7683,39 @@
       <c r="E284" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F284" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G284" s="82">
+      <c r="F284" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G284" s="86">
         <f>B284-0.00603</f>
         <v>2.0939700000000001</v>
       </c>
-      <c r="H284" s="82">
+      <c r="H284" s="86">
         <f>B284+0.00603</f>
         <v>2.1060300000000001</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="80"/>
-      <c r="B285" s="84"/>
-      <c r="C285" s="84"/>
+      <c r="A285" s="84"/>
+      <c r="B285" s="88"/>
+      <c r="C285" s="88"/>
       <c r="D285" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E285" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F285" s="84"/>
-      <c r="G285" s="84"/>
-      <c r="H285" s="84"/>
+      <c r="F285" s="88"/>
+      <c r="G285" s="88"/>
+      <c r="H285" s="88"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="80"/>
-      <c r="B286" s="82">
+      <c r="A286" s="84"/>
+      <c r="B286" s="86">
         <v>3</v>
       </c>
-      <c r="C286" s="82" t="s">
-        <v>354</v>
+      <c r="C286" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D286" s="69" t="s">
         <v>23</v>
@@ -7718,41 +7723,41 @@
       <c r="E286" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="F286" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G286" s="82">
+      <c r="F286" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G286" s="86">
         <f>B286-0.00801</f>
         <v>2.9919899999999999</v>
       </c>
-      <c r="H286" s="82">
+      <c r="H286" s="86">
         <f>B286+0.00801</f>
         <v>3.0080100000000001</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="81"/>
-      <c r="B287" s="84"/>
-      <c r="C287" s="84"/>
+      <c r="A287" s="85"/>
+      <c r="B287" s="88"/>
+      <c r="C287" s="88"/>
       <c r="D287" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E287" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="F287" s="84"/>
-      <c r="G287" s="84"/>
-      <c r="H287" s="84"/>
+      <c r="F287" s="88"/>
+      <c r="G287" s="88"/>
+      <c r="H287" s="88"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="79" t="s">
-        <v>356</v>
-      </c>
-      <c r="B288" s="82">
+      <c r="A288" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="B288" s="86">
         <v>1</v>
       </c>
-      <c r="C288" s="82" t="s">
-        <v>354</v>
+      <c r="C288" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D288" s="69" t="s">
         <v>23</v>
@@ -7760,39 +7765,39 @@
       <c r="E288" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="F288" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G288" s="82">
+      <c r="F288" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G288" s="86">
         <f>B288-0.005</f>
         <v>0.995</v>
       </c>
-      <c r="H288" s="82">
+      <c r="H288" s="86">
         <f>B288+0.005</f>
         <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="80"/>
-      <c r="B289" s="84"/>
-      <c r="C289" s="84"/>
+      <c r="A289" s="84"/>
+      <c r="B289" s="88"/>
+      <c r="C289" s="88"/>
       <c r="D289" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E289" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="F289" s="84"/>
-      <c r="G289" s="84"/>
-      <c r="H289" s="84"/>
+      <c r="F289" s="88"/>
+      <c r="G289" s="88"/>
+      <c r="H289" s="88"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="80"/>
-      <c r="B290" s="82">
+      <c r="A290" s="84"/>
+      <c r="B290" s="86">
         <v>3</v>
       </c>
-      <c r="C290" s="82" t="s">
-        <v>354</v>
+      <c r="C290" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D290" s="69" t="s">
         <v>23</v>
@@ -7800,39 +7805,39 @@
       <c r="E290" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="F290" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G290" s="82">
+      <c r="F290" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G290" s="86">
         <f>B290-0.007</f>
         <v>2.9929999999999999</v>
       </c>
-      <c r="H290" s="82">
+      <c r="H290" s="86">
         <f>B290+0.007</f>
         <v>3.0070000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="80"/>
-      <c r="B291" s="84"/>
-      <c r="C291" s="84"/>
+      <c r="A291" s="84"/>
+      <c r="B291" s="88"/>
+      <c r="C291" s="88"/>
       <c r="D291" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E291" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="F291" s="84"/>
-      <c r="G291" s="84"/>
-      <c r="H291" s="84"/>
+      <c r="F291" s="88"/>
+      <c r="G291" s="88"/>
+      <c r="H291" s="88"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="80"/>
-      <c r="B292" s="82">
+      <c r="A292" s="84"/>
+      <c r="B292" s="86">
         <v>5</v>
       </c>
-      <c r="C292" s="82" t="s">
-        <v>354</v>
+      <c r="C292" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D292" s="69" t="s">
         <v>23</v>
@@ -7840,39 +7845,39 @@
       <c r="E292" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="F292" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G292" s="82">
+      <c r="F292" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G292" s="86">
         <f>B292-0.009</f>
         <v>4.9909999999999997</v>
       </c>
-      <c r="H292" s="82">
+      <c r="H292" s="86">
         <f>B292+0.009</f>
         <v>5.0090000000000003</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="80"/>
-      <c r="B293" s="84"/>
-      <c r="C293" s="84"/>
+      <c r="A293" s="84"/>
+      <c r="B293" s="88"/>
+      <c r="C293" s="88"/>
       <c r="D293" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E293" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="F293" s="84"/>
-      <c r="G293" s="84"/>
-      <c r="H293" s="84"/>
+      <c r="F293" s="88"/>
+      <c r="G293" s="88"/>
+      <c r="H293" s="88"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="80"/>
-      <c r="B294" s="82">
+      <c r="A294" s="84"/>
+      <c r="B294" s="86">
         <v>7</v>
       </c>
-      <c r="C294" s="82" t="s">
-        <v>354</v>
+      <c r="C294" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D294" s="69" t="s">
         <v>23</v>
@@ -7880,39 +7885,39 @@
       <c r="E294" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="F294" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G294" s="82">
+      <c r="F294" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G294" s="86">
         <f>B294-0.015</f>
         <v>6.9850000000000003</v>
       </c>
-      <c r="H294" s="82">
+      <c r="H294" s="86">
         <f>B294+0.015</f>
         <v>7.0149999999999997</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="80"/>
-      <c r="B295" s="84"/>
-      <c r="C295" s="84"/>
+      <c r="A295" s="84"/>
+      <c r="B295" s="88"/>
+      <c r="C295" s="88"/>
       <c r="D295" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E295" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="F295" s="84"/>
-      <c r="G295" s="84"/>
-      <c r="H295" s="84"/>
+      <c r="F295" s="88"/>
+      <c r="G295" s="88"/>
+      <c r="H295" s="88"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="80"/>
-      <c r="B296" s="82">
+      <c r="A296" s="84"/>
+      <c r="B296" s="86">
         <v>10</v>
       </c>
-      <c r="C296" s="82" t="s">
-        <v>354</v>
+      <c r="C296" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D296" s="69" t="s">
         <v>23</v>
@@ -7920,31 +7925,31 @@
       <c r="E296" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="F296" s="82" t="s">
-        <v>354</v>
-      </c>
-      <c r="G296" s="82">
+      <c r="F296" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G296" s="86">
         <f>B296-0.024</f>
         <v>9.9760000000000009</v>
       </c>
-      <c r="H296" s="82">
+      <c r="H296" s="86">
         <f>B296+0.024</f>
         <v>10.023999999999999</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="81"/>
-      <c r="B297" s="84"/>
-      <c r="C297" s="84"/>
+      <c r="A297" s="85"/>
+      <c r="B297" s="88"/>
+      <c r="C297" s="88"/>
       <c r="D297" s="69" t="s">
         <v>5</v>
       </c>
       <c r="E297" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="F297" s="84"/>
-      <c r="G297" s="84"/>
-      <c r="H297" s="84"/>
+      <c r="F297" s="88"/>
+      <c r="G297" s="88"/>
+      <c r="H297" s="88"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="20"/>
@@ -7965,57 +7970,57 @@
       <c r="F299" s="25"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="91" t="s">
-        <v>384</v>
-      </c>
-      <c r="B300" s="98" t="s">
-        <v>360</v>
-      </c>
-      <c r="C300" s="91" t="s">
+      <c r="A300" s="93" t="s">
+        <v>383</v>
+      </c>
+      <c r="B300" s="121" t="s">
+        <v>359</v>
+      </c>
+      <c r="C300" s="93" t="s">
+        <v>334</v>
+      </c>
+      <c r="D300" s="93"/>
+      <c r="E300" s="93" t="s">
         <v>335</v>
       </c>
-      <c r="D300" s="91"/>
-      <c r="E300" s="91" t="s">
+      <c r="F300" s="93"/>
+      <c r="G300" s="116" t="s">
         <v>336</v>
       </c>
-      <c r="F300" s="91"/>
-      <c r="G300" s="89" t="s">
+      <c r="H300" s="117"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="93"/>
+      <c r="B301" s="121"/>
+      <c r="C301" s="93"/>
+      <c r="D301" s="93"/>
+      <c r="E301" s="93"/>
+      <c r="F301" s="93"/>
+      <c r="G301" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="H300" s="90"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="91"/>
-      <c r="B301" s="98"/>
-      <c r="C301" s="91"/>
-      <c r="D301" s="91"/>
-      <c r="E301" s="91"/>
-      <c r="F301" s="91"/>
-      <c r="G301" s="59" t="s">
+      <c r="H301" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="H301" s="59" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="79">
+      <c r="A302" s="83">
         <v>0.1</v>
       </c>
-      <c r="B302" s="82">
+      <c r="B302" s="86">
         <v>0.1</v>
       </c>
       <c r="C302" s="69">
         <v>5</v>
       </c>
-      <c r="D302" s="82" t="s">
-        <v>361</v>
+      <c r="D302" s="86" t="s">
+        <v>360</v>
       </c>
       <c r="E302" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="F302" s="82" t="s">
-        <v>361</v>
+      <c r="F302" s="86" t="s">
+        <v>360</v>
       </c>
       <c r="G302" s="69">
         <f>C302-0.0035</f>
@@ -8027,16 +8032,16 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="80"/>
-      <c r="B303" s="83"/>
+      <c r="A303" s="84"/>
+      <c r="B303" s="87"/>
       <c r="C303" s="69">
         <v>50</v>
       </c>
-      <c r="D303" s="83"/>
+      <c r="D303" s="87"/>
       <c r="E303" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="F303" s="83"/>
+      <c r="F303" s="87"/>
       <c r="G303" s="69">
         <f>C303-0.015</f>
         <v>49.984999999999999</v>
@@ -8047,16 +8052,16 @@
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="80"/>
-      <c r="B304" s="83"/>
+      <c r="A304" s="84"/>
+      <c r="B304" s="87"/>
       <c r="C304" s="69">
         <v>500</v>
       </c>
-      <c r="D304" s="84"/>
+      <c r="D304" s="88"/>
       <c r="E304" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="F304" s="84"/>
+      <c r="F304" s="88"/>
       <c r="G304" s="69">
         <f>C304-0.035</f>
         <v>499.96499999999997</v>
@@ -8067,19 +8072,19 @@
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A305" s="81"/>
-      <c r="B305" s="84"/>
+      <c r="A305" s="85"/>
+      <c r="B305" s="88"/>
       <c r="C305" s="69">
         <v>100</v>
       </c>
       <c r="D305" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E305" s="56" t="s">
         <v>313</v>
       </c>
       <c r="F305" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G305" s="69">
         <f>C305-0.007</f>
@@ -8091,23 +8096,23 @@
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A306" s="79">
+      <c r="A306" s="83">
         <v>1</v>
       </c>
-      <c r="B306" s="82">
+      <c r="B306" s="86">
         <v>1</v>
       </c>
       <c r="C306" s="69">
         <v>5</v>
       </c>
-      <c r="D306" s="82" t="s">
-        <v>361</v>
+      <c r="D306" s="86" t="s">
+        <v>360</v>
       </c>
       <c r="E306" s="56" t="s">
         <v>314</v>
       </c>
-      <c r="F306" s="82" t="s">
-        <v>361</v>
+      <c r="F306" s="86" t="s">
+        <v>360</v>
       </c>
       <c r="G306" s="69">
         <f>C306-0.0035</f>
@@ -8119,16 +8124,16 @@
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A307" s="80"/>
-      <c r="B307" s="83"/>
+      <c r="A307" s="84"/>
+      <c r="B307" s="87"/>
       <c r="C307" s="69">
         <v>50</v>
       </c>
-      <c r="D307" s="83"/>
+      <c r="D307" s="87"/>
       <c r="E307" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="F307" s="83"/>
+      <c r="F307" s="87"/>
       <c r="G307" s="69">
         <f>C307-0.015</f>
         <v>49.984999999999999</v>
@@ -8139,16 +8144,16 @@
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A308" s="80"/>
-      <c r="B308" s="83"/>
+      <c r="A308" s="84"/>
+      <c r="B308" s="87"/>
       <c r="C308" s="69">
         <v>500</v>
       </c>
-      <c r="D308" s="84"/>
+      <c r="D308" s="88"/>
       <c r="E308" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="F308" s="84"/>
+      <c r="F308" s="88"/>
       <c r="G308" s="69">
         <f>C308-0.035</f>
         <v>499.96499999999997</v>
@@ -8159,19 +8164,19 @@
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A309" s="81"/>
-      <c r="B309" s="84"/>
+      <c r="A309" s="85"/>
+      <c r="B309" s="88"/>
       <c r="C309" s="69">
         <v>100</v>
       </c>
       <c r="D309" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E309" s="56" t="s">
         <v>317</v>
       </c>
       <c r="F309" s="69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G309" s="69">
         <f>C309-0.007</f>
@@ -8205,7 +8210,7 @@
     </row>
     <row r="312" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
@@ -8217,50 +8222,50 @@
       <c r="I312" s="8"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A313" s="91" t="s">
-        <v>359</v>
-      </c>
-      <c r="B313" s="85" t="s">
-        <v>363</v>
-      </c>
-      <c r="C313" s="86"/>
-      <c r="D313" s="85" t="s">
+      <c r="A313" s="93" t="s">
+        <v>358</v>
+      </c>
+      <c r="B313" s="112" t="s">
+        <v>362</v>
+      </c>
+      <c r="C313" s="113"/>
+      <c r="D313" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="E313" s="113"/>
+      <c r="F313" s="116" t="s">
         <v>336</v>
       </c>
-      <c r="E313" s="86"/>
-      <c r="F313" s="89" t="s">
+      <c r="G313" s="117"/>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="93"/>
+      <c r="B314" s="114"/>
+      <c r="C314" s="115"/>
+      <c r="D314" s="114"/>
+      <c r="E314" s="115"/>
+      <c r="F314" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="G313" s="90"/>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A314" s="91"/>
-      <c r="B314" s="87"/>
-      <c r="C314" s="88"/>
-      <c r="D314" s="87"/>
-      <c r="E314" s="88"/>
-      <c r="F314" s="58" t="s">
+      <c r="G314" s="58" t="s">
         <v>338</v>
-      </c>
-      <c r="G314" s="58" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B315" s="61">
         <v>100</v>
       </c>
       <c r="C315" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D315" s="57" t="s">
         <v>318</v>
       </c>
       <c r="E315" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F315" s="15">
         <f>B315-0.01</f>
@@ -8273,19 +8278,19 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B316" s="61">
         <v>1</v>
       </c>
-      <c r="C316" s="79" t="s">
-        <v>367</v>
+      <c r="C316" s="83" t="s">
+        <v>366</v>
       </c>
       <c r="D316" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="E316" s="79" t="s">
-        <v>367</v>
+      <c r="E316" s="83" t="s">
+        <v>366</v>
       </c>
       <c r="F316" s="64">
         <f>B316-0.000045</f>
@@ -8298,16 +8303,16 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B317" s="61">
         <v>10</v>
       </c>
-      <c r="C317" s="80"/>
+      <c r="C317" s="84"/>
       <c r="D317" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="E317" s="80"/>
+      <c r="E317" s="84"/>
       <c r="F317" s="65">
         <f>B317-0.00045</f>
         <v>9.9995499999999993</v>
@@ -8319,16 +8324,16 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B318" s="32">
         <v>100</v>
       </c>
-      <c r="C318" s="81"/>
+      <c r="C318" s="85"/>
       <c r="D318" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="E318" s="81"/>
+      <c r="E318" s="85"/>
       <c r="F318" s="16">
         <f>B318-0.0045</f>
         <v>99.995500000000007</v>
@@ -8348,7 +8353,7 @@
     </row>
     <row r="320" spans="1:9" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
@@ -8360,50 +8365,50 @@
       <c r="I320" s="8"/>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A321" s="91" t="s">
-        <v>359</v>
-      </c>
-      <c r="B321" s="85" t="s">
-        <v>363</v>
-      </c>
-      <c r="C321" s="86"/>
-      <c r="D321" s="85" t="s">
+      <c r="A321" s="93" t="s">
+        <v>358</v>
+      </c>
+      <c r="B321" s="112" t="s">
+        <v>362</v>
+      </c>
+      <c r="C321" s="113"/>
+      <c r="D321" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="E321" s="113"/>
+      <c r="F321" s="116" t="s">
         <v>336</v>
       </c>
-      <c r="E321" s="86"/>
-      <c r="F321" s="89" t="s">
+      <c r="G321" s="117"/>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="93"/>
+      <c r="B322" s="114"/>
+      <c r="C322" s="115"/>
+      <c r="D322" s="114"/>
+      <c r="E322" s="115"/>
+      <c r="F322" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="G321" s="90"/>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A322" s="91"/>
-      <c r="B322" s="87"/>
-      <c r="C322" s="88"/>
-      <c r="D322" s="87"/>
-      <c r="E322" s="88"/>
-      <c r="F322" s="58" t="s">
+      <c r="G322" s="58" t="s">
         <v>338</v>
-      </c>
-      <c r="G322" s="58" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="61" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B323" s="61">
         <v>1</v>
       </c>
-      <c r="C323" s="95" t="s">
-        <v>370</v>
+      <c r="C323" s="125" t="s">
+        <v>369</v>
       </c>
       <c r="D323" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="E323" s="95" t="s">
-        <v>370</v>
+      <c r="E323" s="125" t="s">
+        <v>369</v>
       </c>
       <c r="F323" s="64">
         <f>B323-0.000075</f>
@@ -8416,16 +8421,16 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B324" s="61">
         <v>10</v>
       </c>
-      <c r="C324" s="95"/>
+      <c r="C324" s="125"/>
       <c r="D324" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="E324" s="95"/>
+      <c r="E324" s="125"/>
       <c r="F324" s="16">
         <f>B324-0.0026</f>
         <v>9.9974000000000007</v>
@@ -8437,16 +8442,16 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B325" s="61">
         <v>100</v>
       </c>
-      <c r="C325" s="95"/>
+      <c r="C325" s="125"/>
       <c r="D325" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="E325" s="95"/>
+      <c r="E325" s="125"/>
       <c r="F325" s="19">
         <f>B325-0.3</f>
         <v>99.7</v>
@@ -8458,19 +8463,19 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="61" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B326" s="61">
         <v>1</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D326" s="57" t="s">
         <v>325</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F326" s="65">
         <f>B326-0.00301</f>
@@ -8498,50 +8503,50 @@
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A329" s="96" t="s">
-        <v>359</v>
-      </c>
-      <c r="B329" s="96" t="s">
+      <c r="A329" s="126" t="s">
+        <v>358</v>
+      </c>
+      <c r="B329" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C329" s="96"/>
-      <c r="D329" s="96" t="s">
+      <c r="C329" s="126"/>
+      <c r="D329" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="E329" s="96"/>
-      <c r="F329" s="89" t="s">
+      <c r="E329" s="126"/>
+      <c r="F329" s="116" t="s">
+        <v>336</v>
+      </c>
+      <c r="G329" s="117"/>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" s="127"/>
+      <c r="B330" s="126"/>
+      <c r="C330" s="126"/>
+      <c r="D330" s="126"/>
+      <c r="E330" s="126"/>
+      <c r="F330" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="G329" s="90"/>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A330" s="97"/>
-      <c r="B330" s="96"/>
-      <c r="C330" s="96"/>
-      <c r="D330" s="96"/>
-      <c r="E330" s="96"/>
-      <c r="F330" s="58" t="s">
+      <c r="G330" s="58" t="s">
         <v>338</v>
-      </c>
-      <c r="G330" s="58" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="61" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B331" s="61">
         <v>1</v>
       </c>
-      <c r="C331" s="92" t="s">
-        <v>376</v>
+      <c r="C331" s="122" t="s">
+        <v>375</v>
       </c>
       <c r="D331" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="E331" s="92" t="s">
-        <v>376</v>
+      <c r="E331" s="122" t="s">
+        <v>375</v>
       </c>
       <c r="F331" s="15">
         <f>B331-0.01</f>
@@ -8554,16 +8559,16 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B332" s="61">
         <v>10</v>
       </c>
-      <c r="C332" s="93"/>
+      <c r="C332" s="123"/>
       <c r="D332" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="E332" s="93"/>
+      <c r="E332" s="123"/>
       <c r="F332" s="15">
         <f>B332-0.05</f>
         <v>9.9499999999999993</v>
@@ -8575,16 +8580,16 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B333" s="61">
         <v>100</v>
       </c>
-      <c r="C333" s="94"/>
+      <c r="C333" s="124"/>
       <c r="D333" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="E333" s="94"/>
+      <c r="E333" s="124"/>
       <c r="F333" s="19">
         <f>B333-0.5</f>
         <v>99.5</v>
@@ -8596,19 +8601,19 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="61" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B334" s="61">
         <v>1</v>
       </c>
       <c r="C334" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D334" s="57" t="s">
         <v>329</v>
       </c>
       <c r="E334" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F334" s="18">
         <f>B334-0.005</f>
@@ -8627,12 +8632,12 @@
       <c r="E335" s="25"/>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A336" s="127" t="s">
+      <c r="A336" s="80" t="s">
+        <v>386</v>
+      </c>
+      <c r="B336" s="80"/>
+      <c r="C336" s="79" t="s">
         <v>387</v>
-      </c>
-      <c r="B336" s="127"/>
-      <c r="C336" s="128" t="s">
-        <v>388</v>
       </c>
       <c r="D336" s="14"/>
       <c r="E336" s="14"/>
@@ -8640,18 +8645,18 @@
       <c r="I336" s="2"/>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A337" s="127" t="s">
+      <c r="A337" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="B337" s="127"/>
+      <c r="B337" s="80"/>
       <c r="C337" s="41"/>
       <c r="D337" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E337" s="124" t="s">
+      <c r="E337" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="F337" s="125"/>
+      <c r="F337" s="82"/>
       <c r="G337" s="14" t="s">
         <v>17</v>
       </c>
@@ -8659,18 +8664,354 @@
       <c r="I337" s="2"/>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A338" s="127" t="s">
+      <c r="A338" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B338" s="127"/>
-      <c r="C338" s="126" t="s">
+      <c r="B338" s="80"/>
+      <c r="C338" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D338" s="126"/>
+      <c r="D338" s="89"/>
       <c r="I338" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="360">
+    <mergeCell ref="A137:A161"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="D306:D308"/>
+    <mergeCell ref="F306:F308"/>
+    <mergeCell ref="B313:C314"/>
+    <mergeCell ref="D313:E314"/>
+    <mergeCell ref="F313:G313"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="C331:C333"/>
+    <mergeCell ref="E331:E333"/>
+    <mergeCell ref="C316:C318"/>
+    <mergeCell ref="E316:E318"/>
+    <mergeCell ref="A321:A322"/>
+    <mergeCell ref="B321:C322"/>
+    <mergeCell ref="D321:E322"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="C323:C325"/>
+    <mergeCell ref="E323:E325"/>
+    <mergeCell ref="A329:A330"/>
+    <mergeCell ref="B329:C330"/>
+    <mergeCell ref="D329:E330"/>
+    <mergeCell ref="F329:G329"/>
+    <mergeCell ref="G296:G297"/>
+    <mergeCell ref="G286:G287"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="B300:B301"/>
+    <mergeCell ref="C300:D301"/>
+    <mergeCell ref="E300:F301"/>
+    <mergeCell ref="G300:H300"/>
+    <mergeCell ref="A302:A305"/>
+    <mergeCell ref="B302:B305"/>
+    <mergeCell ref="D302:D304"/>
+    <mergeCell ref="F302:F304"/>
+    <mergeCell ref="A288:A297"/>
+    <mergeCell ref="B288:B289"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="F288:F289"/>
+    <mergeCell ref="G288:G289"/>
+    <mergeCell ref="H288:H289"/>
+    <mergeCell ref="B290:B291"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="F290:F291"/>
+    <mergeCell ref="G290:G291"/>
+    <mergeCell ref="H290:H291"/>
+    <mergeCell ref="B292:B293"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="F292:F293"/>
+    <mergeCell ref="G292:G293"/>
+    <mergeCell ref="H292:H293"/>
+    <mergeCell ref="B294:B295"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="F294:F295"/>
+    <mergeCell ref="G294:G295"/>
+    <mergeCell ref="H294:H295"/>
+    <mergeCell ref="B296:B297"/>
+    <mergeCell ref="H296:H297"/>
+    <mergeCell ref="A278:A287"/>
+    <mergeCell ref="B278:B279"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="F278:F279"/>
+    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="F280:F281"/>
+    <mergeCell ref="G280:G281"/>
+    <mergeCell ref="H280:H281"/>
+    <mergeCell ref="B282:B283"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="F282:F283"/>
+    <mergeCell ref="G282:G283"/>
+    <mergeCell ref="H282:H283"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="F284:F285"/>
+    <mergeCell ref="G284:G285"/>
+    <mergeCell ref="H284:H285"/>
+    <mergeCell ref="B286:B287"/>
+    <mergeCell ref="H286:H287"/>
+    <mergeCell ref="A263:A277"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="F263:F265"/>
+    <mergeCell ref="G263:G265"/>
+    <mergeCell ref="H263:H265"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="C266:C268"/>
+    <mergeCell ref="F266:F268"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="H266:H268"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="F269:F271"/>
+    <mergeCell ref="G269:G271"/>
+    <mergeCell ref="H269:H271"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="F272:F274"/>
+    <mergeCell ref="G272:G274"/>
+    <mergeCell ref="H272:H274"/>
+    <mergeCell ref="B275:B277"/>
+    <mergeCell ref="G275:G277"/>
+    <mergeCell ref="H275:H277"/>
+    <mergeCell ref="A248:A262"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="C248:C250"/>
+    <mergeCell ref="F248:F250"/>
+    <mergeCell ref="G248:G250"/>
+    <mergeCell ref="H248:H250"/>
+    <mergeCell ref="B251:B253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="F251:F253"/>
+    <mergeCell ref="G251:G253"/>
+    <mergeCell ref="H251:H253"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="F254:F256"/>
+    <mergeCell ref="G254:G256"/>
+    <mergeCell ref="H254:H256"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="F257:F259"/>
+    <mergeCell ref="G257:G259"/>
+    <mergeCell ref="H257:H259"/>
+    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="G260:G262"/>
+    <mergeCell ref="H260:H262"/>
+    <mergeCell ref="A233:A247"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="C233:C235"/>
+    <mergeCell ref="F233:F235"/>
+    <mergeCell ref="G233:G235"/>
+    <mergeCell ref="H233:H235"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="F236:F238"/>
+    <mergeCell ref="G236:G238"/>
+    <mergeCell ref="H236:H238"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="F239:F241"/>
+    <mergeCell ref="G239:G241"/>
+    <mergeCell ref="H239:H241"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="C242:C244"/>
+    <mergeCell ref="F242:F244"/>
+    <mergeCell ref="G242:G244"/>
+    <mergeCell ref="H242:H244"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="G245:G247"/>
+    <mergeCell ref="H245:H247"/>
+    <mergeCell ref="A218:A232"/>
+    <mergeCell ref="B218:B220"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="F218:F220"/>
+    <mergeCell ref="G218:G220"/>
+    <mergeCell ref="H218:H220"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="F221:F223"/>
+    <mergeCell ref="G221:G223"/>
+    <mergeCell ref="H221:H223"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="F224:F226"/>
+    <mergeCell ref="G224:G226"/>
+    <mergeCell ref="H224:H226"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="F227:F229"/>
+    <mergeCell ref="G227:G229"/>
+    <mergeCell ref="H227:H229"/>
+    <mergeCell ref="B230:B232"/>
+    <mergeCell ref="G230:G232"/>
+    <mergeCell ref="H230:H232"/>
+    <mergeCell ref="E196:E200"/>
+    <mergeCell ref="C201:C205"/>
+    <mergeCell ref="E201:E205"/>
+    <mergeCell ref="C206:C210"/>
+    <mergeCell ref="E206:E210"/>
+    <mergeCell ref="B213:C214"/>
+    <mergeCell ref="E213:F214"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="G215:G217"/>
+    <mergeCell ref="H215:H217"/>
+    <mergeCell ref="F174:F176"/>
+    <mergeCell ref="B179:C180"/>
+    <mergeCell ref="D179:E180"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="C181:C184"/>
+    <mergeCell ref="E181:E184"/>
+    <mergeCell ref="C186:C190"/>
+    <mergeCell ref="E186:E190"/>
+    <mergeCell ref="C191:C195"/>
+    <mergeCell ref="E191:E195"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="F165:F167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="F168:F170"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="F171:F173"/>
+    <mergeCell ref="F137:F141"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="F142:F146"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="F147:F151"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="F152:F156"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="F157:F161"/>
+    <mergeCell ref="F112:F116"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="F117:F121"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="F122:F126"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="F127:F131"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="F132:F136"/>
+    <mergeCell ref="A87:A111"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="F87:F91"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="F92:F96"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="F97:F101"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="F102:F106"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A62:A86"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C196:C200"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A306:A309"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="A196:A200"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A181:A185"/>
+    <mergeCell ref="A186:A190"/>
+    <mergeCell ref="A191:A195"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="A112:A136"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="A162:A176"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="B174:B176"/>
     <mergeCell ref="A337:B337"/>
     <mergeCell ref="E337:F337"/>
     <mergeCell ref="A215:A217"/>
@@ -8695,342 +9036,6 @@
     <mergeCell ref="F286:F287"/>
     <mergeCell ref="C296:C297"/>
     <mergeCell ref="F296:F297"/>
-    <mergeCell ref="A306:A309"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="A196:A200"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="A181:A185"/>
-    <mergeCell ref="A186:A190"/>
-    <mergeCell ref="A191:A195"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="A112:A136"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="A162:A176"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C196:C200"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="B60:C61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A62:A86"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="A87:A111"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="F87:F91"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="F92:F96"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="F97:F101"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="F102:F106"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="F112:F116"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="F117:F121"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="F122:F126"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="F132:F136"/>
-    <mergeCell ref="F137:F141"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="F142:F146"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="F147:F151"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="F152:F156"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="F157:F161"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="F165:F167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="F168:F170"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="F171:F173"/>
-    <mergeCell ref="F174:F176"/>
-    <mergeCell ref="B179:C180"/>
-    <mergeCell ref="D179:E180"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="C181:C184"/>
-    <mergeCell ref="E181:E184"/>
-    <mergeCell ref="C186:C190"/>
-    <mergeCell ref="E186:E190"/>
-    <mergeCell ref="C191:C195"/>
-    <mergeCell ref="E191:E195"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="E196:E200"/>
-    <mergeCell ref="C201:C205"/>
-    <mergeCell ref="E201:E205"/>
-    <mergeCell ref="C206:C210"/>
-    <mergeCell ref="E206:E210"/>
-    <mergeCell ref="B213:C214"/>
-    <mergeCell ref="E213:F214"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="G215:G217"/>
-    <mergeCell ref="H215:H217"/>
-    <mergeCell ref="A218:A232"/>
-    <mergeCell ref="B218:B220"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="F218:F220"/>
-    <mergeCell ref="G218:G220"/>
-    <mergeCell ref="H218:H220"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="F221:F223"/>
-    <mergeCell ref="G221:G223"/>
-    <mergeCell ref="H221:H223"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="F224:F226"/>
-    <mergeCell ref="G224:G226"/>
-    <mergeCell ref="H224:H226"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="F227:F229"/>
-    <mergeCell ref="G227:G229"/>
-    <mergeCell ref="H227:H229"/>
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="G230:G232"/>
-    <mergeCell ref="H230:H232"/>
-    <mergeCell ref="A233:A247"/>
-    <mergeCell ref="B233:B235"/>
-    <mergeCell ref="C233:C235"/>
-    <mergeCell ref="F233:F235"/>
-    <mergeCell ref="G233:G235"/>
-    <mergeCell ref="H233:H235"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="F236:F238"/>
-    <mergeCell ref="G236:G238"/>
-    <mergeCell ref="H236:H238"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="F239:F241"/>
-    <mergeCell ref="G239:G241"/>
-    <mergeCell ref="H239:H241"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="F242:F244"/>
-    <mergeCell ref="G242:G244"/>
-    <mergeCell ref="H242:H244"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="G245:G247"/>
-    <mergeCell ref="H245:H247"/>
-    <mergeCell ref="A248:A262"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="C248:C250"/>
-    <mergeCell ref="F248:F250"/>
-    <mergeCell ref="G248:G250"/>
-    <mergeCell ref="H248:H250"/>
-    <mergeCell ref="B251:B253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="F251:F253"/>
-    <mergeCell ref="G251:G253"/>
-    <mergeCell ref="H251:H253"/>
-    <mergeCell ref="B254:B256"/>
-    <mergeCell ref="C254:C256"/>
-    <mergeCell ref="F254:F256"/>
-    <mergeCell ref="G254:G256"/>
-    <mergeCell ref="H254:H256"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="F257:F259"/>
-    <mergeCell ref="G257:G259"/>
-    <mergeCell ref="H257:H259"/>
-    <mergeCell ref="B260:B262"/>
-    <mergeCell ref="G260:G262"/>
-    <mergeCell ref="H260:H262"/>
-    <mergeCell ref="A263:A277"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="C263:C265"/>
-    <mergeCell ref="F263:F265"/>
-    <mergeCell ref="G263:G265"/>
-    <mergeCell ref="H263:H265"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="C266:C268"/>
-    <mergeCell ref="F266:F268"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="H266:H268"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="F269:F271"/>
-    <mergeCell ref="G269:G271"/>
-    <mergeCell ref="H269:H271"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="F272:F274"/>
-    <mergeCell ref="G272:G274"/>
-    <mergeCell ref="H272:H274"/>
-    <mergeCell ref="B275:B277"/>
-    <mergeCell ref="G275:G277"/>
-    <mergeCell ref="H275:H277"/>
-    <mergeCell ref="A278:A287"/>
-    <mergeCell ref="B278:B279"/>
-    <mergeCell ref="C278:C279"/>
-    <mergeCell ref="F278:F279"/>
-    <mergeCell ref="G278:G279"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="B280:B281"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="F280:F281"/>
-    <mergeCell ref="G280:G281"/>
-    <mergeCell ref="H280:H281"/>
-    <mergeCell ref="B282:B283"/>
-    <mergeCell ref="C282:C283"/>
-    <mergeCell ref="F282:F283"/>
-    <mergeCell ref="G282:G283"/>
-    <mergeCell ref="H282:H283"/>
-    <mergeCell ref="B284:B285"/>
-    <mergeCell ref="C284:C285"/>
-    <mergeCell ref="F284:F285"/>
-    <mergeCell ref="G284:G285"/>
-    <mergeCell ref="H284:H285"/>
-    <mergeCell ref="B286:B287"/>
-    <mergeCell ref="H286:H287"/>
-    <mergeCell ref="A288:A297"/>
-    <mergeCell ref="B288:B289"/>
-    <mergeCell ref="C288:C289"/>
-    <mergeCell ref="F288:F289"/>
-    <mergeCell ref="G288:G289"/>
-    <mergeCell ref="H288:H289"/>
-    <mergeCell ref="B290:B291"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="F290:F291"/>
-    <mergeCell ref="G290:G291"/>
-    <mergeCell ref="H290:H291"/>
-    <mergeCell ref="B292:B293"/>
-    <mergeCell ref="C292:C293"/>
-    <mergeCell ref="F292:F293"/>
-    <mergeCell ref="G292:G293"/>
-    <mergeCell ref="H292:H293"/>
-    <mergeCell ref="B294:B295"/>
-    <mergeCell ref="C294:C295"/>
-    <mergeCell ref="F294:F295"/>
-    <mergeCell ref="G294:G295"/>
-    <mergeCell ref="H294:H295"/>
-    <mergeCell ref="B296:B297"/>
-    <mergeCell ref="H296:H297"/>
-    <mergeCell ref="A300:A301"/>
-    <mergeCell ref="B300:B301"/>
-    <mergeCell ref="C300:D301"/>
-    <mergeCell ref="E300:F301"/>
-    <mergeCell ref="G300:H300"/>
-    <mergeCell ref="A302:A305"/>
-    <mergeCell ref="B302:B305"/>
-    <mergeCell ref="D302:D304"/>
-    <mergeCell ref="F302:F304"/>
-    <mergeCell ref="A137:A161"/>
-    <mergeCell ref="B306:B309"/>
-    <mergeCell ref="D306:D308"/>
-    <mergeCell ref="F306:F308"/>
-    <mergeCell ref="B313:C314"/>
-    <mergeCell ref="D313:E314"/>
-    <mergeCell ref="F313:G313"/>
-    <mergeCell ref="A313:A314"/>
-    <mergeCell ref="C331:C333"/>
-    <mergeCell ref="E331:E333"/>
-    <mergeCell ref="C316:C318"/>
-    <mergeCell ref="E316:E318"/>
-    <mergeCell ref="A321:A322"/>
-    <mergeCell ref="B321:C322"/>
-    <mergeCell ref="D321:E322"/>
-    <mergeCell ref="F321:G321"/>
-    <mergeCell ref="C323:C325"/>
-    <mergeCell ref="E323:E325"/>
-    <mergeCell ref="A329:A330"/>
-    <mergeCell ref="B329:C330"/>
-    <mergeCell ref="D329:E330"/>
-    <mergeCell ref="F329:G329"/>
-    <mergeCell ref="G296:G297"/>
-    <mergeCell ref="G286:G287"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.67708333333333337" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
